--- a/output10_species_priority_table/Table11_v02_NIS_priority_indented.xlsx
+++ b/output10_species_priority_table/Table11_v02_NIS_priority_indented.xlsx
@@ -14,43 +14,43 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1809" uniqueCount="303">
   <si>
-    <t>Phylum</t>
-  </si>
-  <si>
-    <t>Klasse</t>
-  </si>
-  <si>
-    <t>Orden</t>
-  </si>
-  <si>
-    <t>Familie</t>
-  </si>
-  <si>
-    <t>Genus_og_species_og_author</t>
-  </si>
-  <si>
-    <t>Obs_Dk</t>
-  </si>
-  <si>
-    <t>Nseq_NCBI_for_IkkHjmM_Art</t>
-  </si>
-  <si>
-    <t>Mngl_Nseq_NCBI_for_tbsl_art_IkkHjmM_Art</t>
-  </si>
-  <si>
-    <t>Mngl_Nseq_NCBI_for_tbsl_art_i_fam_IkkHjmM_Art</t>
-  </si>
-  <si>
-    <t>Mngl_Nseq_NCBI_for_tbsl_art_i_ord_IkkHjmM_Art</t>
-  </si>
-  <si>
-    <t>Mngl_Nseq_NCBI_for_tbsl_art_i_gen_IkkHjmM_Art</t>
-  </si>
-  <si>
-    <t>PrNr</t>
-  </si>
-  <si>
-    <t>Reference</t>
+    <t>Phyl</t>
+  </si>
+  <si>
+    <t>Klas</t>
+  </si>
+  <si>
+    <t>Orde</t>
+  </si>
+  <si>
+    <t>Famil</t>
+  </si>
+  <si>
+    <t>GeSpAu</t>
+  </si>
+  <si>
+    <t>ODK</t>
+  </si>
+  <si>
+    <t>nS</t>
+  </si>
+  <si>
+    <t>mS</t>
+  </si>
+  <si>
+    <t>mSs</t>
+  </si>
+  <si>
+    <t>mSo</t>
+  </si>
+  <si>
+    <t>mSg</t>
+  </si>
+  <si>
+    <t>PN</t>
+  </si>
+  <si>
+    <t>Ref</t>
   </si>
   <si>
     <t>1</t>
@@ -449,7 +449,7 @@
     <t>Annelida</t>
   </si>
   <si>
-    <t>AA</t>
+    <t/>
   </si>
   <si>
     <t>Arthropoda</t>
@@ -1021,40 +1021,40 @@
         <v>144</v>
       </c>
       <c r="C2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3">
@@ -1068,37 +1068,37 @@
         <v>156</v>
       </c>
       <c r="D3" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="E3" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="F3" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="G3" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="H3" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="I3" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="J3" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="K3" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="L3" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="M3" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="N3" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4">
@@ -1115,34 +1115,34 @@
         <v>172</v>
       </c>
       <c r="E4" t="s">
-        <v>145</v>
+        <v>172</v>
       </c>
       <c r="F4" t="s">
-        <v>145</v>
+        <v>172</v>
       </c>
       <c r="G4" t="s">
-        <v>145</v>
+        <v>172</v>
       </c>
       <c r="H4" t="s">
-        <v>145</v>
+        <v>172</v>
       </c>
       <c r="I4" t="s">
-        <v>145</v>
+        <v>172</v>
       </c>
       <c r="J4" t="s">
-        <v>145</v>
+        <v>172</v>
       </c>
       <c r="K4" t="s">
-        <v>145</v>
+        <v>172</v>
       </c>
       <c r="L4" t="s">
-        <v>145</v>
+        <v>172</v>
       </c>
       <c r="M4" t="s">
-        <v>145</v>
+        <v>172</v>
       </c>
       <c r="N4" t="s">
-        <v>145</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5">
@@ -1162,31 +1162,31 @@
         <v>199</v>
       </c>
       <c r="F5" t="s">
-        <v>145</v>
+        <v>199</v>
       </c>
       <c r="G5" t="s">
-        <v>145</v>
+        <v>199</v>
       </c>
       <c r="H5" t="s">
-        <v>145</v>
+        <v>199</v>
       </c>
       <c r="I5" t="s">
-        <v>145</v>
+        <v>199</v>
       </c>
       <c r="J5" t="s">
-        <v>145</v>
+        <v>199</v>
       </c>
       <c r="K5" t="s">
-        <v>145</v>
+        <v>199</v>
       </c>
       <c r="L5" t="s">
-        <v>145</v>
+        <v>199</v>
       </c>
       <c r="M5" t="s">
-        <v>145</v>
+        <v>199</v>
       </c>
       <c r="N5" t="s">
-        <v>145</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6">
@@ -1247,34 +1247,34 @@
         <v>173</v>
       </c>
       <c r="E7" t="s">
-        <v>145</v>
+        <v>173</v>
       </c>
       <c r="F7" t="s">
-        <v>145</v>
+        <v>173</v>
       </c>
       <c r="G7" t="s">
-        <v>145</v>
+        <v>173</v>
       </c>
       <c r="H7" t="s">
-        <v>145</v>
+        <v>173</v>
       </c>
       <c r="I7" t="s">
-        <v>145</v>
+        <v>173</v>
       </c>
       <c r="J7" t="s">
-        <v>145</v>
+        <v>173</v>
       </c>
       <c r="K7" t="s">
-        <v>145</v>
+        <v>173</v>
       </c>
       <c r="L7" t="s">
-        <v>145</v>
+        <v>173</v>
       </c>
       <c r="M7" t="s">
-        <v>145</v>
+        <v>173</v>
       </c>
       <c r="N7" t="s">
-        <v>145</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8">
@@ -1294,31 +1294,31 @@
         <v>200</v>
       </c>
       <c r="F8" t="s">
-        <v>145</v>
+        <v>200</v>
       </c>
       <c r="G8" t="s">
-        <v>145</v>
+        <v>200</v>
       </c>
       <c r="H8" t="s">
-        <v>145</v>
+        <v>200</v>
       </c>
       <c r="I8" t="s">
-        <v>145</v>
+        <v>200</v>
       </c>
       <c r="J8" t="s">
-        <v>145</v>
+        <v>200</v>
       </c>
       <c r="K8" t="s">
-        <v>145</v>
+        <v>200</v>
       </c>
       <c r="L8" t="s">
-        <v>145</v>
+        <v>200</v>
       </c>
       <c r="M8" t="s">
-        <v>145</v>
+        <v>200</v>
       </c>
       <c r="N8" t="s">
-        <v>145</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9">
@@ -1461,40 +1461,40 @@
         <v>146</v>
       </c>
       <c r="C12" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D12" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E12" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F12" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G12" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H12" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I12" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="J12" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K12" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L12" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M12" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N12" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13">
@@ -1508,37 +1508,37 @@
         <v>157</v>
       </c>
       <c r="D13" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="E13" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="F13" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="G13" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="H13" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="I13" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="J13" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="K13" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="L13" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="M13" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="N13" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14">
@@ -1555,34 +1555,34 @@
         <v>174</v>
       </c>
       <c r="E14" t="s">
-        <v>145</v>
+        <v>174</v>
       </c>
       <c r="F14" t="s">
-        <v>145</v>
+        <v>174</v>
       </c>
       <c r="G14" t="s">
-        <v>145</v>
+        <v>174</v>
       </c>
       <c r="H14" t="s">
-        <v>145</v>
+        <v>174</v>
       </c>
       <c r="I14" t="s">
-        <v>145</v>
+        <v>174</v>
       </c>
       <c r="J14" t="s">
-        <v>145</v>
+        <v>174</v>
       </c>
       <c r="K14" t="s">
-        <v>145</v>
+        <v>174</v>
       </c>
       <c r="L14" t="s">
-        <v>145</v>
+        <v>174</v>
       </c>
       <c r="M14" t="s">
-        <v>145</v>
+        <v>174</v>
       </c>
       <c r="N14" t="s">
-        <v>145</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15">
@@ -1602,31 +1602,31 @@
         <v>201</v>
       </c>
       <c r="F15" t="s">
-        <v>145</v>
+        <v>201</v>
       </c>
       <c r="G15" t="s">
-        <v>145</v>
+        <v>201</v>
       </c>
       <c r="H15" t="s">
-        <v>145</v>
+        <v>201</v>
       </c>
       <c r="I15" t="s">
-        <v>145</v>
+        <v>201</v>
       </c>
       <c r="J15" t="s">
-        <v>145</v>
+        <v>201</v>
       </c>
       <c r="K15" t="s">
-        <v>145</v>
+        <v>201</v>
       </c>
       <c r="L15" t="s">
-        <v>145</v>
+        <v>201</v>
       </c>
       <c r="M15" t="s">
-        <v>145</v>
+        <v>201</v>
       </c>
       <c r="N15" t="s">
-        <v>145</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16">
@@ -1684,37 +1684,37 @@
         <v>158</v>
       </c>
       <c r="D17" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="E17" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="F17" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="G17" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="H17" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="I17" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="J17" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="K17" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="L17" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="M17" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="N17" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18">
@@ -1731,34 +1731,34 @@
         <v>175</v>
       </c>
       <c r="E18" t="s">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="F18" t="s">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="G18" t="s">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="H18" t="s">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="I18" t="s">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="J18" t="s">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="K18" t="s">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="L18" t="s">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="M18" t="s">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="N18" t="s">
-        <v>145</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19">
@@ -1778,31 +1778,31 @@
         <v>202</v>
       </c>
       <c r="F19" t="s">
-        <v>145</v>
+        <v>202</v>
       </c>
       <c r="G19" t="s">
-        <v>145</v>
+        <v>202</v>
       </c>
       <c r="H19" t="s">
-        <v>145</v>
+        <v>202</v>
       </c>
       <c r="I19" t="s">
-        <v>145</v>
+        <v>202</v>
       </c>
       <c r="J19" t="s">
-        <v>145</v>
+        <v>202</v>
       </c>
       <c r="K19" t="s">
-        <v>145</v>
+        <v>202</v>
       </c>
       <c r="L19" t="s">
-        <v>145</v>
+        <v>202</v>
       </c>
       <c r="M19" t="s">
-        <v>145</v>
+        <v>202</v>
       </c>
       <c r="N19" t="s">
-        <v>145</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20">
@@ -1866,31 +1866,31 @@
         <v>203</v>
       </c>
       <c r="F21" t="s">
-        <v>145</v>
+        <v>203</v>
       </c>
       <c r="G21" t="s">
-        <v>145</v>
+        <v>203</v>
       </c>
       <c r="H21" t="s">
-        <v>145</v>
+        <v>203</v>
       </c>
       <c r="I21" t="s">
-        <v>145</v>
+        <v>203</v>
       </c>
       <c r="J21" t="s">
-        <v>145</v>
+        <v>203</v>
       </c>
       <c r="K21" t="s">
-        <v>145</v>
+        <v>203</v>
       </c>
       <c r="L21" t="s">
-        <v>145</v>
+        <v>203</v>
       </c>
       <c r="M21" t="s">
-        <v>145</v>
+        <v>203</v>
       </c>
       <c r="N21" t="s">
-        <v>145</v>
+        <v>203</v>
       </c>
     </row>
     <row r="22">
@@ -1954,31 +1954,31 @@
         <v>204</v>
       </c>
       <c r="F23" t="s">
-        <v>145</v>
+        <v>204</v>
       </c>
       <c r="G23" t="s">
-        <v>145</v>
+        <v>204</v>
       </c>
       <c r="H23" t="s">
-        <v>145</v>
+        <v>204</v>
       </c>
       <c r="I23" t="s">
-        <v>145</v>
+        <v>204</v>
       </c>
       <c r="J23" t="s">
-        <v>145</v>
+        <v>204</v>
       </c>
       <c r="K23" t="s">
-        <v>145</v>
+        <v>204</v>
       </c>
       <c r="L23" t="s">
-        <v>145</v>
+        <v>204</v>
       </c>
       <c r="M23" t="s">
-        <v>145</v>
+        <v>204</v>
       </c>
       <c r="N23" t="s">
-        <v>145</v>
+        <v>204</v>
       </c>
     </row>
     <row r="24">
@@ -2033,40 +2033,40 @@
         <v>147</v>
       </c>
       <c r="C25" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D25" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E25" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F25" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G25" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H25" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="I25" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="J25" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K25" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L25" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M25" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="N25" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26">
@@ -2080,37 +2080,37 @@
         <v>159</v>
       </c>
       <c r="D26" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="E26" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="F26" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="G26" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="H26" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="I26" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="J26" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="K26" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="L26" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="M26" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="N26" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27">
@@ -2127,34 +2127,34 @@
         <v>176</v>
       </c>
       <c r="E27" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F27" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="G27" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="H27" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="I27" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="J27" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="K27" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="L27" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="M27" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="N27" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
     </row>
     <row r="28">
@@ -2174,31 +2174,31 @@
         <v>205</v>
       </c>
       <c r="F28" t="s">
-        <v>145</v>
+        <v>205</v>
       </c>
       <c r="G28" t="s">
-        <v>145</v>
+        <v>205</v>
       </c>
       <c r="H28" t="s">
-        <v>145</v>
+        <v>205</v>
       </c>
       <c r="I28" t="s">
-        <v>145</v>
+        <v>205</v>
       </c>
       <c r="J28" t="s">
-        <v>145</v>
+        <v>205</v>
       </c>
       <c r="K28" t="s">
-        <v>145</v>
+        <v>205</v>
       </c>
       <c r="L28" t="s">
-        <v>145</v>
+        <v>205</v>
       </c>
       <c r="M28" t="s">
-        <v>145</v>
+        <v>205</v>
       </c>
       <c r="N28" t="s">
-        <v>145</v>
+        <v>205</v>
       </c>
     </row>
     <row r="29">
@@ -2253,40 +2253,40 @@
         <v>148</v>
       </c>
       <c r="C30" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D30" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E30" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F30" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G30" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="H30" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I30" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="J30" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="K30" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="L30" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M30" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="N30" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="31">
@@ -2300,37 +2300,37 @@
         <v>160</v>
       </c>
       <c r="D31" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="E31" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="F31" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="G31" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="H31" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="I31" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="J31" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="K31" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="L31" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="M31" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="N31" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
     </row>
     <row r="32">
@@ -2347,34 +2347,34 @@
         <v>177</v>
       </c>
       <c r="E32" t="s">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="F32" t="s">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="G32" t="s">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="H32" t="s">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="I32" t="s">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="J32" t="s">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="K32" t="s">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="L32" t="s">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="M32" t="s">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="N32" t="s">
-        <v>145</v>
+        <v>177</v>
       </c>
     </row>
     <row r="33">
@@ -2394,31 +2394,31 @@
         <v>206</v>
       </c>
       <c r="F33" t="s">
-        <v>145</v>
+        <v>206</v>
       </c>
       <c r="G33" t="s">
-        <v>145</v>
+        <v>206</v>
       </c>
       <c r="H33" t="s">
-        <v>145</v>
+        <v>206</v>
       </c>
       <c r="I33" t="s">
-        <v>145</v>
+        <v>206</v>
       </c>
       <c r="J33" t="s">
-        <v>145</v>
+        <v>206</v>
       </c>
       <c r="K33" t="s">
-        <v>145</v>
+        <v>206</v>
       </c>
       <c r="L33" t="s">
-        <v>145</v>
+        <v>206</v>
       </c>
       <c r="M33" t="s">
-        <v>145</v>
+        <v>206</v>
       </c>
       <c r="N33" t="s">
-        <v>145</v>
+        <v>206</v>
       </c>
     </row>
     <row r="34">
@@ -2567,34 +2567,34 @@
         <v>178</v>
       </c>
       <c r="E37" t="s">
-        <v>145</v>
+        <v>178</v>
       </c>
       <c r="F37" t="s">
-        <v>145</v>
+        <v>178</v>
       </c>
       <c r="G37" t="s">
-        <v>145</v>
+        <v>178</v>
       </c>
       <c r="H37" t="s">
-        <v>145</v>
+        <v>178</v>
       </c>
       <c r="I37" t="s">
-        <v>145</v>
+        <v>178</v>
       </c>
       <c r="J37" t="s">
-        <v>145</v>
+        <v>178</v>
       </c>
       <c r="K37" t="s">
-        <v>145</v>
+        <v>178</v>
       </c>
       <c r="L37" t="s">
-        <v>145</v>
+        <v>178</v>
       </c>
       <c r="M37" t="s">
-        <v>145</v>
+        <v>178</v>
       </c>
       <c r="N37" t="s">
-        <v>145</v>
+        <v>178</v>
       </c>
     </row>
     <row r="38">
@@ -2614,31 +2614,31 @@
         <v>207</v>
       </c>
       <c r="F38" t="s">
-        <v>145</v>
+        <v>207</v>
       </c>
       <c r="G38" t="s">
-        <v>145</v>
+        <v>207</v>
       </c>
       <c r="H38" t="s">
-        <v>145</v>
+        <v>207</v>
       </c>
       <c r="I38" t="s">
-        <v>145</v>
+        <v>207</v>
       </c>
       <c r="J38" t="s">
-        <v>145</v>
+        <v>207</v>
       </c>
       <c r="K38" t="s">
-        <v>145</v>
+        <v>207</v>
       </c>
       <c r="L38" t="s">
-        <v>145</v>
+        <v>207</v>
       </c>
       <c r="M38" t="s">
-        <v>145</v>
+        <v>207</v>
       </c>
       <c r="N38" t="s">
-        <v>145</v>
+        <v>207</v>
       </c>
     </row>
     <row r="39">
@@ -2696,37 +2696,37 @@
         <v>161</v>
       </c>
       <c r="D40" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="E40" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="F40" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="G40" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="H40" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="I40" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="J40" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="K40" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="L40" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="M40" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="N40" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="41">
@@ -2743,34 +2743,34 @@
         <v>179</v>
       </c>
       <c r="E41" t="s">
-        <v>145</v>
+        <v>179</v>
       </c>
       <c r="F41" t="s">
-        <v>145</v>
+        <v>179</v>
       </c>
       <c r="G41" t="s">
-        <v>145</v>
+        <v>179</v>
       </c>
       <c r="H41" t="s">
-        <v>145</v>
+        <v>179</v>
       </c>
       <c r="I41" t="s">
-        <v>145</v>
+        <v>179</v>
       </c>
       <c r="J41" t="s">
-        <v>145</v>
+        <v>179</v>
       </c>
       <c r="K41" t="s">
-        <v>145</v>
+        <v>179</v>
       </c>
       <c r="L41" t="s">
-        <v>145</v>
+        <v>179</v>
       </c>
       <c r="M41" t="s">
-        <v>145</v>
+        <v>179</v>
       </c>
       <c r="N41" t="s">
-        <v>145</v>
+        <v>179</v>
       </c>
     </row>
     <row r="42">
@@ -2790,31 +2790,31 @@
         <v>208</v>
       </c>
       <c r="F42" t="s">
-        <v>145</v>
+        <v>208</v>
       </c>
       <c r="G42" t="s">
-        <v>145</v>
+        <v>208</v>
       </c>
       <c r="H42" t="s">
-        <v>145</v>
+        <v>208</v>
       </c>
       <c r="I42" t="s">
-        <v>145</v>
+        <v>208</v>
       </c>
       <c r="J42" t="s">
-        <v>145</v>
+        <v>208</v>
       </c>
       <c r="K42" t="s">
-        <v>145</v>
+        <v>208</v>
       </c>
       <c r="L42" t="s">
-        <v>145</v>
+        <v>208</v>
       </c>
       <c r="M42" t="s">
-        <v>145</v>
+        <v>208</v>
       </c>
       <c r="N42" t="s">
-        <v>145</v>
+        <v>208</v>
       </c>
     </row>
     <row r="43">
@@ -2869,40 +2869,40 @@
         <v>149</v>
       </c>
       <c r="C44" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D44" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E44" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="F44" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="G44" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="H44" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="I44" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="J44" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="K44" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="L44" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="M44" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="N44" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="45">
@@ -2916,37 +2916,37 @@
         <v>162</v>
       </c>
       <c r="D45" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="E45" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="F45" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="G45" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="H45" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="I45" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="J45" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="K45" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="L45" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="M45" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="N45" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
     </row>
     <row r="46">
@@ -2963,34 +2963,34 @@
         <v>180</v>
       </c>
       <c r="E46" t="s">
-        <v>145</v>
+        <v>180</v>
       </c>
       <c r="F46" t="s">
-        <v>145</v>
+        <v>180</v>
       </c>
       <c r="G46" t="s">
-        <v>145</v>
+        <v>180</v>
       </c>
       <c r="H46" t="s">
-        <v>145</v>
+        <v>180</v>
       </c>
       <c r="I46" t="s">
-        <v>145</v>
+        <v>180</v>
       </c>
       <c r="J46" t="s">
-        <v>145</v>
+        <v>180</v>
       </c>
       <c r="K46" t="s">
-        <v>145</v>
+        <v>180</v>
       </c>
       <c r="L46" t="s">
-        <v>145</v>
+        <v>180</v>
       </c>
       <c r="M46" t="s">
-        <v>145</v>
+        <v>180</v>
       </c>
       <c r="N46" t="s">
-        <v>145</v>
+        <v>180</v>
       </c>
     </row>
     <row r="47">
@@ -3010,31 +3010,31 @@
         <v>209</v>
       </c>
       <c r="F47" t="s">
-        <v>145</v>
+        <v>209</v>
       </c>
       <c r="G47" t="s">
-        <v>145</v>
+        <v>209</v>
       </c>
       <c r="H47" t="s">
-        <v>145</v>
+        <v>209</v>
       </c>
       <c r="I47" t="s">
-        <v>145</v>
+        <v>209</v>
       </c>
       <c r="J47" t="s">
-        <v>145</v>
+        <v>209</v>
       </c>
       <c r="K47" t="s">
-        <v>145</v>
+        <v>209</v>
       </c>
       <c r="L47" t="s">
-        <v>145</v>
+        <v>209</v>
       </c>
       <c r="M47" t="s">
-        <v>145</v>
+        <v>209</v>
       </c>
       <c r="N47" t="s">
-        <v>145</v>
+        <v>209</v>
       </c>
     </row>
     <row r="48">
@@ -3089,40 +3089,40 @@
         <v>150</v>
       </c>
       <c r="C49" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D49" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E49" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="F49" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="G49" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="H49" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="I49" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="J49" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="K49" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="L49" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="M49" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="N49" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="50">
@@ -3136,37 +3136,37 @@
         <v>163</v>
       </c>
       <c r="D50" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="E50" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="F50" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="G50" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="H50" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="I50" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="J50" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="K50" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="L50" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="M50" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="N50" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
     </row>
     <row r="51">
@@ -3183,34 +3183,34 @@
         <v>181</v>
       </c>
       <c r="E51" t="s">
-        <v>145</v>
+        <v>181</v>
       </c>
       <c r="F51" t="s">
-        <v>145</v>
+        <v>181</v>
       </c>
       <c r="G51" t="s">
-        <v>145</v>
+        <v>181</v>
       </c>
       <c r="H51" t="s">
-        <v>145</v>
+        <v>181</v>
       </c>
       <c r="I51" t="s">
-        <v>145</v>
+        <v>181</v>
       </c>
       <c r="J51" t="s">
-        <v>145</v>
+        <v>181</v>
       </c>
       <c r="K51" t="s">
-        <v>145</v>
+        <v>181</v>
       </c>
       <c r="L51" t="s">
-        <v>145</v>
+        <v>181</v>
       </c>
       <c r="M51" t="s">
-        <v>145</v>
+        <v>181</v>
       </c>
       <c r="N51" t="s">
-        <v>145</v>
+        <v>181</v>
       </c>
     </row>
     <row r="52">
@@ -3230,31 +3230,31 @@
         <v>210</v>
       </c>
       <c r="F52" t="s">
-        <v>145</v>
+        <v>210</v>
       </c>
       <c r="G52" t="s">
-        <v>145</v>
+        <v>210</v>
       </c>
       <c r="H52" t="s">
-        <v>145</v>
+        <v>210</v>
       </c>
       <c r="I52" t="s">
-        <v>145</v>
+        <v>210</v>
       </c>
       <c r="J52" t="s">
-        <v>145</v>
+        <v>210</v>
       </c>
       <c r="K52" t="s">
-        <v>145</v>
+        <v>210</v>
       </c>
       <c r="L52" t="s">
-        <v>145</v>
+        <v>210</v>
       </c>
       <c r="M52" t="s">
-        <v>145</v>
+        <v>210</v>
       </c>
       <c r="N52" t="s">
-        <v>145</v>
+        <v>210</v>
       </c>
     </row>
     <row r="53">
@@ -3315,34 +3315,34 @@
         <v>182</v>
       </c>
       <c r="E54" t="s">
-        <v>145</v>
+        <v>182</v>
       </c>
       <c r="F54" t="s">
-        <v>145</v>
+        <v>182</v>
       </c>
       <c r="G54" t="s">
-        <v>145</v>
+        <v>182</v>
       </c>
       <c r="H54" t="s">
-        <v>145</v>
+        <v>182</v>
       </c>
       <c r="I54" t="s">
-        <v>145</v>
+        <v>182</v>
       </c>
       <c r="J54" t="s">
-        <v>145</v>
+        <v>182</v>
       </c>
       <c r="K54" t="s">
-        <v>145</v>
+        <v>182</v>
       </c>
       <c r="L54" t="s">
-        <v>145</v>
+        <v>182</v>
       </c>
       <c r="M54" t="s">
-        <v>145</v>
+        <v>182</v>
       </c>
       <c r="N54" t="s">
-        <v>145</v>
+        <v>182</v>
       </c>
     </row>
     <row r="55">
@@ -3362,31 +3362,31 @@
         <v>211</v>
       </c>
       <c r="F55" t="s">
-        <v>145</v>
+        <v>211</v>
       </c>
       <c r="G55" t="s">
-        <v>145</v>
+        <v>211</v>
       </c>
       <c r="H55" t="s">
-        <v>145</v>
+        <v>211</v>
       </c>
       <c r="I55" t="s">
-        <v>145</v>
+        <v>211</v>
       </c>
       <c r="J55" t="s">
-        <v>145</v>
+        <v>211</v>
       </c>
       <c r="K55" t="s">
-        <v>145</v>
+        <v>211</v>
       </c>
       <c r="L55" t="s">
-        <v>145</v>
+        <v>211</v>
       </c>
       <c r="M55" t="s">
-        <v>145</v>
+        <v>211</v>
       </c>
       <c r="N55" t="s">
-        <v>145</v>
+        <v>211</v>
       </c>
     </row>
     <row r="56">
@@ -3447,34 +3447,34 @@
         <v>183</v>
       </c>
       <c r="E57" t="s">
-        <v>145</v>
+        <v>183</v>
       </c>
       <c r="F57" t="s">
-        <v>145</v>
+        <v>183</v>
       </c>
       <c r="G57" t="s">
-        <v>145</v>
+        <v>183</v>
       </c>
       <c r="H57" t="s">
-        <v>145</v>
+        <v>183</v>
       </c>
       <c r="I57" t="s">
-        <v>145</v>
+        <v>183</v>
       </c>
       <c r="J57" t="s">
-        <v>145</v>
+        <v>183</v>
       </c>
       <c r="K57" t="s">
-        <v>145</v>
+        <v>183</v>
       </c>
       <c r="L57" t="s">
-        <v>145</v>
+        <v>183</v>
       </c>
       <c r="M57" t="s">
-        <v>145</v>
+        <v>183</v>
       </c>
       <c r="N57" t="s">
-        <v>145</v>
+        <v>183</v>
       </c>
     </row>
     <row r="58">
@@ -3494,31 +3494,31 @@
         <v>212</v>
       </c>
       <c r="F58" t="s">
-        <v>145</v>
+        <v>212</v>
       </c>
       <c r="G58" t="s">
-        <v>145</v>
+        <v>212</v>
       </c>
       <c r="H58" t="s">
-        <v>145</v>
+        <v>212</v>
       </c>
       <c r="I58" t="s">
-        <v>145</v>
+        <v>212</v>
       </c>
       <c r="J58" t="s">
-        <v>145</v>
+        <v>212</v>
       </c>
       <c r="K58" t="s">
-        <v>145</v>
+        <v>212</v>
       </c>
       <c r="L58" t="s">
-        <v>145</v>
+        <v>212</v>
       </c>
       <c r="M58" t="s">
-        <v>145</v>
+        <v>212</v>
       </c>
       <c r="N58" t="s">
-        <v>145</v>
+        <v>212</v>
       </c>
     </row>
     <row r="59">
@@ -3579,34 +3579,34 @@
         <v>184</v>
       </c>
       <c r="E60" t="s">
-        <v>145</v>
+        <v>184</v>
       </c>
       <c r="F60" t="s">
-        <v>145</v>
+        <v>184</v>
       </c>
       <c r="G60" t="s">
-        <v>145</v>
+        <v>184</v>
       </c>
       <c r="H60" t="s">
-        <v>145</v>
+        <v>184</v>
       </c>
       <c r="I60" t="s">
-        <v>145</v>
+        <v>184</v>
       </c>
       <c r="J60" t="s">
-        <v>145</v>
+        <v>184</v>
       </c>
       <c r="K60" t="s">
-        <v>145</v>
+        <v>184</v>
       </c>
       <c r="L60" t="s">
-        <v>145</v>
+        <v>184</v>
       </c>
       <c r="M60" t="s">
-        <v>145</v>
+        <v>184</v>
       </c>
       <c r="N60" t="s">
-        <v>145</v>
+        <v>184</v>
       </c>
     </row>
     <row r="61">
@@ -3626,31 +3626,31 @@
         <v>213</v>
       </c>
       <c r="F61" t="s">
-        <v>145</v>
+        <v>213</v>
       </c>
       <c r="G61" t="s">
-        <v>145</v>
+        <v>213</v>
       </c>
       <c r="H61" t="s">
-        <v>145</v>
+        <v>213</v>
       </c>
       <c r="I61" t="s">
-        <v>145</v>
+        <v>213</v>
       </c>
       <c r="J61" t="s">
-        <v>145</v>
+        <v>213</v>
       </c>
       <c r="K61" t="s">
-        <v>145</v>
+        <v>213</v>
       </c>
       <c r="L61" t="s">
-        <v>145</v>
+        <v>213</v>
       </c>
       <c r="M61" t="s">
-        <v>145</v>
+        <v>213</v>
       </c>
       <c r="N61" t="s">
-        <v>145</v>
+        <v>213</v>
       </c>
     </row>
     <row r="62">
@@ -3714,31 +3714,31 @@
         <v>214</v>
       </c>
       <c r="F63" t="s">
-        <v>145</v>
+        <v>214</v>
       </c>
       <c r="G63" t="s">
-        <v>145</v>
+        <v>214</v>
       </c>
       <c r="H63" t="s">
-        <v>145</v>
+        <v>214</v>
       </c>
       <c r="I63" t="s">
-        <v>145</v>
+        <v>214</v>
       </c>
       <c r="J63" t="s">
-        <v>145</v>
+        <v>214</v>
       </c>
       <c r="K63" t="s">
-        <v>145</v>
+        <v>214</v>
       </c>
       <c r="L63" t="s">
-        <v>145</v>
+        <v>214</v>
       </c>
       <c r="M63" t="s">
-        <v>145</v>
+        <v>214</v>
       </c>
       <c r="N63" t="s">
-        <v>145</v>
+        <v>214</v>
       </c>
     </row>
     <row r="64">
@@ -3796,37 +3796,37 @@
         <v>164</v>
       </c>
       <c r="D65" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="E65" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="F65" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="G65" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="H65" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="I65" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="J65" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="K65" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="L65" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="M65" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="N65" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
     </row>
     <row r="66">
@@ -3843,34 +3843,34 @@
         <v>185</v>
       </c>
       <c r="E66" t="s">
-        <v>145</v>
+        <v>185</v>
       </c>
       <c r="F66" t="s">
-        <v>145</v>
+        <v>185</v>
       </c>
       <c r="G66" t="s">
-        <v>145</v>
+        <v>185</v>
       </c>
       <c r="H66" t="s">
-        <v>145</v>
+        <v>185</v>
       </c>
       <c r="I66" t="s">
-        <v>145</v>
+        <v>185</v>
       </c>
       <c r="J66" t="s">
-        <v>145</v>
+        <v>185</v>
       </c>
       <c r="K66" t="s">
-        <v>145</v>
+        <v>185</v>
       </c>
       <c r="L66" t="s">
-        <v>145</v>
+        <v>185</v>
       </c>
       <c r="M66" t="s">
-        <v>145</v>
+        <v>185</v>
       </c>
       <c r="N66" t="s">
-        <v>145</v>
+        <v>185</v>
       </c>
     </row>
     <row r="67">
@@ -3890,31 +3890,31 @@
         <v>215</v>
       </c>
       <c r="F67" t="s">
-        <v>145</v>
+        <v>215</v>
       </c>
       <c r="G67" t="s">
-        <v>145</v>
+        <v>215</v>
       </c>
       <c r="H67" t="s">
-        <v>145</v>
+        <v>215</v>
       </c>
       <c r="I67" t="s">
-        <v>145</v>
+        <v>215</v>
       </c>
       <c r="J67" t="s">
-        <v>145</v>
+        <v>215</v>
       </c>
       <c r="K67" t="s">
-        <v>145</v>
+        <v>215</v>
       </c>
       <c r="L67" t="s">
-        <v>145</v>
+        <v>215</v>
       </c>
       <c r="M67" t="s">
-        <v>145</v>
+        <v>215</v>
       </c>
       <c r="N67" t="s">
-        <v>145</v>
+        <v>215</v>
       </c>
     </row>
     <row r="68">
@@ -3978,31 +3978,31 @@
         <v>216</v>
       </c>
       <c r="F69" t="s">
-        <v>145</v>
+        <v>216</v>
       </c>
       <c r="G69" t="s">
-        <v>145</v>
+        <v>216</v>
       </c>
       <c r="H69" t="s">
-        <v>145</v>
+        <v>216</v>
       </c>
       <c r="I69" t="s">
-        <v>145</v>
+        <v>216</v>
       </c>
       <c r="J69" t="s">
-        <v>145</v>
+        <v>216</v>
       </c>
       <c r="K69" t="s">
-        <v>145</v>
+        <v>216</v>
       </c>
       <c r="L69" t="s">
-        <v>145</v>
+        <v>216</v>
       </c>
       <c r="M69" t="s">
-        <v>145</v>
+        <v>216</v>
       </c>
       <c r="N69" t="s">
-        <v>145</v>
+        <v>216</v>
       </c>
     </row>
     <row r="70">
@@ -4063,34 +4063,34 @@
         <v>186</v>
       </c>
       <c r="E71" t="s">
-        <v>145</v>
+        <v>186</v>
       </c>
       <c r="F71" t="s">
-        <v>145</v>
+        <v>186</v>
       </c>
       <c r="G71" t="s">
-        <v>145</v>
+        <v>186</v>
       </c>
       <c r="H71" t="s">
-        <v>145</v>
+        <v>186</v>
       </c>
       <c r="I71" t="s">
-        <v>145</v>
+        <v>186</v>
       </c>
       <c r="J71" t="s">
-        <v>145</v>
+        <v>186</v>
       </c>
       <c r="K71" t="s">
-        <v>145</v>
+        <v>186</v>
       </c>
       <c r="L71" t="s">
-        <v>145</v>
+        <v>186</v>
       </c>
       <c r="M71" t="s">
-        <v>145</v>
+        <v>186</v>
       </c>
       <c r="N71" t="s">
-        <v>145</v>
+        <v>186</v>
       </c>
     </row>
     <row r="72">
@@ -4110,31 +4110,31 @@
         <v>217</v>
       </c>
       <c r="F72" t="s">
-        <v>145</v>
+        <v>217</v>
       </c>
       <c r="G72" t="s">
-        <v>145</v>
+        <v>217</v>
       </c>
       <c r="H72" t="s">
-        <v>145</v>
+        <v>217</v>
       </c>
       <c r="I72" t="s">
-        <v>145</v>
+        <v>217</v>
       </c>
       <c r="J72" t="s">
-        <v>145</v>
+        <v>217</v>
       </c>
       <c r="K72" t="s">
-        <v>145</v>
+        <v>217</v>
       </c>
       <c r="L72" t="s">
-        <v>145</v>
+        <v>217</v>
       </c>
       <c r="M72" t="s">
-        <v>145</v>
+        <v>217</v>
       </c>
       <c r="N72" t="s">
-        <v>145</v>
+        <v>217</v>
       </c>
     </row>
     <row r="73">
@@ -4189,40 +4189,40 @@
         <v>151</v>
       </c>
       <c r="C74" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="D74" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="E74" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="F74" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="G74" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="H74" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="I74" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="J74" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="K74" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="L74" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="M74" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="N74" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="75">
@@ -4236,37 +4236,37 @@
         <v>165</v>
       </c>
       <c r="D75" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="E75" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="F75" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="G75" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="H75" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="I75" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="J75" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="K75" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="L75" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="M75" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="N75" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
     </row>
     <row r="76">
@@ -4283,34 +4283,34 @@
         <v>187</v>
       </c>
       <c r="E76" t="s">
-        <v>145</v>
+        <v>187</v>
       </c>
       <c r="F76" t="s">
-        <v>145</v>
+        <v>187</v>
       </c>
       <c r="G76" t="s">
-        <v>145</v>
+        <v>187</v>
       </c>
       <c r="H76" t="s">
-        <v>145</v>
+        <v>187</v>
       </c>
       <c r="I76" t="s">
-        <v>145</v>
+        <v>187</v>
       </c>
       <c r="J76" t="s">
-        <v>145</v>
+        <v>187</v>
       </c>
       <c r="K76" t="s">
-        <v>145</v>
+        <v>187</v>
       </c>
       <c r="L76" t="s">
-        <v>145</v>
+        <v>187</v>
       </c>
       <c r="M76" t="s">
-        <v>145</v>
+        <v>187</v>
       </c>
       <c r="N76" t="s">
-        <v>145</v>
+        <v>187</v>
       </c>
     </row>
     <row r="77">
@@ -4330,31 +4330,31 @@
         <v>218</v>
       </c>
       <c r="F77" t="s">
-        <v>145</v>
+        <v>218</v>
       </c>
       <c r="G77" t="s">
-        <v>145</v>
+        <v>218</v>
       </c>
       <c r="H77" t="s">
-        <v>145</v>
+        <v>218</v>
       </c>
       <c r="I77" t="s">
-        <v>145</v>
+        <v>218</v>
       </c>
       <c r="J77" t="s">
-        <v>145</v>
+        <v>218</v>
       </c>
       <c r="K77" t="s">
-        <v>145</v>
+        <v>218</v>
       </c>
       <c r="L77" t="s">
-        <v>145</v>
+        <v>218</v>
       </c>
       <c r="M77" t="s">
-        <v>145</v>
+        <v>218</v>
       </c>
       <c r="N77" t="s">
-        <v>145</v>
+        <v>218</v>
       </c>
     </row>
     <row r="78">
@@ -4415,34 +4415,34 @@
         <v>188</v>
       </c>
       <c r="E79" t="s">
-        <v>145</v>
+        <v>188</v>
       </c>
       <c r="F79" t="s">
-        <v>145</v>
+        <v>188</v>
       </c>
       <c r="G79" t="s">
-        <v>145</v>
+        <v>188</v>
       </c>
       <c r="H79" t="s">
-        <v>145</v>
+        <v>188</v>
       </c>
       <c r="I79" t="s">
-        <v>145</v>
+        <v>188</v>
       </c>
       <c r="J79" t="s">
-        <v>145</v>
+        <v>188</v>
       </c>
       <c r="K79" t="s">
-        <v>145</v>
+        <v>188</v>
       </c>
       <c r="L79" t="s">
-        <v>145</v>
+        <v>188</v>
       </c>
       <c r="M79" t="s">
-        <v>145</v>
+        <v>188</v>
       </c>
       <c r="N79" t="s">
-        <v>145</v>
+        <v>188</v>
       </c>
     </row>
     <row r="80">
@@ -4462,31 +4462,31 @@
         <v>219</v>
       </c>
       <c r="F80" t="s">
-        <v>145</v>
+        <v>219</v>
       </c>
       <c r="G80" t="s">
-        <v>145</v>
+        <v>219</v>
       </c>
       <c r="H80" t="s">
-        <v>145</v>
+        <v>219</v>
       </c>
       <c r="I80" t="s">
-        <v>145</v>
+        <v>219</v>
       </c>
       <c r="J80" t="s">
-        <v>145</v>
+        <v>219</v>
       </c>
       <c r="K80" t="s">
-        <v>145</v>
+        <v>219</v>
       </c>
       <c r="L80" t="s">
-        <v>145</v>
+        <v>219</v>
       </c>
       <c r="M80" t="s">
-        <v>145</v>
+        <v>219</v>
       </c>
       <c r="N80" t="s">
-        <v>145</v>
+        <v>219</v>
       </c>
     </row>
     <row r="81">
@@ -4550,31 +4550,31 @@
         <v>220</v>
       </c>
       <c r="F82" t="s">
-        <v>145</v>
+        <v>220</v>
       </c>
       <c r="G82" t="s">
-        <v>145</v>
+        <v>220</v>
       </c>
       <c r="H82" t="s">
-        <v>145</v>
+        <v>220</v>
       </c>
       <c r="I82" t="s">
-        <v>145</v>
+        <v>220</v>
       </c>
       <c r="J82" t="s">
-        <v>145</v>
+        <v>220</v>
       </c>
       <c r="K82" t="s">
-        <v>145</v>
+        <v>220</v>
       </c>
       <c r="L82" t="s">
-        <v>145</v>
+        <v>220</v>
       </c>
       <c r="M82" t="s">
-        <v>145</v>
+        <v>220</v>
       </c>
       <c r="N82" t="s">
-        <v>145</v>
+        <v>220</v>
       </c>
     </row>
     <row r="83">
@@ -4811,34 +4811,34 @@
         <v>189</v>
       </c>
       <c r="E88" t="s">
-        <v>145</v>
+        <v>189</v>
       </c>
       <c r="F88" t="s">
-        <v>145</v>
+        <v>189</v>
       </c>
       <c r="G88" t="s">
-        <v>145</v>
+        <v>189</v>
       </c>
       <c r="H88" t="s">
-        <v>145</v>
+        <v>189</v>
       </c>
       <c r="I88" t="s">
-        <v>145</v>
+        <v>189</v>
       </c>
       <c r="J88" t="s">
-        <v>145</v>
+        <v>189</v>
       </c>
       <c r="K88" t="s">
-        <v>145</v>
+        <v>189</v>
       </c>
       <c r="L88" t="s">
-        <v>145</v>
+        <v>189</v>
       </c>
       <c r="M88" t="s">
-        <v>145</v>
+        <v>189</v>
       </c>
       <c r="N88" t="s">
-        <v>145</v>
+        <v>189</v>
       </c>
     </row>
     <row r="89">
@@ -4858,31 +4858,31 @@
         <v>221</v>
       </c>
       <c r="F89" t="s">
-        <v>145</v>
+        <v>221</v>
       </c>
       <c r="G89" t="s">
-        <v>145</v>
+        <v>221</v>
       </c>
       <c r="H89" t="s">
-        <v>145</v>
+        <v>221</v>
       </c>
       <c r="I89" t="s">
-        <v>145</v>
+        <v>221</v>
       </c>
       <c r="J89" t="s">
-        <v>145</v>
+        <v>221</v>
       </c>
       <c r="K89" t="s">
-        <v>145</v>
+        <v>221</v>
       </c>
       <c r="L89" t="s">
-        <v>145</v>
+        <v>221</v>
       </c>
       <c r="M89" t="s">
-        <v>145</v>
+        <v>221</v>
       </c>
       <c r="N89" t="s">
-        <v>145</v>
+        <v>221</v>
       </c>
     </row>
     <row r="90">
@@ -4943,34 +4943,34 @@
         <v>190</v>
       </c>
       <c r="E91" t="s">
-        <v>145</v>
+        <v>190</v>
       </c>
       <c r="F91" t="s">
-        <v>145</v>
+        <v>190</v>
       </c>
       <c r="G91" t="s">
-        <v>145</v>
+        <v>190</v>
       </c>
       <c r="H91" t="s">
-        <v>145</v>
+        <v>190</v>
       </c>
       <c r="I91" t="s">
-        <v>145</v>
+        <v>190</v>
       </c>
       <c r="J91" t="s">
-        <v>145</v>
+        <v>190</v>
       </c>
       <c r="K91" t="s">
-        <v>145</v>
+        <v>190</v>
       </c>
       <c r="L91" t="s">
-        <v>145</v>
+        <v>190</v>
       </c>
       <c r="M91" t="s">
-        <v>145</v>
+        <v>190</v>
       </c>
       <c r="N91" t="s">
-        <v>145</v>
+        <v>190</v>
       </c>
     </row>
     <row r="92">
@@ -4990,31 +4990,31 @@
         <v>222</v>
       </c>
       <c r="F92" t="s">
-        <v>145</v>
+        <v>222</v>
       </c>
       <c r="G92" t="s">
-        <v>145</v>
+        <v>222</v>
       </c>
       <c r="H92" t="s">
-        <v>145</v>
+        <v>222</v>
       </c>
       <c r="I92" t="s">
-        <v>145</v>
+        <v>222</v>
       </c>
       <c r="J92" t="s">
-        <v>145</v>
+        <v>222</v>
       </c>
       <c r="K92" t="s">
-        <v>145</v>
+        <v>222</v>
       </c>
       <c r="L92" t="s">
-        <v>145</v>
+        <v>222</v>
       </c>
       <c r="M92" t="s">
-        <v>145</v>
+        <v>222</v>
       </c>
       <c r="N92" t="s">
-        <v>145</v>
+        <v>222</v>
       </c>
     </row>
     <row r="93">
@@ -5113,40 +5113,40 @@
         <v>152</v>
       </c>
       <c r="C95" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="D95" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="E95" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="F95" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="G95" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="H95" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="I95" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="J95" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="K95" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="L95" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="M95" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="N95" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
     </row>
     <row r="96">
@@ -5160,37 +5160,37 @@
         <v>166</v>
       </c>
       <c r="D96" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="E96" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="F96" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="G96" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="H96" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="I96" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="J96" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="K96" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="L96" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="M96" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="N96" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
     </row>
     <row r="97">
@@ -5207,34 +5207,34 @@
         <v>191</v>
       </c>
       <c r="E97" t="s">
-        <v>145</v>
+        <v>191</v>
       </c>
       <c r="F97" t="s">
-        <v>145</v>
+        <v>191</v>
       </c>
       <c r="G97" t="s">
-        <v>145</v>
+        <v>191</v>
       </c>
       <c r="H97" t="s">
-        <v>145</v>
+        <v>191</v>
       </c>
       <c r="I97" t="s">
-        <v>145</v>
+        <v>191</v>
       </c>
       <c r="J97" t="s">
-        <v>145</v>
+        <v>191</v>
       </c>
       <c r="K97" t="s">
-        <v>145</v>
+        <v>191</v>
       </c>
       <c r="L97" t="s">
-        <v>145</v>
+        <v>191</v>
       </c>
       <c r="M97" t="s">
-        <v>145</v>
+        <v>191</v>
       </c>
       <c r="N97" t="s">
-        <v>145</v>
+        <v>191</v>
       </c>
     </row>
     <row r="98">
@@ -5254,31 +5254,31 @@
         <v>223</v>
       </c>
       <c r="F98" t="s">
-        <v>145</v>
+        <v>223</v>
       </c>
       <c r="G98" t="s">
-        <v>145</v>
+        <v>223</v>
       </c>
       <c r="H98" t="s">
-        <v>145</v>
+        <v>223</v>
       </c>
       <c r="I98" t="s">
-        <v>145</v>
+        <v>223</v>
       </c>
       <c r="J98" t="s">
-        <v>145</v>
+        <v>223</v>
       </c>
       <c r="K98" t="s">
-        <v>145</v>
+        <v>223</v>
       </c>
       <c r="L98" t="s">
-        <v>145</v>
+        <v>223</v>
       </c>
       <c r="M98" t="s">
-        <v>145</v>
+        <v>223</v>
       </c>
       <c r="N98" t="s">
-        <v>145</v>
+        <v>223</v>
       </c>
     </row>
     <row r="99">
@@ -5333,40 +5333,40 @@
         <v>153</v>
       </c>
       <c r="C100" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="D100" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="E100" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="F100" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="G100" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="H100" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="I100" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="J100" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="K100" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="L100" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="M100" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="N100" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="101">
@@ -5380,37 +5380,37 @@
         <v>167</v>
       </c>
       <c r="D101" t="s">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="E101" t="s">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="F101" t="s">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="G101" t="s">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="H101" t="s">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="I101" t="s">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="J101" t="s">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="K101" t="s">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="L101" t="s">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="M101" t="s">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="N101" t="s">
-        <v>145</v>
+        <v>167</v>
       </c>
     </row>
     <row r="102">
@@ -5427,34 +5427,34 @@
         <v>192</v>
       </c>
       <c r="E102" t="s">
-        <v>145</v>
+        <v>192</v>
       </c>
       <c r="F102" t="s">
-        <v>145</v>
+        <v>192</v>
       </c>
       <c r="G102" t="s">
-        <v>145</v>
+        <v>192</v>
       </c>
       <c r="H102" t="s">
-        <v>145</v>
+        <v>192</v>
       </c>
       <c r="I102" t="s">
-        <v>145</v>
+        <v>192</v>
       </c>
       <c r="J102" t="s">
-        <v>145</v>
+        <v>192</v>
       </c>
       <c r="K102" t="s">
-        <v>145</v>
+        <v>192</v>
       </c>
       <c r="L102" t="s">
-        <v>145</v>
+        <v>192</v>
       </c>
       <c r="M102" t="s">
-        <v>145</v>
+        <v>192</v>
       </c>
       <c r="N102" t="s">
-        <v>145</v>
+        <v>192</v>
       </c>
     </row>
     <row r="103">
@@ -5474,31 +5474,31 @@
         <v>224</v>
       </c>
       <c r="F103" t="s">
-        <v>145</v>
+        <v>224</v>
       </c>
       <c r="G103" t="s">
-        <v>145</v>
+        <v>224</v>
       </c>
       <c r="H103" t="s">
-        <v>145</v>
+        <v>224</v>
       </c>
       <c r="I103" t="s">
-        <v>145</v>
+        <v>224</v>
       </c>
       <c r="J103" t="s">
-        <v>145</v>
+        <v>224</v>
       </c>
       <c r="K103" t="s">
-        <v>145</v>
+        <v>224</v>
       </c>
       <c r="L103" t="s">
-        <v>145</v>
+        <v>224</v>
       </c>
       <c r="M103" t="s">
-        <v>145</v>
+        <v>224</v>
       </c>
       <c r="N103" t="s">
-        <v>145</v>
+        <v>224</v>
       </c>
     </row>
     <row r="104">
@@ -5559,34 +5559,34 @@
         <v>193</v>
       </c>
       <c r="E105" t="s">
-        <v>145</v>
+        <v>193</v>
       </c>
       <c r="F105" t="s">
-        <v>145</v>
+        <v>193</v>
       </c>
       <c r="G105" t="s">
-        <v>145</v>
+        <v>193</v>
       </c>
       <c r="H105" t="s">
-        <v>145</v>
+        <v>193</v>
       </c>
       <c r="I105" t="s">
-        <v>145</v>
+        <v>193</v>
       </c>
       <c r="J105" t="s">
-        <v>145</v>
+        <v>193</v>
       </c>
       <c r="K105" t="s">
-        <v>145</v>
+        <v>193</v>
       </c>
       <c r="L105" t="s">
-        <v>145</v>
+        <v>193</v>
       </c>
       <c r="M105" t="s">
-        <v>145</v>
+        <v>193</v>
       </c>
       <c r="N105" t="s">
-        <v>145</v>
+        <v>193</v>
       </c>
     </row>
     <row r="106">
@@ -5606,31 +5606,31 @@
         <v>225</v>
       </c>
       <c r="F106" t="s">
-        <v>145</v>
+        <v>225</v>
       </c>
       <c r="G106" t="s">
-        <v>145</v>
+        <v>225</v>
       </c>
       <c r="H106" t="s">
-        <v>145</v>
+        <v>225</v>
       </c>
       <c r="I106" t="s">
-        <v>145</v>
+        <v>225</v>
       </c>
       <c r="J106" t="s">
-        <v>145</v>
+        <v>225</v>
       </c>
       <c r="K106" t="s">
-        <v>145</v>
+        <v>225</v>
       </c>
       <c r="L106" t="s">
-        <v>145</v>
+        <v>225</v>
       </c>
       <c r="M106" t="s">
-        <v>145</v>
+        <v>225</v>
       </c>
       <c r="N106" t="s">
-        <v>145</v>
+        <v>225</v>
       </c>
     </row>
     <row r="107">
@@ -5688,37 +5688,37 @@
         <v>168</v>
       </c>
       <c r="D108" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c r="E108" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c r="F108" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c r="G108" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c r="H108" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c r="I108" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c r="J108" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c r="K108" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c r="L108" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c r="M108" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c r="N108" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
     </row>
     <row r="109">
@@ -5735,34 +5735,34 @@
         <v>194</v>
       </c>
       <c r="E109" t="s">
-        <v>145</v>
+        <v>194</v>
       </c>
       <c r="F109" t="s">
-        <v>145</v>
+        <v>194</v>
       </c>
       <c r="G109" t="s">
-        <v>145</v>
+        <v>194</v>
       </c>
       <c r="H109" t="s">
-        <v>145</v>
+        <v>194</v>
       </c>
       <c r="I109" t="s">
-        <v>145</v>
+        <v>194</v>
       </c>
       <c r="J109" t="s">
-        <v>145</v>
+        <v>194</v>
       </c>
       <c r="K109" t="s">
-        <v>145</v>
+        <v>194</v>
       </c>
       <c r="L109" t="s">
-        <v>145</v>
+        <v>194</v>
       </c>
       <c r="M109" t="s">
-        <v>145</v>
+        <v>194</v>
       </c>
       <c r="N109" t="s">
-        <v>145</v>
+        <v>194</v>
       </c>
     </row>
     <row r="110">
@@ -5782,31 +5782,31 @@
         <v>226</v>
       </c>
       <c r="F110" t="s">
-        <v>145</v>
+        <v>226</v>
       </c>
       <c r="G110" t="s">
-        <v>145</v>
+        <v>226</v>
       </c>
       <c r="H110" t="s">
-        <v>145</v>
+        <v>226</v>
       </c>
       <c r="I110" t="s">
-        <v>145</v>
+        <v>226</v>
       </c>
       <c r="J110" t="s">
-        <v>145</v>
+        <v>226</v>
       </c>
       <c r="K110" t="s">
-        <v>145</v>
+        <v>226</v>
       </c>
       <c r="L110" t="s">
-        <v>145</v>
+        <v>226</v>
       </c>
       <c r="M110" t="s">
-        <v>145</v>
+        <v>226</v>
       </c>
       <c r="N110" t="s">
-        <v>145</v>
+        <v>226</v>
       </c>
     </row>
     <row r="111">
@@ -5867,34 +5867,34 @@
         <v>195</v>
       </c>
       <c r="E112" t="s">
-        <v>145</v>
+        <v>195</v>
       </c>
       <c r="F112" t="s">
-        <v>145</v>
+        <v>195</v>
       </c>
       <c r="G112" t="s">
-        <v>145</v>
+        <v>195</v>
       </c>
       <c r="H112" t="s">
-        <v>145</v>
+        <v>195</v>
       </c>
       <c r="I112" t="s">
-        <v>145</v>
+        <v>195</v>
       </c>
       <c r="J112" t="s">
-        <v>145</v>
+        <v>195</v>
       </c>
       <c r="K112" t="s">
-        <v>145</v>
+        <v>195</v>
       </c>
       <c r="L112" t="s">
-        <v>145</v>
+        <v>195</v>
       </c>
       <c r="M112" t="s">
-        <v>145</v>
+        <v>195</v>
       </c>
       <c r="N112" t="s">
-        <v>145</v>
+        <v>195</v>
       </c>
     </row>
     <row r="113">
@@ -5914,31 +5914,31 @@
         <v>227</v>
       </c>
       <c r="F113" t="s">
-        <v>145</v>
+        <v>227</v>
       </c>
       <c r="G113" t="s">
-        <v>145</v>
+        <v>227</v>
       </c>
       <c r="H113" t="s">
-        <v>145</v>
+        <v>227</v>
       </c>
       <c r="I113" t="s">
-        <v>145</v>
+        <v>227</v>
       </c>
       <c r="J113" t="s">
-        <v>145</v>
+        <v>227</v>
       </c>
       <c r="K113" t="s">
-        <v>145</v>
+        <v>227</v>
       </c>
       <c r="L113" t="s">
-        <v>145</v>
+        <v>227</v>
       </c>
       <c r="M113" t="s">
-        <v>145</v>
+        <v>227</v>
       </c>
       <c r="N113" t="s">
-        <v>145</v>
+        <v>227</v>
       </c>
     </row>
     <row r="114">
@@ -6002,31 +6002,31 @@
         <v>228</v>
       </c>
       <c r="F115" t="s">
-        <v>145</v>
+        <v>228</v>
       </c>
       <c r="G115" t="s">
-        <v>145</v>
+        <v>228</v>
       </c>
       <c r="H115" t="s">
-        <v>145</v>
+        <v>228</v>
       </c>
       <c r="I115" t="s">
-        <v>145</v>
+        <v>228</v>
       </c>
       <c r="J115" t="s">
-        <v>145</v>
+        <v>228</v>
       </c>
       <c r="K115" t="s">
-        <v>145</v>
+        <v>228</v>
       </c>
       <c r="L115" t="s">
-        <v>145</v>
+        <v>228</v>
       </c>
       <c r="M115" t="s">
-        <v>145</v>
+        <v>228</v>
       </c>
       <c r="N115" t="s">
-        <v>145</v>
+        <v>228</v>
       </c>
     </row>
     <row r="116">
@@ -6084,37 +6084,37 @@
         <v>169</v>
       </c>
       <c r="D117" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
       <c r="E117" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
       <c r="F117" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
       <c r="G117" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
       <c r="H117" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
       <c r="I117" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
       <c r="J117" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
       <c r="K117" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
       <c r="L117" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
       <c r="M117" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
       <c r="N117" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
     </row>
     <row r="118">
@@ -6131,34 +6131,34 @@
         <v>196</v>
       </c>
       <c r="E118" t="s">
-        <v>145</v>
+        <v>196</v>
       </c>
       <c r="F118" t="s">
-        <v>145</v>
+        <v>196</v>
       </c>
       <c r="G118" t="s">
-        <v>145</v>
+        <v>196</v>
       </c>
       <c r="H118" t="s">
-        <v>145</v>
+        <v>196</v>
       </c>
       <c r="I118" t="s">
-        <v>145</v>
+        <v>196</v>
       </c>
       <c r="J118" t="s">
-        <v>145</v>
+        <v>196</v>
       </c>
       <c r="K118" t="s">
-        <v>145</v>
+        <v>196</v>
       </c>
       <c r="L118" t="s">
-        <v>145</v>
+        <v>196</v>
       </c>
       <c r="M118" t="s">
-        <v>145</v>
+        <v>196</v>
       </c>
       <c r="N118" t="s">
-        <v>145</v>
+        <v>196</v>
       </c>
     </row>
     <row r="119">
@@ -6178,31 +6178,31 @@
         <v>229</v>
       </c>
       <c r="F119" t="s">
-        <v>145</v>
+        <v>229</v>
       </c>
       <c r="G119" t="s">
-        <v>145</v>
+        <v>229</v>
       </c>
       <c r="H119" t="s">
-        <v>145</v>
+        <v>229</v>
       </c>
       <c r="I119" t="s">
-        <v>145</v>
+        <v>229</v>
       </c>
       <c r="J119" t="s">
-        <v>145</v>
+        <v>229</v>
       </c>
       <c r="K119" t="s">
-        <v>145</v>
+        <v>229</v>
       </c>
       <c r="L119" t="s">
-        <v>145</v>
+        <v>229</v>
       </c>
       <c r="M119" t="s">
-        <v>145</v>
+        <v>229</v>
       </c>
       <c r="N119" t="s">
-        <v>145</v>
+        <v>229</v>
       </c>
     </row>
     <row r="120">
@@ -6301,40 +6301,40 @@
         <v>154</v>
       </c>
       <c r="C122" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="D122" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="E122" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="F122" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="G122" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="H122" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="I122" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="J122" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="K122" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="L122" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="M122" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="N122" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
     </row>
     <row r="123">
@@ -6348,37 +6348,37 @@
         <v>170</v>
       </c>
       <c r="D123" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="E123" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="F123" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="G123" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="H123" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="I123" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="J123" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="K123" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="L123" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="M123" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="N123" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
     </row>
     <row r="124">
@@ -6395,34 +6395,34 @@
         <v>197</v>
       </c>
       <c r="E124" t="s">
-        <v>145</v>
+        <v>197</v>
       </c>
       <c r="F124" t="s">
-        <v>145</v>
+        <v>197</v>
       </c>
       <c r="G124" t="s">
-        <v>145</v>
+        <v>197</v>
       </c>
       <c r="H124" t="s">
-        <v>145</v>
+        <v>197</v>
       </c>
       <c r="I124" t="s">
-        <v>145</v>
+        <v>197</v>
       </c>
       <c r="J124" t="s">
-        <v>145</v>
+        <v>197</v>
       </c>
       <c r="K124" t="s">
-        <v>145</v>
+        <v>197</v>
       </c>
       <c r="L124" t="s">
-        <v>145</v>
+        <v>197</v>
       </c>
       <c r="M124" t="s">
-        <v>145</v>
+        <v>197</v>
       </c>
       <c r="N124" t="s">
-        <v>145</v>
+        <v>197</v>
       </c>
     </row>
     <row r="125">
@@ -6442,31 +6442,31 @@
         <v>230</v>
       </c>
       <c r="F125" t="s">
-        <v>145</v>
+        <v>230</v>
       </c>
       <c r="G125" t="s">
-        <v>145</v>
+        <v>230</v>
       </c>
       <c r="H125" t="s">
-        <v>145</v>
+        <v>230</v>
       </c>
       <c r="I125" t="s">
-        <v>145</v>
+        <v>230</v>
       </c>
       <c r="J125" t="s">
-        <v>145</v>
+        <v>230</v>
       </c>
       <c r="K125" t="s">
-        <v>145</v>
+        <v>230</v>
       </c>
       <c r="L125" t="s">
-        <v>145</v>
+        <v>230</v>
       </c>
       <c r="M125" t="s">
-        <v>145</v>
+        <v>230</v>
       </c>
       <c r="N125" t="s">
-        <v>145</v>
+        <v>230</v>
       </c>
     </row>
     <row r="126">
@@ -6521,40 +6521,40 @@
         <v>155</v>
       </c>
       <c r="C127" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="D127" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="E127" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="F127" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="G127" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="H127" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="I127" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="J127" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="K127" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="L127" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="M127" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="N127" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="128">
@@ -6568,37 +6568,37 @@
         <v>171</v>
       </c>
       <c r="D128" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="E128" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="F128" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="G128" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="H128" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="I128" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="J128" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="K128" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="L128" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="M128" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="N128" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
     </row>
     <row r="129">
@@ -6615,34 +6615,34 @@
         <v>198</v>
       </c>
       <c r="E129" t="s">
-        <v>145</v>
+        <v>198</v>
       </c>
       <c r="F129" t="s">
-        <v>145</v>
+        <v>198</v>
       </c>
       <c r="G129" t="s">
-        <v>145</v>
+        <v>198</v>
       </c>
       <c r="H129" t="s">
-        <v>145</v>
+        <v>198</v>
       </c>
       <c r="I129" t="s">
-        <v>145</v>
+        <v>198</v>
       </c>
       <c r="J129" t="s">
-        <v>145</v>
+        <v>198</v>
       </c>
       <c r="K129" t="s">
-        <v>145</v>
+        <v>198</v>
       </c>
       <c r="L129" t="s">
-        <v>145</v>
+        <v>198</v>
       </c>
       <c r="M129" t="s">
-        <v>145</v>
+        <v>198</v>
       </c>
       <c r="N129" t="s">
-        <v>145</v>
+        <v>198</v>
       </c>
     </row>
     <row r="130">
@@ -6662,31 +6662,31 @@
         <v>231</v>
       </c>
       <c r="F130" t="s">
-        <v>145</v>
+        <v>231</v>
       </c>
       <c r="G130" t="s">
-        <v>145</v>
+        <v>231</v>
       </c>
       <c r="H130" t="s">
-        <v>145</v>
+        <v>231</v>
       </c>
       <c r="I130" t="s">
-        <v>145</v>
+        <v>231</v>
       </c>
       <c r="J130" t="s">
-        <v>145</v>
+        <v>231</v>
       </c>
       <c r="K130" t="s">
-        <v>145</v>
+        <v>231</v>
       </c>
       <c r="L130" t="s">
-        <v>145</v>
+        <v>231</v>
       </c>
       <c r="M130" t="s">
-        <v>145</v>
+        <v>231</v>
       </c>
       <c r="N130" t="s">
-        <v>145</v>
+        <v>231</v>
       </c>
     </row>
     <row r="131">

--- a/output10_species_priority_table/Table11_v02_NIS_priority_indented.xlsx
+++ b/output10_species_priority_table/Table11_v02_NIS_priority_indented.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1809" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1713" uniqueCount="295">
   <si>
     <t>Phyl</t>
   </si>
@@ -50,9 +50,6 @@
     <t>PN</t>
   </si>
   <si>
-    <t>Ref</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -900,27 +897,6 @@
   </si>
   <si>
     <t>220</t>
-  </si>
-  <si>
-    <t>Muha et al., 2019</t>
-  </si>
-  <si>
-    <t>Schenekar et al., 2020</t>
-  </si>
-  <si>
-    <t>Clusa et al., 2017</t>
-  </si>
-  <si>
-    <t>Miralles et al., 2019</t>
-  </si>
-  <si>
-    <t>Goldberg et al.,  2013</t>
-  </si>
-  <si>
-    <t>Vandersea et al., 2017</t>
-  </si>
-  <si>
-    <t>Engesmo et al., 2018</t>
   </si>
 </sst>
 </file>
@@ -1009,5772 +985,5376 @@
       <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M2" t="s">
-        <v>144</v>
-      </c>
-      <c r="N2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M3" t="s">
-        <v>156</v>
-      </c>
-      <c r="N3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M4" t="s">
-        <v>172</v>
-      </c>
-      <c r="N4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M5" t="s">
-        <v>199</v>
-      </c>
-      <c r="N5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M6" t="s">
-        <v>289</v>
-      </c>
-      <c r="N6" t="e">
-        <v>#N/A</v>
+        <v>288</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M7" t="s">
-        <v>173</v>
-      </c>
-      <c r="N7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M8" t="s">
-        <v>200</v>
-      </c>
-      <c r="N8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M9" t="s">
-        <v>290</v>
-      </c>
-      <c r="N9" t="e">
-        <v>#N/A</v>
+        <v>289</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G10" t="s">
-        <v>145</v>
+        <v>275</v>
       </c>
       <c r="H10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I10" t="s">
-        <v>145</v>
+        <v>60</v>
       </c>
       <c r="J10" t="s">
-        <v>145</v>
+        <v>88</v>
       </c>
       <c r="K10" t="s">
-        <v>145</v>
+        <v>88</v>
       </c>
       <c r="L10" t="s">
-        <v>145</v>
+        <v>13</v>
       </c>
       <c r="M10" t="s">
-        <v>145</v>
-      </c>
-      <c r="N10" t="e">
-        <v>#N/A</v>
+        <v>289</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G11" t="s">
-        <v>145</v>
+        <v>275</v>
       </c>
       <c r="H11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I11" t="s">
-        <v>145</v>
+        <v>60</v>
       </c>
       <c r="J11" t="s">
-        <v>145</v>
+        <v>88</v>
       </c>
       <c r="K11" t="s">
-        <v>145</v>
+        <v>88</v>
       </c>
       <c r="L11" t="s">
-        <v>145</v>
+        <v>13</v>
       </c>
       <c r="M11" t="s">
-        <v>145</v>
-      </c>
-      <c r="N11" t="e">
-        <v>#N/A</v>
+        <v>289</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M12" t="s">
-        <v>146</v>
-      </c>
-      <c r="N12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M13" t="s">
-        <v>157</v>
-      </c>
-      <c r="N13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M14" t="s">
-        <v>174</v>
-      </c>
-      <c r="N14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="M15" t="s">
-        <v>201</v>
-      </c>
-      <c r="N15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G16" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M16" t="s">
-        <v>36</v>
-      </c>
-      <c r="N16" t="e">
-        <v>#N/A</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M17" t="s">
-        <v>158</v>
-      </c>
-      <c r="N17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M18" t="s">
-        <v>175</v>
-      </c>
-      <c r="N18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M19" t="s">
-        <v>202</v>
-      </c>
-      <c r="N19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F20" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G20" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H20" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M20" t="s">
-        <v>291</v>
-      </c>
-      <c r="N20" t="e">
-        <v>#N/A</v>
+        <v>290</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="M21" t="s">
-        <v>203</v>
-      </c>
-      <c r="N21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" t="s">
+        <v>144</v>
+      </c>
+      <c r="C22" t="s">
+        <v>144</v>
+      </c>
+      <c r="D22" t="s">
+        <v>144</v>
+      </c>
+      <c r="E22" t="s">
+        <v>144</v>
+      </c>
+      <c r="F22" t="s">
+        <v>237</v>
+      </c>
+      <c r="G22" t="s">
+        <v>276</v>
+      </c>
+      <c r="H22" t="s">
         <v>33</v>
       </c>
-      <c r="B22" t="s">
-        <v>145</v>
-      </c>
-      <c r="C22" t="s">
-        <v>145</v>
-      </c>
-      <c r="D22" t="s">
-        <v>145</v>
-      </c>
-      <c r="E22" t="s">
-        <v>145</v>
-      </c>
-      <c r="F22" t="s">
-        <v>238</v>
-      </c>
-      <c r="G22" t="s">
-        <v>277</v>
-      </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
+        <v>46</v>
+      </c>
+      <c r="J22" t="s">
         <v>34</v>
       </c>
-      <c r="I22" t="s">
-        <v>47</v>
-      </c>
-      <c r="J22" t="s">
-        <v>35</v>
-      </c>
       <c r="K22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M22" t="s">
-        <v>291</v>
-      </c>
-      <c r="N22" t="e">
-        <v>#N/A</v>
+        <v>290</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E23" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F23" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G23" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H23" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I23" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J23" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K23" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L23" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M23" t="s">
-        <v>204</v>
-      </c>
-      <c r="N23" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F24" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G24" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M24" t="s">
-        <v>291</v>
-      </c>
-      <c r="N24" t="e">
-        <v>#N/A</v>
+        <v>290</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M25" t="s">
-        <v>147</v>
-      </c>
-      <c r="N25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M26" t="s">
-        <v>159</v>
-      </c>
-      <c r="N26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B27" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C27" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D27" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E27" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F27" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G27" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H27" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I27" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J27" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K27" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L27" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M27" t="s">
-        <v>176</v>
-      </c>
-      <c r="N27" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E28" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F28" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G28" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H28" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I28" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J28" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K28" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L28" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="M28" t="s">
-        <v>205</v>
-      </c>
-      <c r="N28" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F29" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G29" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H29" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M29" t="s">
-        <v>55</v>
-      </c>
-      <c r="N29" t="s">
-        <v>296</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M30" t="s">
-        <v>148</v>
-      </c>
-      <c r="N30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B31" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C31" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D31" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E31" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F31" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G31" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H31" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I31" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J31" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K31" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L31" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M31" t="s">
-        <v>160</v>
-      </c>
-      <c r="N31" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B32" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C32" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D32" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E32" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F32" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G32" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H32" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I32" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J32" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K32" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L32" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M32" t="s">
-        <v>177</v>
-      </c>
-      <c r="N32" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B33" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C33" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D33" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E33" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F33" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G33" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H33" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I33" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J33" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K33" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L33" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="M33" t="s">
-        <v>206</v>
-      </c>
-      <c r="N33" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B34" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C34" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D34" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E34" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F34" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G34" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H34" t="e">
         <v>#N/A</v>
       </c>
       <c r="I34" t="s">
+        <v>12</v>
+      </c>
+      <c r="J34" t="s">
+        <v>14</v>
+      </c>
+      <c r="K34" t="s">
+        <v>14</v>
+      </c>
+      <c r="L34" t="s">
         <v>13</v>
       </c>
-      <c r="J34" t="s">
-        <v>15</v>
-      </c>
-      <c r="K34" t="s">
-        <v>15</v>
-      </c>
-      <c r="L34" t="s">
-        <v>14</v>
-      </c>
       <c r="M34" t="s">
-        <v>21</v>
-      </c>
-      <c r="N34" t="s">
-        <v>297</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B35" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C35" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D35" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E35" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F35" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G35" t="s">
-        <v>145</v>
+        <v>276</v>
       </c>
       <c r="H35" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I35" t="s">
-        <v>145</v>
+        <v>12</v>
       </c>
       <c r="J35" t="s">
-        <v>145</v>
+        <v>14</v>
       </c>
       <c r="K35" t="s">
-        <v>145</v>
+        <v>14</v>
       </c>
       <c r="L35" t="s">
-        <v>145</v>
+        <v>13</v>
       </c>
       <c r="M35" t="s">
-        <v>145</v>
-      </c>
-      <c r="N35" t="e">
-        <v>#N/A</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B36" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C36" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D36" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E36" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F36" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G36" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H36" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I36" t="s">
-        <v>145</v>
+        <v>12</v>
       </c>
       <c r="J36" t="s">
-        <v>145</v>
+        <v>14</v>
       </c>
       <c r="K36" t="s">
-        <v>145</v>
+        <v>14</v>
       </c>
       <c r="L36" t="s">
-        <v>145</v>
+        <v>13</v>
       </c>
       <c r="M36" t="s">
-        <v>145</v>
-      </c>
-      <c r="N36" t="e">
-        <v>#N/A</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D37" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E37" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F37" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G37" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H37" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I37" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J37" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K37" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L37" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M37" t="s">
-        <v>178</v>
-      </c>
-      <c r="N37" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B38" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C38" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D38" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E38" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F38" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G38" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H38" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I38" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J38" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K38" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L38" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="M38" t="s">
-        <v>207</v>
-      </c>
-      <c r="N38" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F39" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H39" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I39" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J39" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K39" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L39" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M39" t="s">
-        <v>15</v>
-      </c>
-      <c r="N39" t="e">
-        <v>#N/A</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B40" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M40" t="s">
-        <v>161</v>
-      </c>
-      <c r="N40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B41" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C41" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D41" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E41" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F41" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G41" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H41" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I41" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J41" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K41" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L41" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M41" t="s">
-        <v>179</v>
-      </c>
-      <c r="N41" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B42" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C42" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D42" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E42" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F42" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G42" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H42" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I42" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J42" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K42" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L42" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M42" t="s">
-        <v>208</v>
-      </c>
-      <c r="N42" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B43" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C43" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D43" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E43" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F43" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G43" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H43" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I43" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J43" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K43" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M43" t="s">
-        <v>292</v>
-      </c>
-      <c r="N43" t="e">
-        <v>#N/A</v>
+        <v>291</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B44" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C44" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D44" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E44" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F44" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G44" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H44" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I44" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J44" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K44" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L44" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M44" t="s">
-        <v>149</v>
-      </c>
-      <c r="N44" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B45" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C45" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D45" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E45" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F45" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G45" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H45" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I45" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J45" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K45" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L45" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M45" t="s">
-        <v>162</v>
-      </c>
-      <c r="N45" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B46" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C46" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D46" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E46" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F46" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G46" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H46" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I46" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J46" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K46" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L46" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M46" t="s">
-        <v>180</v>
-      </c>
-      <c r="N46" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B47" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C47" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D47" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E47" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F47" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G47" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H47" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I47" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J47" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K47" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L47" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M47" t="s">
-        <v>209</v>
-      </c>
-      <c r="N47" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B48" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C48" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D48" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E48" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F48" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G48" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H48" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I48" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J48" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K48" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L48" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M48" t="s">
-        <v>24</v>
-      </c>
-      <c r="N48" t="e">
-        <v>#N/A</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B49" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C49" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D49" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E49" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F49" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G49" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H49" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I49" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J49" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K49" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L49" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M49" t="s">
-        <v>150</v>
-      </c>
-      <c r="N49" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B50" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C50" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D50" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E50" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F50" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G50" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H50" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I50" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J50" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K50" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L50" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M50" t="s">
-        <v>163</v>
-      </c>
-      <c r="N50" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B51" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C51" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D51" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E51" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F51" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G51" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H51" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I51" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J51" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K51" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L51" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M51" t="s">
-        <v>181</v>
-      </c>
-      <c r="N51" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B52" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C52" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D52" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E52" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F52" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G52" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H52" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I52" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J52" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K52" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L52" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="M52" t="s">
-        <v>210</v>
-      </c>
-      <c r="N52" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B53" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C53" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D53" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E53" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F53" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G53" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H53" t="s">
+        <v>13</v>
+      </c>
+      <c r="I53" t="s">
         <v>14</v>
       </c>
-      <c r="I53" t="s">
-        <v>15</v>
-      </c>
       <c r="J53" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K53" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L53" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M53" t="s">
-        <v>41</v>
-      </c>
-      <c r="N53" t="e">
-        <v>#N/A</v>
+        <v>40</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B54" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C54" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D54" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E54" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F54" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G54" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H54" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I54" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J54" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K54" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L54" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M54" t="s">
-        <v>182</v>
-      </c>
-      <c r="N54" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B55" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C55" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D55" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E55" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F55" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G55" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H55" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I55" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J55" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K55" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L55" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="M55" t="s">
-        <v>211</v>
-      </c>
-      <c r="N55" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B56" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C56" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D56" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E56" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F56" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G56" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H56" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I56" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J56" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K56" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L56" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M56" t="s">
-        <v>15</v>
-      </c>
-      <c r="N56" t="s">
-        <v>298</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B57" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C57" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D57" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E57" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F57" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G57" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H57" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I57" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J57" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K57" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L57" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M57" t="s">
-        <v>183</v>
-      </c>
-      <c r="N57" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B58" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C58" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D58" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E58" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F58" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G58" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H58" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I58" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J58" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K58" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L58" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M58" t="s">
-        <v>212</v>
-      </c>
-      <c r="N58" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B59" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C59" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D59" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E59" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F59" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G59" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H59" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I59" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J59" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K59" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L59" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M59" t="s">
-        <v>15</v>
-      </c>
-      <c r="N59" t="e">
-        <v>#N/A</v>
+        <v>14</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B60" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C60" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D60" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E60" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F60" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G60" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H60" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I60" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J60" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K60" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L60" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M60" t="s">
-        <v>184</v>
-      </c>
-      <c r="N60" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B61" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C61" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D61" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E61" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F61" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G61" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H61" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I61" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J61" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K61" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L61" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M61" t="s">
-        <v>213</v>
-      </c>
-      <c r="N61" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F62" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G62" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I62" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J62" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K62" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L62" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M62" t="s">
-        <v>55</v>
-      </c>
-      <c r="N62" t="e">
-        <v>#N/A</v>
+        <v>54</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B63" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C63" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D63" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E63" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F63" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G63" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H63" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I63" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J63" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K63" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L63" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M63" t="s">
-        <v>214</v>
-      </c>
-      <c r="N63" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B64" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C64" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D64" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E64" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F64" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G64" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H64" t="s">
+        <v>27</v>
+      </c>
+      <c r="I64" t="s">
+        <v>16</v>
+      </c>
+      <c r="J64" t="s">
         <v>28</v>
       </c>
-      <c r="I64" t="s">
-        <v>17</v>
-      </c>
-      <c r="J64" t="s">
-        <v>29</v>
-      </c>
       <c r="K64" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L64" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M64" t="s">
-        <v>55</v>
-      </c>
-      <c r="N64" t="e">
-        <v>#N/A</v>
+        <v>54</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B65" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C65" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D65" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E65" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F65" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G65" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H65" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I65" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J65" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K65" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L65" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M65" t="s">
-        <v>164</v>
-      </c>
-      <c r="N65" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B66" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C66" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D66" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E66" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F66" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G66" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H66" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I66" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J66" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K66" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L66" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M66" t="s">
-        <v>185</v>
-      </c>
-      <c r="N66" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B67" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C67" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D67" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E67" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F67" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G67" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H67" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I67" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J67" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K67" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L67" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M67" t="s">
-        <v>215</v>
-      </c>
-      <c r="N67" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B68" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C68" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D68" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E68" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F68" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G68" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H68" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I68" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J68" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K68" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L68" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M68" t="s">
-        <v>21</v>
-      </c>
-      <c r="N68" t="s">
-        <v>299</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B69" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C69" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D69" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E69" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F69" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G69" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H69" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I69" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J69" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K69" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L69" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M69" t="s">
-        <v>216</v>
-      </c>
-      <c r="N69" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B70" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C70" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D70" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E70" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F70" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G70" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H70" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I70" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J70" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K70" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L70" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M70" t="s">
-        <v>21</v>
-      </c>
-      <c r="N70" t="s">
-        <v>300</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B71" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C71" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D71" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E71" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F71" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G71" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H71" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I71" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J71" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K71" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L71" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M71" t="s">
-        <v>186</v>
-      </c>
-      <c r="N71" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B72" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C72" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D72" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E72" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F72" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G72" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H72" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I72" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J72" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K72" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L72" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M72" t="s">
-        <v>217</v>
-      </c>
-      <c r="N72" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B73" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C73" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D73" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E73" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F73" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G73" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H73" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I73" t="s">
+        <v>21</v>
+      </c>
+      <c r="J73" t="s">
+        <v>12</v>
+      </c>
+      <c r="K73" t="s">
         <v>22</v>
       </c>
-      <c r="J73" t="s">
-        <v>13</v>
-      </c>
-      <c r="K73" t="s">
-        <v>23</v>
-      </c>
       <c r="L73" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M73" t="s">
-        <v>35</v>
-      </c>
-      <c r="N73" t="e">
-        <v>#N/A</v>
+        <v>34</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B74" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C74" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D74" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E74" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F74" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G74" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H74" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I74" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J74" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K74" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L74" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M74" t="s">
-        <v>151</v>
-      </c>
-      <c r="N74" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B75" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C75" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D75" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E75" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F75" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G75" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H75" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I75" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J75" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K75" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L75" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M75" t="s">
-        <v>165</v>
-      </c>
-      <c r="N75" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B76" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C76" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D76" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E76" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F76" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G76" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H76" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I76" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J76" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K76" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L76" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M76" t="s">
-        <v>187</v>
-      </c>
-      <c r="N76" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B77" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C77" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D77" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E77" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F77" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G77" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H77" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I77" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J77" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K77" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L77" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M77" t="s">
-        <v>218</v>
-      </c>
-      <c r="N77" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B78" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C78" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D78" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E78" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F78" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G78" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H78" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I78" t="s">
+        <v>57</v>
+      </c>
+      <c r="J78" t="s">
+        <v>79</v>
+      </c>
+      <c r="K78" t="s">
+        <v>79</v>
+      </c>
+      <c r="L78" t="s">
         <v>58</v>
       </c>
-      <c r="J78" t="s">
-        <v>80</v>
-      </c>
-      <c r="K78" t="s">
-        <v>80</v>
-      </c>
-      <c r="L78" t="s">
-        <v>59</v>
-      </c>
       <c r="M78" t="s">
-        <v>293</v>
-      </c>
-      <c r="N78" t="e">
-        <v>#N/A</v>
+        <v>292</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B79" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C79" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D79" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E79" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F79" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G79" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H79" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I79" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J79" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K79" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L79" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M79" t="s">
-        <v>188</v>
-      </c>
-      <c r="N79" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B80" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C80" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D80" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E80" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F80" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G80" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H80" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I80" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J80" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K80" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L80" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M80" t="s">
-        <v>219</v>
-      </c>
-      <c r="N80" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B81" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C81" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D81" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E81" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F81" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G81" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H81" t="e">
         <v>#N/A</v>
       </c>
       <c r="I81" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J81" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K81" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L81" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M81" t="s">
-        <v>68</v>
-      </c>
-      <c r="N81" t="e">
-        <v>#N/A</v>
+        <v>67</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B82" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C82" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D82" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E82" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F82" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G82" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H82" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I82" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J82" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K82" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L82" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M82" t="s">
-        <v>220</v>
-      </c>
-      <c r="N82" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B83" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C83" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D83" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E83" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F83" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G83" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H83" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I83" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J83" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K83" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L83" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M83" t="s">
-        <v>68</v>
-      </c>
-      <c r="N83" t="e">
-        <v>#N/A</v>
+        <v>67</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B84" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C84" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D84" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E84" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F84" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G84" t="s">
-        <v>145</v>
+        <v>275</v>
       </c>
       <c r="H84" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I84" t="s">
-        <v>145</v>
+        <v>26</v>
       </c>
       <c r="J84" t="s">
-        <v>145</v>
+        <v>21</v>
       </c>
       <c r="K84" t="s">
-        <v>145</v>
+        <v>40</v>
       </c>
       <c r="L84" t="s">
-        <v>145</v>
+        <v>13</v>
       </c>
       <c r="M84" t="s">
-        <v>145</v>
-      </c>
-      <c r="N84" t="e">
-        <v>#N/A</v>
+        <v>67</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B85" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C85" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D85" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E85" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F85" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G85" t="s">
-        <v>145</v>
+        <v>275</v>
       </c>
       <c r="H85" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I85" t="s">
-        <v>145</v>
+        <v>26</v>
       </c>
       <c r="J85" t="s">
-        <v>145</v>
+        <v>21</v>
       </c>
       <c r="K85" t="s">
-        <v>145</v>
+        <v>40</v>
       </c>
       <c r="L85" t="s">
-        <v>145</v>
+        <v>13</v>
       </c>
       <c r="M85" t="s">
-        <v>145</v>
-      </c>
-      <c r="N85" t="s">
-        <v>301</v>
+        <v>67</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B86" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C86" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D86" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E86" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F86" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G86" t="s">
-        <v>145</v>
+        <v>275</v>
       </c>
       <c r="H86" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I86" t="s">
-        <v>145</v>
+        <v>26</v>
       </c>
       <c r="J86" t="s">
-        <v>145</v>
+        <v>21</v>
       </c>
       <c r="K86" t="s">
-        <v>145</v>
+        <v>40</v>
       </c>
       <c r="L86" t="s">
-        <v>145</v>
+        <v>13</v>
       </c>
       <c r="M86" t="s">
-        <v>145</v>
-      </c>
-      <c r="N86" t="e">
-        <v>#N/A</v>
+        <v>67</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B87" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C87" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D87" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E87" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F87" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G87" t="s">
-        <v>145</v>
+        <v>275</v>
       </c>
       <c r="H87" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I87" t="s">
-        <v>145</v>
+        <v>26</v>
       </c>
       <c r="J87" t="s">
-        <v>145</v>
+        <v>21</v>
       </c>
       <c r="K87" t="s">
-        <v>145</v>
+        <v>40</v>
       </c>
       <c r="L87" t="s">
-        <v>145</v>
+        <v>13</v>
       </c>
       <c r="M87" t="s">
-        <v>145</v>
-      </c>
-      <c r="N87" t="e">
-        <v>#N/A</v>
+        <v>67</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B88" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C88" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D88" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E88" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F88" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G88" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H88" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I88" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J88" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K88" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L88" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M88" t="s">
-        <v>189</v>
-      </c>
-      <c r="N88" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B89" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C89" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D89" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E89" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F89" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G89" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H89" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I89" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J89" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K89" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L89" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M89" t="s">
-        <v>221</v>
-      </c>
-      <c r="N89" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B90" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C90" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D90" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E90" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F90" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G90" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H90" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I90" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J90" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K90" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L90" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M90" t="s">
-        <v>294</v>
-      </c>
-      <c r="N90" t="e">
-        <v>#N/A</v>
+        <v>293</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B91" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C91" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D91" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E91" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F91" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G91" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H91" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I91" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J91" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K91" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L91" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M91" t="s">
-        <v>190</v>
-      </c>
-      <c r="N91" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B92" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C92" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D92" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E92" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F92" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G92" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H92" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I92" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J92" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K92" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L92" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="M92" t="s">
-        <v>222</v>
-      </c>
-      <c r="N92" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B93" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C93" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D93" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E93" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F93" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G93" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H93" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I93" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J93" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K93" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L93" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M93" t="s">
-        <v>87</v>
-      </c>
-      <c r="N93" t="e">
-        <v>#N/A</v>
+        <v>86</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B94" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C94" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D94" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E94" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F94" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G94" t="s">
-        <v>145</v>
+        <v>275</v>
       </c>
       <c r="H94" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I94" t="s">
-        <v>145</v>
+        <v>23</v>
       </c>
       <c r="J94" t="s">
-        <v>145</v>
+        <v>32</v>
       </c>
       <c r="K94" t="s">
-        <v>145</v>
+        <v>32</v>
       </c>
       <c r="L94" t="s">
-        <v>145</v>
+        <v>32</v>
       </c>
       <c r="M94" t="s">
-        <v>145</v>
-      </c>
-      <c r="N94" t="e">
-        <v>#N/A</v>
+        <v>86</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B95" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C95" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D95" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E95" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F95" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G95" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H95" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I95" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J95" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K95" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L95" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M95" t="s">
-        <v>152</v>
-      </c>
-      <c r="N95" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B96" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C96" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D96" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E96" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F96" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G96" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H96" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I96" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J96" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K96" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L96" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M96" t="s">
-        <v>166</v>
-      </c>
-      <c r="N96" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B97" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C97" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D97" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E97" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F97" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G97" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H97" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I97" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J97" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K97" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L97" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="M97" t="s">
-        <v>191</v>
-      </c>
-      <c r="N97" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B98" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C98" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D98" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E98" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F98" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G98" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H98" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I98" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J98" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K98" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L98" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M98" t="s">
-        <v>223</v>
-      </c>
-      <c r="N98" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B99" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C99" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D99" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E99" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F99" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G99" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H99" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I99" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J99" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K99" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L99" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M99" t="s">
-        <v>15</v>
-      </c>
-      <c r="N99" t="e">
-        <v>#N/A</v>
+        <v>14</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B100" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C100" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D100" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E100" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F100" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G100" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H100" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I100" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J100" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K100" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L100" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M100" t="s">
-        <v>153</v>
-      </c>
-      <c r="N100" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B101" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C101" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D101" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E101" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F101" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G101" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H101" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I101" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J101" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K101" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L101" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M101" t="s">
-        <v>167</v>
-      </c>
-      <c r="N101" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B102" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C102" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D102" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E102" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F102" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G102" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H102" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I102" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J102" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K102" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L102" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M102" t="s">
-        <v>192</v>
-      </c>
-      <c r="N102" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B103" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C103" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D103" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E103" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F103" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G103" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H103" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I103" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J103" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K103" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L103" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M103" t="s">
-        <v>224</v>
-      </c>
-      <c r="N103" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B104" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C104" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D104" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E104" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F104" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G104" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H104" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I104" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J104" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K104" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L104" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M104" t="s">
-        <v>295</v>
-      </c>
-      <c r="N104" t="e">
-        <v>#N/A</v>
+        <v>294</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B105" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C105" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D105" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E105" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F105" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G105" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H105" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I105" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J105" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K105" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L105" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M105" t="s">
-        <v>193</v>
-      </c>
-      <c r="N105" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B106" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C106" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D106" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E106" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F106" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G106" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H106" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I106" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J106" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K106" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L106" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="M106" t="s">
-        <v>225</v>
-      </c>
-      <c r="N106" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B107" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C107" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D107" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E107" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F107" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G107" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H107" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I107" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J107" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K107" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L107" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M107" t="s">
-        <v>139</v>
-      </c>
-      <c r="N107" t="e">
-        <v>#N/A</v>
+        <v>138</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B108" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C108" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D108" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E108" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F108" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G108" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H108" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I108" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J108" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K108" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L108" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M108" t="s">
-        <v>168</v>
-      </c>
-      <c r="N108" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B109" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C109" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D109" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E109" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F109" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G109" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H109" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I109" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J109" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K109" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L109" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="M109" t="s">
-        <v>194</v>
-      </c>
-      <c r="N109" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B110" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C110" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D110" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E110" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F110" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G110" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H110" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I110" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J110" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K110" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L110" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M110" t="s">
-        <v>226</v>
-      </c>
-      <c r="N110" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B111" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C111" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D111" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E111" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F111" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G111" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H111" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I111" t="s">
+        <v>13</v>
+      </c>
+      <c r="J111" t="s">
         <v>14</v>
       </c>
-      <c r="J111" t="s">
-        <v>15</v>
-      </c>
       <c r="K111" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L111" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M111" t="s">
-        <v>21</v>
-      </c>
-      <c r="N111" t="e">
-        <v>#N/A</v>
+        <v>20</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B112" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C112" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D112" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E112" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F112" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G112" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H112" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I112" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J112" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K112" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L112" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M112" t="s">
-        <v>195</v>
-      </c>
-      <c r="N112" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B113" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C113" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D113" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E113" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F113" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G113" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H113" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I113" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J113" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K113" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L113" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="M113" t="s">
-        <v>227</v>
-      </c>
-      <c r="N113" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B114" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C114" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D114" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E114" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F114" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G114" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H114" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I114" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J114" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K114" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L114" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M114" t="s">
-        <v>66</v>
-      </c>
-      <c r="N114" t="e">
-        <v>#N/A</v>
+        <v>65</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B115" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C115" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D115" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E115" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F115" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G115" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H115" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I115" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J115" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K115" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L115" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M115" t="s">
-        <v>228</v>
-      </c>
-      <c r="N115" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B116" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C116" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D116" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E116" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F116" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G116" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H116" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I116" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J116" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K116" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L116" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M116" t="s">
-        <v>66</v>
-      </c>
-      <c r="N116" t="e">
-        <v>#N/A</v>
+        <v>65</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B117" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C117" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D117" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E117" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F117" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G117" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H117" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I117" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J117" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K117" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L117" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M117" t="s">
-        <v>169</v>
-      </c>
-      <c r="N117" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B118" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C118" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D118" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E118" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F118" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G118" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H118" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I118" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J118" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K118" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L118" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M118" t="s">
-        <v>196</v>
-      </c>
-      <c r="N118" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B119" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C119" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D119" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E119" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F119" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G119" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H119" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I119" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J119" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K119" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="L119" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M119" t="s">
-        <v>229</v>
-      </c>
-      <c r="N119" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B120" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C120" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D120" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E120" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F120" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G120" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H120" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I120" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J120" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K120" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L120" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M120" t="s">
-        <v>27</v>
-      </c>
-      <c r="N120" t="s">
-        <v>302</v>
+        <v>26</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B121" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C121" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D121" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E121" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F121" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G121" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H121" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I121" t="s">
-        <v>145</v>
+        <v>287</v>
       </c>
       <c r="J121" t="s">
-        <v>145</v>
+        <v>18</v>
       </c>
       <c r="K121" t="s">
-        <v>145</v>
+        <v>18</v>
       </c>
       <c r="L121" t="s">
-        <v>145</v>
+        <v>12</v>
       </c>
       <c r="M121" t="s">
-        <v>145</v>
-      </c>
-      <c r="N121" t="s">
-        <v>145</v>
+        <v>26</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B122" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C122" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D122" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E122" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F122" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G122" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H122" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I122" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J122" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K122" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L122" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M122" t="s">
-        <v>154</v>
-      </c>
-      <c r="N122" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B123" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C123" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D123" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E123" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F123" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G123" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H123" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I123" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J123" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K123" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L123" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="M123" t="s">
-        <v>170</v>
-      </c>
-      <c r="N123" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B124" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C124" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D124" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E124" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F124" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G124" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H124" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I124" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J124" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K124" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L124" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="M124" t="s">
-        <v>197</v>
-      </c>
-      <c r="N124" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B125" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C125" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D125" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E125" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F125" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G125" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H125" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I125" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J125" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K125" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L125" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M125" t="s">
-        <v>230</v>
-      </c>
-      <c r="N125" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B126" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C126" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D126" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E126" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F126" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G126" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H126" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I126" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J126" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K126" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L126" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M126" t="s">
-        <v>18</v>
-      </c>
-      <c r="N126" t="e">
-        <v>#N/A</v>
+        <v>17</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B127" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C127" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D127" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E127" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F127" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G127" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H127" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I127" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J127" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K127" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L127" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M127" t="s">
-        <v>155</v>
-      </c>
-      <c r="N127" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B128" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C128" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D128" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E128" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F128" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G128" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H128" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I128" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J128" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K128" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L128" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M128" t="s">
-        <v>171</v>
-      </c>
-      <c r="N128" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B129" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C129" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D129" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E129" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F129" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G129" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H129" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I129" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J129" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K129" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L129" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="M129" t="s">
-        <v>198</v>
-      </c>
-      <c r="N129" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B130" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C130" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D130" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E130" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F130" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G130" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H130" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I130" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J130" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K130" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L130" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M130" t="s">
-        <v>231</v>
-      </c>
-      <c r="N130" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B131" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C131" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D131" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E131" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F131" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G131" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H131" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I131" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J131" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K131" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L131" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M131" t="s">
-        <v>44</v>
-      </c>
-      <c r="N131" t="e">
-        <v>#N/A</v>
+        <v>43</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B132" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C132" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D132" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E132" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F132" t="s">
+        <v>274</v>
+      </c>
+      <c r="G132" t="s">
         <v>275</v>
       </c>
-      <c r="G132" t="s">
-        <v>145</v>
-      </c>
       <c r="H132" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I132" t="s">
-        <v>145</v>
+        <v>14</v>
       </c>
       <c r="J132" t="s">
-        <v>145</v>
+        <v>21</v>
       </c>
       <c r="K132" t="s">
-        <v>145</v>
+        <v>21</v>
       </c>
       <c r="L132" t="s">
-        <v>145</v>
+        <v>20</v>
       </c>
       <c r="M132" t="s">
-        <v>145</v>
-      </c>
-      <c r="N132" t="e">
-        <v>#N/A</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/output10_species_priority_table/Table11_v02_NIS_priority_indented.xlsx
+++ b/output10_species_priority_table/Table11_v02_NIS_priority_indented.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1713" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1779" uniqueCount="306">
   <si>
     <t>Phyl</t>
   </si>
@@ -443,6 +443,24 @@
     <t>131</t>
   </si>
   <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
     <t>Annelida</t>
   </si>
   <si>
@@ -461,6 +479,9 @@
     <t>Ctenophora</t>
   </si>
   <si>
+    <t>Haptophyta</t>
+  </si>
+  <si>
     <t>Mollusca</t>
   </si>
   <si>
@@ -500,6 +521,9 @@
     <t>Nuda</t>
   </si>
   <si>
+    <t>Coccolithophyceae</t>
+  </si>
+  <si>
     <t>Bivalvia</t>
   </si>
   <si>
@@ -554,6 +578,9 @@
     <t>Beroida</t>
   </si>
   <si>
+    <t>Prymnesiales</t>
+  </si>
+  <si>
     <t>Adapedonta</t>
   </si>
   <si>
@@ -641,6 +668,9 @@
     <t>Beroidae</t>
   </si>
   <si>
+    <t>Prymnesiaceae</t>
+  </si>
+  <si>
     <t>Pharidae</t>
   </si>
   <si>
@@ -752,6 +782,9 @@
     <t>Beroe ovata Bruguière, 1789</t>
   </si>
   <si>
+    <t>Prymnesium parvum N.Carter, 1937</t>
+  </si>
+  <si>
     <t>Ensis leei M. Huber, 2015</t>
   </si>
   <si>
@@ -824,6 +857,9 @@
     <t>Sargassum muticum (Yendo) Fensholt, 1955</t>
   </si>
   <si>
+    <t>Chattonella subsalsa B.Biecheler, 1936</t>
+  </si>
+  <si>
     <t>Fibrocapsa japonica S.Toriumi &amp; H.Takano, 1973</t>
   </si>
   <si>
@@ -876,9 +912,6 @@
   </si>
   <si>
     <t>0</t>
-  </si>
-  <si>
-    <t>133</t>
   </si>
   <si>
     <t>205</t>
@@ -991,40 +1024,40 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="C2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="D2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="E2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="G2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="H2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="I2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="J2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="K2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="L2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="M2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3">
@@ -1032,40 +1065,40 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C3" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="D3" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="E3" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="F3" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="G3" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="H3" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="I3" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="J3" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="K3" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="L3" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="M3" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4">
@@ -1073,40 +1106,40 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C4" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D4" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="E4" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="F4" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="G4" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="H4" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="I4" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="J4" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="K4" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="L4" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="M4" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5">
@@ -1114,40 +1147,40 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C5" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D5" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E5" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="F5" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="G5" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="H5" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="I5" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="J5" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="K5" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="L5" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="M5" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6">
@@ -1155,25 +1188,25 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C6" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D6" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E6" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="F6" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="G6" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="H6" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="I6" t="s">
         <v>48</v>
@@ -1188,7 +1221,7 @@
         <v>13</v>
       </c>
       <c r="M6" t="s">
-        <v>288</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7">
@@ -1196,40 +1229,40 @@
         <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C7" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D7" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="E7" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="F7" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="G7" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="H7" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="I7" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="J7" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="K7" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="L7" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="M7" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8">
@@ -1237,40 +1270,40 @@
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C8" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D8" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E8" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="F8" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="G8" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="H8" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="I8" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="J8" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="K8" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="L8" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="M8" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9">
@@ -1278,22 +1311,22 @@
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C9" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D9" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E9" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="F9" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="G9" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="H9" t="s">
         <v>114</v>
@@ -1311,7 +1344,7 @@
         <v>13</v>
       </c>
       <c r="M9" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
     </row>
     <row r="10">
@@ -1319,22 +1352,22 @@
         <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C10" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D10" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E10" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="F10" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="G10" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="H10" t="s">
         <v>88</v>
@@ -1352,7 +1385,7 @@
         <v>13</v>
       </c>
       <c r="M10" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11">
@@ -1360,22 +1393,22 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C11" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D11" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E11" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="F11" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="G11" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="H11" t="s">
         <v>101</v>
@@ -1393,7 +1426,7 @@
         <v>13</v>
       </c>
       <c r="M11" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12">
@@ -1401,40 +1434,40 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="C12" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="D12" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="E12" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="F12" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="G12" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="H12" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="I12" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="J12" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="K12" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="L12" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="M12" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13">
@@ -1442,40 +1475,40 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C13" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="D13" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="E13" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="F13" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="G13" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H13" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="I13" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="J13" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="K13" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="L13" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="M13" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14">
@@ -1483,40 +1516,40 @@
         <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C14" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D14" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="E14" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="F14" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="G14" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="H14" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="I14" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="J14" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="K14" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="L14" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="M14" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15">
@@ -1524,40 +1557,40 @@
         <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C15" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D15" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E15" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="F15" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="G15" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="H15" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="I15" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="J15" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="K15" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="L15" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="M15" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
     </row>
     <row r="16">
@@ -1565,22 +1598,22 @@
         <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C16" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D16" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E16" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="F16" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="G16" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="H16" t="s">
         <v>44</v>
@@ -1606,40 +1639,40 @@
         <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C17" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="D17" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="E17" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="F17" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="G17" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="H17" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="I17" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="J17" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="K17" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="L17" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="M17" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18">
@@ -1647,40 +1680,40 @@
         <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C18" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D18" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="E18" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="F18" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="G18" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="H18" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="I18" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="J18" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="K18" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="L18" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="M18" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19">
@@ -1688,40 +1721,40 @@
         <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C19" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D19" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E19" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="F19" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="G19" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="H19" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="I19" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="J19" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="K19" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="L19" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="M19" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
     </row>
     <row r="20">
@@ -1729,25 +1762,25 @@
         <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C20" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D20" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E20" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="F20" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="G20" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="H20" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="I20" t="s">
         <v>46</v>
@@ -1762,7 +1795,7 @@
         <v>33</v>
       </c>
       <c r="M20" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
     </row>
     <row r="21">
@@ -1770,40 +1803,40 @@
         <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C21" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D21" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E21" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="F21" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="G21" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="H21" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="I21" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="J21" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="K21" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="L21" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="M21" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
     </row>
     <row r="22">
@@ -1811,22 +1844,22 @@
         <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C22" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D22" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E22" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="F22" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="G22" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="H22" t="s">
         <v>33</v>
@@ -1844,7 +1877,7 @@
         <v>33</v>
       </c>
       <c r="M22" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
     </row>
     <row r="23">
@@ -1852,40 +1885,40 @@
         <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C23" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D23" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E23" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F23" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="G23" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="H23" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="I23" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="J23" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="K23" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="L23" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="M23" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24">
@@ -1893,22 +1926,22 @@
         <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C24" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D24" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E24" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="F24" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="G24" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="H24" t="s">
         <v>81</v>
@@ -1926,7 +1959,7 @@
         <v>33</v>
       </c>
       <c r="M24" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
     </row>
     <row r="25">
@@ -1934,40 +1967,40 @@
         <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C25" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="D25" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="E25" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F25" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="G25" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="H25" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="I25" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="J25" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="K25" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="L25" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="M25" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26">
@@ -1975,40 +2008,40 @@
         <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C26" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="D26" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="E26" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="F26" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="G26" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="H26" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="I26" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="J26" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="K26" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="L26" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="M26" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
     </row>
     <row r="27">
@@ -2016,40 +2049,40 @@
         <v>37</v>
       </c>
       <c r="B27" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C27" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D27" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="E27" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="F27" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="G27" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="H27" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="I27" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="J27" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="K27" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="L27" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="M27" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row r="28">
@@ -2057,40 +2090,40 @@
         <v>38</v>
       </c>
       <c r="B28" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C28" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D28" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E28" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="F28" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="G28" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="H28" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="I28" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="J28" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="K28" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="L28" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="M28" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
     </row>
     <row r="29">
@@ -2098,25 +2131,25 @@
         <v>39</v>
       </c>
       <c r="B29" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C29" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D29" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E29" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="F29" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="G29" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="H29" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="I29" t="s">
         <v>15</v>
@@ -2139,40 +2172,40 @@
         <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C30" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="D30" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="E30" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="F30" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="G30" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H30" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="I30" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="J30" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="K30" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="L30" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="M30" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
     <row r="31">
@@ -2180,40 +2213,40 @@
         <v>41</v>
       </c>
       <c r="B31" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C31" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="D31" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="E31" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="F31" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="G31" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="H31" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="I31" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="J31" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="K31" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="L31" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="M31" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
     </row>
     <row r="32">
@@ -2221,40 +2254,40 @@
         <v>42</v>
       </c>
       <c r="B32" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C32" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D32" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="E32" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="F32" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="G32" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="H32" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="I32" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="J32" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="K32" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="L32" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="M32" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
     </row>
     <row r="33">
@@ -2262,40 +2295,40 @@
         <v>43</v>
       </c>
       <c r="B33" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C33" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D33" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E33" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="F33" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="G33" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="H33" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="I33" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="J33" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="K33" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="L33" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="M33" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
     </row>
     <row r="34">
@@ -2303,22 +2336,22 @@
         <v>44</v>
       </c>
       <c r="B34" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C34" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D34" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E34" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="F34" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="G34" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="H34" t="e">
         <v>#N/A</v>
@@ -2344,25 +2377,25 @@
         <v>45</v>
       </c>
       <c r="B35" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C35" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D35" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E35" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="F35" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="G35" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="H35" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="I35" t="s">
         <v>12</v>
@@ -2385,25 +2418,25 @@
         <v>46</v>
       </c>
       <c r="B36" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C36" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D36" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E36" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="F36" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="G36" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="H36" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="I36" t="s">
         <v>12</v>
@@ -2426,40 +2459,40 @@
         <v>47</v>
       </c>
       <c r="B37" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C37" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D37" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="E37" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="F37" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="G37" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="H37" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="I37" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="J37" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="K37" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="L37" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="M37" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
     </row>
     <row r="38">
@@ -2467,40 +2500,40 @@
         <v>48</v>
       </c>
       <c r="B38" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C38" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D38" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E38" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="F38" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="G38" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="H38" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="I38" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="J38" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="K38" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="L38" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="M38" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
     </row>
     <row r="39">
@@ -2508,28 +2541,28 @@
         <v>49</v>
       </c>
       <c r="B39" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C39" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D39" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E39" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="F39" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="G39" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="H39" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="I39" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="J39" t="s">
         <v>12</v>
@@ -2549,40 +2582,40 @@
         <v>50</v>
       </c>
       <c r="B40" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C40" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="D40" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="E40" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="F40" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="G40" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="H40" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="I40" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="J40" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="K40" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="L40" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="M40" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
     </row>
     <row r="41">
@@ -2590,40 +2623,40 @@
         <v>51</v>
       </c>
       <c r="B41" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C41" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D41" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="E41" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="F41" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="G41" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="H41" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="I41" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="J41" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="K41" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="L41" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="M41" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
     </row>
     <row r="42">
@@ -2631,40 +2664,40 @@
         <v>52</v>
       </c>
       <c r="B42" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C42" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D42" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E42" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="F42" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="G42" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="H42" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="I42" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="J42" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="K42" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="L42" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="M42" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
     </row>
     <row r="43">
@@ -2672,25 +2705,25 @@
         <v>53</v>
       </c>
       <c r="B43" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C43" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D43" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E43" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="F43" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="G43" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="H43" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="I43" t="s">
         <v>72</v>
@@ -2705,7 +2738,7 @@
         <v>24</v>
       </c>
       <c r="M43" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
     </row>
     <row r="44">
@@ -2713,40 +2746,40 @@
         <v>54</v>
       </c>
       <c r="B44" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="C44" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="D44" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="E44" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="F44" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="G44" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="H44" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="I44" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="J44" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="K44" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="L44" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="M44" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="45">
@@ -2754,40 +2787,40 @@
         <v>55</v>
       </c>
       <c r="B45" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C45" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D45" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="E45" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="F45" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="G45" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="H45" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="I45" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="J45" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K45" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="L45" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="M45" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
     </row>
     <row r="46">
@@ -2795,40 +2828,40 @@
         <v>56</v>
       </c>
       <c r="B46" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C46" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D46" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="E46" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="F46" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="G46" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="H46" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="I46" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="J46" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="K46" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="L46" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="M46" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
     </row>
     <row r="47">
@@ -2836,40 +2869,40 @@
         <v>57</v>
       </c>
       <c r="B47" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C47" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D47" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E47" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="F47" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="G47" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="H47" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="I47" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="J47" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="K47" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="L47" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="M47" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
     </row>
     <row r="48">
@@ -2877,28 +2910,28 @@
         <v>58</v>
       </c>
       <c r="B48" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C48" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D48" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E48" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="F48" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="G48" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="H48" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="I48" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="J48" t="s">
         <v>15</v>
@@ -2918,40 +2951,40 @@
         <v>59</v>
       </c>
       <c r="B49" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C49" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="D49" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="E49" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="F49" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="G49" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="H49" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="I49" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="J49" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="K49" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="L49" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="M49" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
     </row>
     <row r="50">
@@ -2959,40 +2992,40 @@
         <v>60</v>
       </c>
       <c r="B50" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C50" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="D50" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="E50" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="F50" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="G50" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="H50" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="I50" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="J50" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="K50" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="L50" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="M50" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
     </row>
     <row r="51">
@@ -3000,40 +3033,40 @@
         <v>61</v>
       </c>
       <c r="B51" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C51" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D51" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="E51" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="F51" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="G51" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="H51" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="I51" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="J51" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="K51" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="L51" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="M51" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
     </row>
     <row r="52">
@@ -3041,40 +3074,40 @@
         <v>62</v>
       </c>
       <c r="B52" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C52" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D52" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E52" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="F52" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="G52" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="H52" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="I52" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="J52" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="K52" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="L52" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="M52" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
     </row>
     <row r="53">
@@ -3082,40 +3115,40 @@
         <v>63</v>
       </c>
       <c r="B53" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C53" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D53" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E53" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="F53" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="G53" t="s">
-        <v>275</v>
-      </c>
-      <c r="H53" t="s">
-        <v>13</v>
-      </c>
-      <c r="I53" t="s">
-        <v>14</v>
-      </c>
-      <c r="J53" t="s">
-        <v>21</v>
-      </c>
-      <c r="K53" t="s">
-        <v>21</v>
-      </c>
-      <c r="L53" t="s">
-        <v>17</v>
-      </c>
-      <c r="M53" t="s">
-        <v>40</v>
+        <v>287</v>
+      </c>
+      <c r="H53" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I53" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J53" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K53" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L53" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M53" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="54">
@@ -3123,40 +3156,40 @@
         <v>64</v>
       </c>
       <c r="B54" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="C54" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="D54" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="E54" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="F54" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="G54" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="H54" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="I54" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="J54" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="K54" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="L54" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="M54" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
     </row>
     <row r="55">
@@ -3164,40 +3197,40 @@
         <v>65</v>
       </c>
       <c r="B55" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C55" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="D55" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="E55" t="s">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="F55" t="s">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="G55" t="s">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="H55" t="s">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="I55" t="s">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="J55" t="s">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="K55" t="s">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="L55" t="s">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="M55" t="s">
-        <v>210</v>
+        <v>170</v>
       </c>
     </row>
     <row r="56">
@@ -3205,40 +3238,40 @@
         <v>66</v>
       </c>
       <c r="B56" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C56" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D56" t="s">
-        <v>144</v>
+        <v>189</v>
       </c>
       <c r="E56" t="s">
-        <v>144</v>
+        <v>189</v>
       </c>
       <c r="F56" t="s">
-        <v>247</v>
+        <v>189</v>
       </c>
       <c r="G56" t="s">
-        <v>276</v>
+        <v>189</v>
       </c>
       <c r="H56" t="s">
-        <v>283</v>
+        <v>189</v>
       </c>
       <c r="I56" t="s">
-        <v>287</v>
+        <v>189</v>
       </c>
       <c r="J56" t="s">
-        <v>12</v>
+        <v>189</v>
       </c>
       <c r="K56" t="s">
-        <v>12</v>
+        <v>189</v>
       </c>
       <c r="L56" t="s">
-        <v>12</v>
+        <v>189</v>
       </c>
       <c r="M56" t="s">
-        <v>14</v>
+        <v>189</v>
       </c>
     </row>
     <row r="57">
@@ -3246,40 +3279,40 @@
         <v>67</v>
       </c>
       <c r="B57" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C57" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D57" t="s">
-        <v>182</v>
+        <v>150</v>
       </c>
       <c r="E57" t="s">
-        <v>182</v>
+        <v>219</v>
       </c>
       <c r="F57" t="s">
-        <v>182</v>
+        <v>219</v>
       </c>
       <c r="G57" t="s">
-        <v>182</v>
+        <v>219</v>
       </c>
       <c r="H57" t="s">
-        <v>182</v>
+        <v>219</v>
       </c>
       <c r="I57" t="s">
-        <v>182</v>
+        <v>219</v>
       </c>
       <c r="J57" t="s">
-        <v>182</v>
+        <v>219</v>
       </c>
       <c r="K57" t="s">
-        <v>182</v>
+        <v>219</v>
       </c>
       <c r="L57" t="s">
-        <v>182</v>
+        <v>219</v>
       </c>
       <c r="M57" t="s">
-        <v>182</v>
+        <v>219</v>
       </c>
     </row>
     <row r="58">
@@ -3287,40 +3320,40 @@
         <v>68</v>
       </c>
       <c r="B58" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C58" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D58" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E58" t="s">
-        <v>211</v>
+        <v>150</v>
       </c>
       <c r="F58" t="s">
-        <v>211</v>
+        <v>257</v>
       </c>
       <c r="G58" t="s">
-        <v>211</v>
+        <v>287</v>
       </c>
       <c r="H58" t="s">
-        <v>211</v>
+        <v>13</v>
       </c>
       <c r="I58" t="s">
-        <v>211</v>
+        <v>14</v>
       </c>
       <c r="J58" t="s">
-        <v>211</v>
+        <v>21</v>
       </c>
       <c r="K58" t="s">
-        <v>211</v>
+        <v>21</v>
       </c>
       <c r="L58" t="s">
-        <v>211</v>
+        <v>17</v>
       </c>
       <c r="M58" t="s">
-        <v>211</v>
+        <v>40</v>
       </c>
     </row>
     <row r="59">
@@ -3328,40 +3361,40 @@
         <v>69</v>
       </c>
       <c r="B59" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C59" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D59" t="s">
-        <v>144</v>
+        <v>190</v>
       </c>
       <c r="E59" t="s">
-        <v>144</v>
+        <v>190</v>
       </c>
       <c r="F59" t="s">
-        <v>248</v>
+        <v>190</v>
       </c>
       <c r="G59" t="s">
-        <v>275</v>
+        <v>190</v>
       </c>
       <c r="H59" t="s">
-        <v>284</v>
+        <v>190</v>
       </c>
       <c r="I59" t="s">
-        <v>287</v>
+        <v>190</v>
       </c>
       <c r="J59" t="s">
-        <v>12</v>
+        <v>190</v>
       </c>
       <c r="K59" t="s">
-        <v>12</v>
+        <v>190</v>
       </c>
       <c r="L59" t="s">
-        <v>12</v>
+        <v>190</v>
       </c>
       <c r="M59" t="s">
-        <v>14</v>
+        <v>190</v>
       </c>
     </row>
     <row r="60">
@@ -3369,40 +3402,40 @@
         <v>70</v>
       </c>
       <c r="B60" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C60" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D60" t="s">
-        <v>183</v>
+        <v>150</v>
       </c>
       <c r="E60" t="s">
-        <v>183</v>
+        <v>220</v>
       </c>
       <c r="F60" t="s">
-        <v>183</v>
+        <v>220</v>
       </c>
       <c r="G60" t="s">
-        <v>183</v>
+        <v>220</v>
       </c>
       <c r="H60" t="s">
-        <v>183</v>
+        <v>220</v>
       </c>
       <c r="I60" t="s">
-        <v>183</v>
+        <v>220</v>
       </c>
       <c r="J60" t="s">
-        <v>183</v>
+        <v>220</v>
       </c>
       <c r="K60" t="s">
-        <v>183</v>
+        <v>220</v>
       </c>
       <c r="L60" t="s">
-        <v>183</v>
+        <v>220</v>
       </c>
       <c r="M60" t="s">
-        <v>183</v>
+        <v>220</v>
       </c>
     </row>
     <row r="61">
@@ -3410,40 +3443,40 @@
         <v>71</v>
       </c>
       <c r="B61" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C61" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D61" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E61" t="s">
-        <v>212</v>
+        <v>150</v>
       </c>
       <c r="F61" t="s">
-        <v>212</v>
+        <v>258</v>
       </c>
       <c r="G61" t="s">
-        <v>212</v>
+        <v>288</v>
       </c>
       <c r="H61" t="s">
-        <v>212</v>
+        <v>295</v>
       </c>
       <c r="I61" t="s">
-        <v>212</v>
+        <v>299</v>
       </c>
       <c r="J61" t="s">
-        <v>212</v>
+        <v>12</v>
       </c>
       <c r="K61" t="s">
-        <v>212</v>
+        <v>12</v>
       </c>
       <c r="L61" t="s">
-        <v>212</v>
+        <v>12</v>
       </c>
       <c r="M61" t="s">
-        <v>212</v>
+        <v>14</v>
       </c>
     </row>
     <row r="62">
@@ -3451,40 +3484,40 @@
         <v>72</v>
       </c>
       <c r="B62" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C62" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D62" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="E62" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="F62" t="s">
-        <v>249</v>
+        <v>191</v>
       </c>
       <c r="G62" t="s">
-        <v>276</v>
+        <v>191</v>
       </c>
       <c r="H62" t="s">
-        <v>46</v>
+        <v>191</v>
       </c>
       <c r="I62" t="s">
-        <v>16</v>
+        <v>191</v>
       </c>
       <c r="J62" t="s">
-        <v>28</v>
+        <v>191</v>
       </c>
       <c r="K62" t="s">
-        <v>31</v>
+        <v>191</v>
       </c>
       <c r="L62" t="s">
-        <v>12</v>
+        <v>191</v>
       </c>
       <c r="M62" t="s">
-        <v>54</v>
+        <v>191</v>
       </c>
     </row>
     <row r="63">
@@ -3492,40 +3525,40 @@
         <v>73</v>
       </c>
       <c r="B63" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C63" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D63" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E63" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="F63" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="G63" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="H63" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="I63" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="J63" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="K63" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="L63" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="M63" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
     </row>
     <row r="64">
@@ -3533,40 +3566,40 @@
         <v>74</v>
       </c>
       <c r="B64" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C64" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D64" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E64" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="F64" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="G64" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="H64" t="s">
-        <v>27</v>
+        <v>296</v>
       </c>
       <c r="I64" t="s">
-        <v>16</v>
+        <v>299</v>
       </c>
       <c r="J64" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="K64" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="L64" t="s">
         <v>12</v>
       </c>
       <c r="M64" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
     </row>
     <row r="65">
@@ -3574,40 +3607,40 @@
         <v>75</v>
       </c>
       <c r="B65" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C65" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="D65" t="s">
-        <v>163</v>
+        <v>192</v>
       </c>
       <c r="E65" t="s">
-        <v>163</v>
+        <v>192</v>
       </c>
       <c r="F65" t="s">
-        <v>163</v>
+        <v>192</v>
       </c>
       <c r="G65" t="s">
-        <v>163</v>
+        <v>192</v>
       </c>
       <c r="H65" t="s">
-        <v>163</v>
+        <v>192</v>
       </c>
       <c r="I65" t="s">
-        <v>163</v>
+        <v>192</v>
       </c>
       <c r="J65" t="s">
-        <v>163</v>
+        <v>192</v>
       </c>
       <c r="K65" t="s">
-        <v>163</v>
+        <v>192</v>
       </c>
       <c r="L65" t="s">
-        <v>163</v>
+        <v>192</v>
       </c>
       <c r="M65" t="s">
-        <v>163</v>
+        <v>192</v>
       </c>
     </row>
     <row r="66">
@@ -3615,40 +3648,40 @@
         <v>76</v>
       </c>
       <c r="B66" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C66" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D66" t="s">
-        <v>184</v>
+        <v>150</v>
       </c>
       <c r="E66" t="s">
-        <v>184</v>
+        <v>222</v>
       </c>
       <c r="F66" t="s">
-        <v>184</v>
+        <v>222</v>
       </c>
       <c r="G66" t="s">
-        <v>184</v>
+        <v>222</v>
       </c>
       <c r="H66" t="s">
-        <v>184</v>
+        <v>222</v>
       </c>
       <c r="I66" t="s">
-        <v>184</v>
+        <v>222</v>
       </c>
       <c r="J66" t="s">
-        <v>184</v>
+        <v>222</v>
       </c>
       <c r="K66" t="s">
-        <v>184</v>
+        <v>222</v>
       </c>
       <c r="L66" t="s">
-        <v>184</v>
+        <v>222</v>
       </c>
       <c r="M66" t="s">
-        <v>184</v>
+        <v>222</v>
       </c>
     </row>
     <row r="67">
@@ -3656,40 +3689,40 @@
         <v>77</v>
       </c>
       <c r="B67" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C67" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D67" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E67" t="s">
-        <v>214</v>
+        <v>150</v>
       </c>
       <c r="F67" t="s">
-        <v>214</v>
+        <v>260</v>
       </c>
       <c r="G67" t="s">
-        <v>214</v>
+        <v>288</v>
       </c>
       <c r="H67" t="s">
-        <v>214</v>
+        <v>46</v>
       </c>
       <c r="I67" t="s">
-        <v>214</v>
+        <v>16</v>
       </c>
       <c r="J67" t="s">
-        <v>214</v>
+        <v>28</v>
       </c>
       <c r="K67" t="s">
-        <v>214</v>
+        <v>31</v>
       </c>
       <c r="L67" t="s">
-        <v>214</v>
+        <v>12</v>
       </c>
       <c r="M67" t="s">
-        <v>214</v>
+        <v>54</v>
       </c>
     </row>
     <row r="68">
@@ -3697,40 +3730,40 @@
         <v>78</v>
       </c>
       <c r="B68" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C68" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D68" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E68" t="s">
-        <v>144</v>
+        <v>223</v>
       </c>
       <c r="F68" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
       <c r="G68" t="s">
-        <v>275</v>
+        <v>223</v>
       </c>
       <c r="H68" t="s">
-        <v>284</v>
+        <v>223</v>
       </c>
       <c r="I68" t="s">
-        <v>13</v>
+        <v>223</v>
       </c>
       <c r="J68" t="s">
-        <v>12</v>
+        <v>223</v>
       </c>
       <c r="K68" t="s">
-        <v>16</v>
+        <v>223</v>
       </c>
       <c r="L68" t="s">
-        <v>12</v>
+        <v>223</v>
       </c>
       <c r="M68" t="s">
-        <v>20</v>
+        <v>223</v>
       </c>
     </row>
     <row r="69">
@@ -3738,40 +3771,40 @@
         <v>79</v>
       </c>
       <c r="B69" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C69" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D69" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E69" t="s">
-        <v>215</v>
+        <v>150</v>
       </c>
       <c r="F69" t="s">
-        <v>215</v>
+        <v>261</v>
       </c>
       <c r="G69" t="s">
-        <v>215</v>
+        <v>287</v>
       </c>
       <c r="H69" t="s">
-        <v>215</v>
+        <v>27</v>
       </c>
       <c r="I69" t="s">
-        <v>215</v>
+        <v>16</v>
       </c>
       <c r="J69" t="s">
-        <v>215</v>
+        <v>28</v>
       </c>
       <c r="K69" t="s">
-        <v>215</v>
+        <v>31</v>
       </c>
       <c r="L69" t="s">
-        <v>215</v>
+        <v>12</v>
       </c>
       <c r="M69" t="s">
-        <v>215</v>
+        <v>54</v>
       </c>
     </row>
     <row r="70">
@@ -3779,40 +3812,40 @@
         <v>80</v>
       </c>
       <c r="B70" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C70" t="s">
-        <v>144</v>
+        <v>171</v>
       </c>
       <c r="D70" t="s">
-        <v>144</v>
+        <v>171</v>
       </c>
       <c r="E70" t="s">
-        <v>144</v>
+        <v>171</v>
       </c>
       <c r="F70" t="s">
-        <v>252</v>
+        <v>171</v>
       </c>
       <c r="G70" t="s">
-        <v>275</v>
+        <v>171</v>
       </c>
       <c r="H70" t="s">
-        <v>281</v>
+        <v>171</v>
       </c>
       <c r="I70" t="s">
-        <v>13</v>
+        <v>171</v>
       </c>
       <c r="J70" t="s">
-        <v>12</v>
+        <v>171</v>
       </c>
       <c r="K70" t="s">
-        <v>16</v>
+        <v>171</v>
       </c>
       <c r="L70" t="s">
-        <v>12</v>
+        <v>171</v>
       </c>
       <c r="M70" t="s">
-        <v>20</v>
+        <v>171</v>
       </c>
     </row>
     <row r="71">
@@ -3820,40 +3853,40 @@
         <v>81</v>
       </c>
       <c r="B71" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C71" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D71" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="E71" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="F71" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="G71" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="H71" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="I71" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="J71" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="K71" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="L71" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="M71" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="72">
@@ -3861,40 +3894,40 @@
         <v>82</v>
       </c>
       <c r="B72" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C72" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D72" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E72" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="F72" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="G72" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="H72" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="I72" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="J72" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="K72" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="L72" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="M72" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
     </row>
     <row r="73">
@@ -3902,40 +3935,40 @@
         <v>83</v>
       </c>
       <c r="B73" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C73" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D73" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E73" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="F73" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="G73" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="H73" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="I73" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J73" t="s">
         <v>12</v>
       </c>
       <c r="K73" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="L73" t="s">
         <v>12</v>
       </c>
       <c r="M73" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74">
@@ -3952,31 +3985,31 @@
         <v>150</v>
       </c>
       <c r="E74" t="s">
-        <v>150</v>
+        <v>225</v>
       </c>
       <c r="F74" t="s">
-        <v>150</v>
+        <v>225</v>
       </c>
       <c r="G74" t="s">
-        <v>150</v>
+        <v>225</v>
       </c>
       <c r="H74" t="s">
-        <v>150</v>
+        <v>225</v>
       </c>
       <c r="I74" t="s">
-        <v>150</v>
+        <v>225</v>
       </c>
       <c r="J74" t="s">
-        <v>150</v>
+        <v>225</v>
       </c>
       <c r="K74" t="s">
-        <v>150</v>
+        <v>225</v>
       </c>
       <c r="L74" t="s">
-        <v>150</v>
+        <v>225</v>
       </c>
       <c r="M74" t="s">
-        <v>150</v>
+        <v>225</v>
       </c>
     </row>
     <row r="75">
@@ -3984,40 +4017,40 @@
         <v>85</v>
       </c>
       <c r="B75" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C75" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="D75" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="E75" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="F75" t="s">
-        <v>164</v>
+        <v>263</v>
       </c>
       <c r="G75" t="s">
-        <v>164</v>
+        <v>287</v>
       </c>
       <c r="H75" t="s">
-        <v>164</v>
+        <v>293</v>
       </c>
       <c r="I75" t="s">
-        <v>164</v>
+        <v>13</v>
       </c>
       <c r="J75" t="s">
-        <v>164</v>
+        <v>12</v>
       </c>
       <c r="K75" t="s">
-        <v>164</v>
+        <v>16</v>
       </c>
       <c r="L75" t="s">
-        <v>164</v>
+        <v>12</v>
       </c>
       <c r="M75" t="s">
-        <v>164</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76">
@@ -4025,40 +4058,40 @@
         <v>86</v>
       </c>
       <c r="B76" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C76" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D76" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="E76" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="F76" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="G76" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="H76" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="I76" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="J76" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="K76" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="L76" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="M76" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
     </row>
     <row r="77">
@@ -4066,40 +4099,40 @@
         <v>87</v>
       </c>
       <c r="B77" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C77" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D77" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E77" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="F77" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="G77" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="H77" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="I77" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="J77" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="K77" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="L77" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="M77" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
     </row>
     <row r="78">
@@ -4107,40 +4140,40 @@
         <v>88</v>
       </c>
       <c r="B78" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C78" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D78" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E78" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="F78" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="G78" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="H78" t="s">
-        <v>53</v>
+        <v>297</v>
       </c>
       <c r="I78" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="J78" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="K78" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="L78" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="M78" t="s">
-        <v>292</v>
+        <v>34</v>
       </c>
     </row>
     <row r="79">
@@ -4148,40 +4181,40 @@
         <v>89</v>
       </c>
       <c r="B79" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="C79" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="D79" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="E79" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="F79" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="G79" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="H79" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="I79" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="J79" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="K79" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="L79" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="M79" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
     </row>
     <row r="80">
@@ -4189,40 +4222,40 @@
         <v>90</v>
       </c>
       <c r="B80" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C80" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="D80" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="E80" t="s">
-        <v>218</v>
+        <v>172</v>
       </c>
       <c r="F80" t="s">
-        <v>218</v>
+        <v>172</v>
       </c>
       <c r="G80" t="s">
-        <v>218</v>
+        <v>172</v>
       </c>
       <c r="H80" t="s">
-        <v>218</v>
+        <v>172</v>
       </c>
       <c r="I80" t="s">
-        <v>218</v>
+        <v>172</v>
       </c>
       <c r="J80" t="s">
-        <v>218</v>
+        <v>172</v>
       </c>
       <c r="K80" t="s">
-        <v>218</v>
+        <v>172</v>
       </c>
       <c r="L80" t="s">
-        <v>218</v>
+        <v>172</v>
       </c>
       <c r="M80" t="s">
-        <v>218</v>
+        <v>172</v>
       </c>
     </row>
     <row r="81">
@@ -4230,40 +4263,40 @@
         <v>91</v>
       </c>
       <c r="B81" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C81" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D81" t="s">
-        <v>144</v>
+        <v>195</v>
       </c>
       <c r="E81" t="s">
-        <v>144</v>
+        <v>195</v>
       </c>
       <c r="F81" t="s">
-        <v>255</v>
+        <v>195</v>
       </c>
       <c r="G81" t="s">
-        <v>275</v>
-      </c>
-      <c r="H81" t="e">
-        <v>#N/A</v>
+        <v>195</v>
+      </c>
+      <c r="H81" t="s">
+        <v>195</v>
       </c>
       <c r="I81" t="s">
-        <v>26</v>
+        <v>195</v>
       </c>
       <c r="J81" t="s">
-        <v>21</v>
+        <v>195</v>
       </c>
       <c r="K81" t="s">
-        <v>40</v>
+        <v>195</v>
       </c>
       <c r="L81" t="s">
-        <v>13</v>
+        <v>195</v>
       </c>
       <c r="M81" t="s">
-        <v>67</v>
+        <v>195</v>
       </c>
     </row>
     <row r="82">
@@ -4271,40 +4304,40 @@
         <v>92</v>
       </c>
       <c r="B82" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C82" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D82" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E82" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="F82" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="G82" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="H82" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="I82" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="J82" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="K82" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="L82" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="M82" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
     </row>
     <row r="83">
@@ -4312,40 +4345,40 @@
         <v>93</v>
       </c>
       <c r="B83" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C83" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D83" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E83" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="F83" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="G83" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="H83" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="I83" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="J83" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="K83" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="L83" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M83" t="s">
-        <v>67</v>
+        <v>303</v>
       </c>
     </row>
     <row r="84">
@@ -4353,40 +4386,40 @@
         <v>94</v>
       </c>
       <c r="B84" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C84" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D84" t="s">
-        <v>144</v>
+        <v>196</v>
       </c>
       <c r="E84" t="s">
-        <v>144</v>
+        <v>196</v>
       </c>
       <c r="F84" t="s">
-        <v>257</v>
+        <v>196</v>
       </c>
       <c r="G84" t="s">
-        <v>275</v>
+        <v>196</v>
       </c>
       <c r="H84" t="s">
-        <v>280</v>
+        <v>196</v>
       </c>
       <c r="I84" t="s">
-        <v>26</v>
+        <v>196</v>
       </c>
       <c r="J84" t="s">
-        <v>21</v>
+        <v>196</v>
       </c>
       <c r="K84" t="s">
-        <v>40</v>
+        <v>196</v>
       </c>
       <c r="L84" t="s">
-        <v>13</v>
+        <v>196</v>
       </c>
       <c r="M84" t="s">
-        <v>67</v>
+        <v>196</v>
       </c>
     </row>
     <row r="85">
@@ -4394,40 +4427,40 @@
         <v>95</v>
       </c>
       <c r="B85" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C85" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D85" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E85" t="s">
-        <v>144</v>
+        <v>228</v>
       </c>
       <c r="F85" t="s">
-        <v>258</v>
+        <v>228</v>
       </c>
       <c r="G85" t="s">
-        <v>275</v>
+        <v>228</v>
       </c>
       <c r="H85" t="s">
-        <v>278</v>
+        <v>228</v>
       </c>
       <c r="I85" t="s">
-        <v>26</v>
+        <v>228</v>
       </c>
       <c r="J85" t="s">
-        <v>21</v>
+        <v>228</v>
       </c>
       <c r="K85" t="s">
-        <v>40</v>
+        <v>228</v>
       </c>
       <c r="L85" t="s">
-        <v>13</v>
+        <v>228</v>
       </c>
       <c r="M85" t="s">
-        <v>67</v>
+        <v>228</v>
       </c>
     </row>
     <row r="86">
@@ -4435,25 +4468,25 @@
         <v>96</v>
       </c>
       <c r="B86" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C86" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D86" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E86" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="F86" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="G86" t="s">
-        <v>275</v>
-      </c>
-      <c r="H86" t="s">
-        <v>71</v>
+        <v>287</v>
+      </c>
+      <c r="H86" t="e">
+        <v>#N/A</v>
       </c>
       <c r="I86" t="s">
         <v>26</v>
@@ -4476,40 +4509,40 @@
         <v>97</v>
       </c>
       <c r="B87" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C87" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D87" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E87" t="s">
-        <v>144</v>
+        <v>229</v>
       </c>
       <c r="F87" t="s">
-        <v>260</v>
+        <v>229</v>
       </c>
       <c r="G87" t="s">
-        <v>275</v>
+        <v>229</v>
       </c>
       <c r="H87" t="s">
-        <v>278</v>
+        <v>229</v>
       </c>
       <c r="I87" t="s">
-        <v>26</v>
+        <v>229</v>
       </c>
       <c r="J87" t="s">
-        <v>21</v>
+        <v>229</v>
       </c>
       <c r="K87" t="s">
-        <v>40</v>
+        <v>229</v>
       </c>
       <c r="L87" t="s">
-        <v>13</v>
+        <v>229</v>
       </c>
       <c r="M87" t="s">
-        <v>67</v>
+        <v>229</v>
       </c>
     </row>
     <row r="88">
@@ -4517,40 +4550,40 @@
         <v>98</v>
       </c>
       <c r="B88" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C88" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D88" t="s">
-        <v>188</v>
+        <v>150</v>
       </c>
       <c r="E88" t="s">
-        <v>188</v>
+        <v>150</v>
       </c>
       <c r="F88" t="s">
-        <v>188</v>
+        <v>267</v>
       </c>
       <c r="G88" t="s">
-        <v>188</v>
+        <v>287</v>
       </c>
       <c r="H88" t="s">
-        <v>188</v>
+        <v>22</v>
       </c>
       <c r="I88" t="s">
-        <v>188</v>
+        <v>26</v>
       </c>
       <c r="J88" t="s">
-        <v>188</v>
+        <v>21</v>
       </c>
       <c r="K88" t="s">
-        <v>188</v>
+        <v>40</v>
       </c>
       <c r="L88" t="s">
-        <v>188</v>
+        <v>13</v>
       </c>
       <c r="M88" t="s">
-        <v>188</v>
+        <v>67</v>
       </c>
     </row>
     <row r="89">
@@ -4558,40 +4591,40 @@
         <v>99</v>
       </c>
       <c r="B89" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C89" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D89" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E89" t="s">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="F89" t="s">
-        <v>220</v>
+        <v>268</v>
       </c>
       <c r="G89" t="s">
-        <v>220</v>
+        <v>287</v>
       </c>
       <c r="H89" t="s">
-        <v>220</v>
+        <v>292</v>
       </c>
       <c r="I89" t="s">
-        <v>220</v>
+        <v>26</v>
       </c>
       <c r="J89" t="s">
-        <v>220</v>
+        <v>21</v>
       </c>
       <c r="K89" t="s">
-        <v>220</v>
+        <v>40</v>
       </c>
       <c r="L89" t="s">
-        <v>220</v>
+        <v>13</v>
       </c>
       <c r="M89" t="s">
-        <v>220</v>
+        <v>67</v>
       </c>
     </row>
     <row r="90">
@@ -4599,40 +4632,40 @@
         <v>100</v>
       </c>
       <c r="B90" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C90" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D90" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E90" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="F90" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="G90" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="H90" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="I90" t="s">
-        <v>102</v>
+        <v>26</v>
       </c>
       <c r="J90" t="s">
-        <v>132</v>
+        <v>21</v>
       </c>
       <c r="K90" t="s">
-        <v>132</v>
+        <v>40</v>
       </c>
       <c r="L90" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M90" t="s">
-        <v>293</v>
+        <v>67</v>
       </c>
     </row>
     <row r="91">
@@ -4640,40 +4673,40 @@
         <v>101</v>
       </c>
       <c r="B91" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C91" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D91" t="s">
-        <v>189</v>
+        <v>150</v>
       </c>
       <c r="E91" t="s">
-        <v>189</v>
+        <v>150</v>
       </c>
       <c r="F91" t="s">
-        <v>189</v>
+        <v>270</v>
       </c>
       <c r="G91" t="s">
-        <v>189</v>
+        <v>287</v>
       </c>
       <c r="H91" t="s">
-        <v>189</v>
+        <v>71</v>
       </c>
       <c r="I91" t="s">
-        <v>189</v>
+        <v>26</v>
       </c>
       <c r="J91" t="s">
-        <v>189</v>
+        <v>21</v>
       </c>
       <c r="K91" t="s">
-        <v>189</v>
+        <v>40</v>
       </c>
       <c r="L91" t="s">
-        <v>189</v>
+        <v>13</v>
       </c>
       <c r="M91" t="s">
-        <v>189</v>
+        <v>67</v>
       </c>
     </row>
     <row r="92">
@@ -4681,40 +4714,40 @@
         <v>102</v>
       </c>
       <c r="B92" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C92" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D92" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E92" t="s">
-        <v>221</v>
+        <v>150</v>
       </c>
       <c r="F92" t="s">
-        <v>221</v>
+        <v>271</v>
       </c>
       <c r="G92" t="s">
-        <v>221</v>
+        <v>287</v>
       </c>
       <c r="H92" t="s">
-        <v>221</v>
+        <v>290</v>
       </c>
       <c r="I92" t="s">
-        <v>221</v>
+        <v>26</v>
       </c>
       <c r="J92" t="s">
-        <v>221</v>
+        <v>21</v>
       </c>
       <c r="K92" t="s">
-        <v>221</v>
+        <v>40</v>
       </c>
       <c r="L92" t="s">
-        <v>221</v>
+        <v>13</v>
       </c>
       <c r="M92" t="s">
-        <v>221</v>
+        <v>67</v>
       </c>
     </row>
     <row r="93">
@@ -4722,40 +4755,40 @@
         <v>103</v>
       </c>
       <c r="B93" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C93" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D93" t="s">
-        <v>144</v>
+        <v>197</v>
       </c>
       <c r="E93" t="s">
-        <v>144</v>
+        <v>197</v>
       </c>
       <c r="F93" t="s">
-        <v>262</v>
+        <v>197</v>
       </c>
       <c r="G93" t="s">
-        <v>275</v>
+        <v>197</v>
       </c>
       <c r="H93" t="s">
-        <v>24</v>
+        <v>197</v>
       </c>
       <c r="I93" t="s">
-        <v>23</v>
+        <v>197</v>
       </c>
       <c r="J93" t="s">
-        <v>32</v>
+        <v>197</v>
       </c>
       <c r="K93" t="s">
-        <v>32</v>
+        <v>197</v>
       </c>
       <c r="L93" t="s">
-        <v>32</v>
+        <v>197</v>
       </c>
       <c r="M93" t="s">
-        <v>86</v>
+        <v>197</v>
       </c>
     </row>
     <row r="94">
@@ -4763,40 +4796,40 @@
         <v>104</v>
       </c>
       <c r="B94" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C94" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D94" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E94" t="s">
-        <v>144</v>
+        <v>230</v>
       </c>
       <c r="F94" t="s">
-        <v>263</v>
+        <v>230</v>
       </c>
       <c r="G94" t="s">
-        <v>275</v>
+        <v>230</v>
       </c>
       <c r="H94" t="s">
-        <v>54</v>
+        <v>230</v>
       </c>
       <c r="I94" t="s">
-        <v>23</v>
+        <v>230</v>
       </c>
       <c r="J94" t="s">
-        <v>32</v>
+        <v>230</v>
       </c>
       <c r="K94" t="s">
-        <v>32</v>
+        <v>230</v>
       </c>
       <c r="L94" t="s">
-        <v>32</v>
+        <v>230</v>
       </c>
       <c r="M94" t="s">
-        <v>86</v>
+        <v>230</v>
       </c>
     </row>
     <row r="95">
@@ -4804,40 +4837,40 @@
         <v>105</v>
       </c>
       <c r="B95" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C95" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D95" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E95" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F95" t="s">
-        <v>151</v>
+        <v>272</v>
       </c>
       <c r="G95" t="s">
-        <v>151</v>
+        <v>287</v>
       </c>
       <c r="H95" t="s">
-        <v>151</v>
+        <v>292</v>
       </c>
       <c r="I95" t="s">
-        <v>151</v>
+        <v>102</v>
       </c>
       <c r="J95" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="K95" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="L95" t="s">
-        <v>151</v>
+        <v>12</v>
       </c>
       <c r="M95" t="s">
-        <v>151</v>
+        <v>304</v>
       </c>
     </row>
     <row r="96">
@@ -4845,40 +4878,40 @@
         <v>106</v>
       </c>
       <c r="B96" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C96" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="D96" t="s">
-        <v>165</v>
+        <v>198</v>
       </c>
       <c r="E96" t="s">
-        <v>165</v>
+        <v>198</v>
       </c>
       <c r="F96" t="s">
-        <v>165</v>
+        <v>198</v>
       </c>
       <c r="G96" t="s">
-        <v>165</v>
+        <v>198</v>
       </c>
       <c r="H96" t="s">
-        <v>165</v>
+        <v>198</v>
       </c>
       <c r="I96" t="s">
-        <v>165</v>
+        <v>198</v>
       </c>
       <c r="J96" t="s">
-        <v>165</v>
+        <v>198</v>
       </c>
       <c r="K96" t="s">
-        <v>165</v>
+        <v>198</v>
       </c>
       <c r="L96" t="s">
-        <v>165</v>
+        <v>198</v>
       </c>
       <c r="M96" t="s">
-        <v>165</v>
+        <v>198</v>
       </c>
     </row>
     <row r="97">
@@ -4886,40 +4919,40 @@
         <v>107</v>
       </c>
       <c r="B97" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C97" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D97" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="E97" t="s">
-        <v>190</v>
+        <v>231</v>
       </c>
       <c r="F97" t="s">
-        <v>190</v>
+        <v>231</v>
       </c>
       <c r="G97" t="s">
-        <v>190</v>
+        <v>231</v>
       </c>
       <c r="H97" t="s">
-        <v>190</v>
+        <v>231</v>
       </c>
       <c r="I97" t="s">
-        <v>190</v>
+        <v>231</v>
       </c>
       <c r="J97" t="s">
-        <v>190</v>
+        <v>231</v>
       </c>
       <c r="K97" t="s">
-        <v>190</v>
+        <v>231</v>
       </c>
       <c r="L97" t="s">
-        <v>190</v>
+        <v>231</v>
       </c>
       <c r="M97" t="s">
-        <v>190</v>
+        <v>231</v>
       </c>
     </row>
     <row r="98">
@@ -4927,40 +4960,40 @@
         <v>108</v>
       </c>
       <c r="B98" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C98" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D98" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E98" t="s">
-        <v>222</v>
+        <v>150</v>
       </c>
       <c r="F98" t="s">
-        <v>222</v>
+        <v>273</v>
       </c>
       <c r="G98" t="s">
-        <v>222</v>
+        <v>287</v>
       </c>
       <c r="H98" t="s">
-        <v>222</v>
+        <v>24</v>
       </c>
       <c r="I98" t="s">
-        <v>222</v>
+        <v>23</v>
       </c>
       <c r="J98" t="s">
-        <v>222</v>
+        <v>32</v>
       </c>
       <c r="K98" t="s">
-        <v>222</v>
+        <v>32</v>
       </c>
       <c r="L98" t="s">
-        <v>222</v>
+        <v>32</v>
       </c>
       <c r="M98" t="s">
-        <v>222</v>
+        <v>86</v>
       </c>
     </row>
     <row r="99">
@@ -4968,40 +5001,40 @@
         <v>109</v>
       </c>
       <c r="B99" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C99" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D99" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E99" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="F99" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="G99" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="H99" t="s">
-        <v>280</v>
+        <v>54</v>
       </c>
       <c r="I99" t="s">
-        <v>287</v>
+        <v>23</v>
       </c>
       <c r="J99" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="K99" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="L99" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="M99" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
     </row>
     <row r="100">
@@ -5009,40 +5042,40 @@
         <v>110</v>
       </c>
       <c r="B100" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C100" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="D100" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="E100" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="F100" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G100" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="H100" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="I100" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="J100" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="K100" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="L100" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="M100" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="101">
@@ -5050,40 +5083,40 @@
         <v>111</v>
       </c>
       <c r="B101" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C101" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="D101" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="E101" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="F101" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="G101" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="H101" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="I101" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="J101" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="K101" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="L101" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="M101" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
     </row>
     <row r="102">
@@ -5091,40 +5124,40 @@
         <v>112</v>
       </c>
       <c r="B102" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C102" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D102" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="E102" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="F102" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G102" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="H102" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="I102" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="J102" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="K102" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="L102" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="M102" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
     </row>
     <row r="103">
@@ -5132,40 +5165,40 @@
         <v>113</v>
       </c>
       <c r="B103" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C103" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D103" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E103" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="F103" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="G103" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="H103" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="I103" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="J103" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="K103" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="L103" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="M103" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
     </row>
     <row r="104">
@@ -5173,40 +5206,40 @@
         <v>114</v>
       </c>
       <c r="B104" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C104" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D104" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E104" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="F104" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="G104" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="H104" t="s">
-        <v>37</v>
+        <v>292</v>
       </c>
       <c r="I104" t="s">
-        <v>35</v>
+        <v>299</v>
       </c>
       <c r="J104" t="s">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="K104" t="s">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="L104" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="M104" t="s">
-        <v>294</v>
+        <v>14</v>
       </c>
     </row>
     <row r="105">
@@ -5214,40 +5247,40 @@
         <v>115</v>
       </c>
       <c r="B105" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="C105" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="D105" t="s">
-        <v>192</v>
+        <v>159</v>
       </c>
       <c r="E105" t="s">
-        <v>192</v>
+        <v>159</v>
       </c>
       <c r="F105" t="s">
-        <v>192</v>
+        <v>159</v>
       </c>
       <c r="G105" t="s">
-        <v>192</v>
+        <v>159</v>
       </c>
       <c r="H105" t="s">
-        <v>192</v>
+        <v>159</v>
       </c>
       <c r="I105" t="s">
-        <v>192</v>
+        <v>159</v>
       </c>
       <c r="J105" t="s">
-        <v>192</v>
+        <v>159</v>
       </c>
       <c r="K105" t="s">
-        <v>192</v>
+        <v>159</v>
       </c>
       <c r="L105" t="s">
-        <v>192</v>
+        <v>159</v>
       </c>
       <c r="M105" t="s">
-        <v>192</v>
+        <v>159</v>
       </c>
     </row>
     <row r="106">
@@ -5255,40 +5288,40 @@
         <v>116</v>
       </c>
       <c r="B106" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C106" t="s">
-        <v>144</v>
+        <v>174</v>
       </c>
       <c r="D106" t="s">
-        <v>144</v>
+        <v>174</v>
       </c>
       <c r="E106" t="s">
-        <v>224</v>
+        <v>174</v>
       </c>
       <c r="F106" t="s">
-        <v>224</v>
+        <v>174</v>
       </c>
       <c r="G106" t="s">
-        <v>224</v>
+        <v>174</v>
       </c>
       <c r="H106" t="s">
-        <v>224</v>
+        <v>174</v>
       </c>
       <c r="I106" t="s">
-        <v>224</v>
+        <v>174</v>
       </c>
       <c r="J106" t="s">
-        <v>224</v>
+        <v>174</v>
       </c>
       <c r="K106" t="s">
-        <v>224</v>
+        <v>174</v>
       </c>
       <c r="L106" t="s">
-        <v>224</v>
+        <v>174</v>
       </c>
       <c r="M106" t="s">
-        <v>224</v>
+        <v>174</v>
       </c>
     </row>
     <row r="107">
@@ -5296,40 +5329,40 @@
         <v>117</v>
       </c>
       <c r="B107" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C107" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D107" t="s">
-        <v>144</v>
+        <v>200</v>
       </c>
       <c r="E107" t="s">
-        <v>144</v>
+        <v>200</v>
       </c>
       <c r="F107" t="s">
-        <v>266</v>
+        <v>200</v>
       </c>
       <c r="G107" t="s">
-        <v>275</v>
+        <v>200</v>
       </c>
       <c r="H107" t="s">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="I107" t="s">
-        <v>39</v>
+        <v>200</v>
       </c>
       <c r="J107" t="s">
-        <v>44</v>
+        <v>200</v>
       </c>
       <c r="K107" t="s">
-        <v>44</v>
+        <v>200</v>
       </c>
       <c r="L107" t="s">
-        <v>44</v>
+        <v>200</v>
       </c>
       <c r="M107" t="s">
-        <v>138</v>
+        <v>200</v>
       </c>
     </row>
     <row r="108">
@@ -5337,40 +5370,40 @@
         <v>118</v>
       </c>
       <c r="B108" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C108" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="D108" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="E108" t="s">
-        <v>167</v>
+        <v>233</v>
       </c>
       <c r="F108" t="s">
-        <v>167</v>
+        <v>233</v>
       </c>
       <c r="G108" t="s">
-        <v>167</v>
+        <v>233</v>
       </c>
       <c r="H108" t="s">
-        <v>167</v>
+        <v>233</v>
       </c>
       <c r="I108" t="s">
-        <v>167</v>
+        <v>233</v>
       </c>
       <c r="J108" t="s">
-        <v>167</v>
+        <v>233</v>
       </c>
       <c r="K108" t="s">
-        <v>167</v>
+        <v>233</v>
       </c>
       <c r="L108" t="s">
-        <v>167</v>
+        <v>233</v>
       </c>
       <c r="M108" t="s">
-        <v>167</v>
+        <v>233</v>
       </c>
     </row>
     <row r="109">
@@ -5378,40 +5411,40 @@
         <v>119</v>
       </c>
       <c r="B109" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C109" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D109" t="s">
-        <v>193</v>
+        <v>150</v>
       </c>
       <c r="E109" t="s">
-        <v>193</v>
+        <v>150</v>
       </c>
       <c r="F109" t="s">
-        <v>193</v>
+        <v>276</v>
       </c>
       <c r="G109" t="s">
-        <v>193</v>
+        <v>287</v>
       </c>
       <c r="H109" t="s">
-        <v>193</v>
+        <v>37</v>
       </c>
       <c r="I109" t="s">
-        <v>193</v>
+        <v>35</v>
       </c>
       <c r="J109" t="s">
-        <v>193</v>
+        <v>77</v>
       </c>
       <c r="K109" t="s">
-        <v>193</v>
+        <v>77</v>
       </c>
       <c r="L109" t="s">
-        <v>193</v>
+        <v>75</v>
       </c>
       <c r="M109" t="s">
-        <v>193</v>
+        <v>305</v>
       </c>
     </row>
     <row r="110">
@@ -5419,40 +5452,40 @@
         <v>120</v>
       </c>
       <c r="B110" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C110" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D110" t="s">
-        <v>144</v>
+        <v>201</v>
       </c>
       <c r="E110" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="F110" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="G110" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="H110" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="I110" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="J110" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="K110" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="L110" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="M110" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
     </row>
     <row r="111">
@@ -5460,40 +5493,40 @@
         <v>121</v>
       </c>
       <c r="B111" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C111" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D111" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E111" t="s">
-        <v>144</v>
+        <v>234</v>
       </c>
       <c r="F111" t="s">
-        <v>267</v>
+        <v>234</v>
       </c>
       <c r="G111" t="s">
-        <v>275</v>
+        <v>234</v>
       </c>
       <c r="H111" t="s">
-        <v>278</v>
+        <v>234</v>
       </c>
       <c r="I111" t="s">
-        <v>13</v>
+        <v>234</v>
       </c>
       <c r="J111" t="s">
-        <v>14</v>
+        <v>234</v>
       </c>
       <c r="K111" t="s">
-        <v>14</v>
+        <v>234</v>
       </c>
       <c r="L111" t="s">
-        <v>12</v>
+        <v>234</v>
       </c>
       <c r="M111" t="s">
-        <v>20</v>
+        <v>234</v>
       </c>
     </row>
     <row r="112">
@@ -5501,40 +5534,40 @@
         <v>122</v>
       </c>
       <c r="B112" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C112" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D112" t="s">
-        <v>194</v>
+        <v>150</v>
       </c>
       <c r="E112" t="s">
-        <v>194</v>
+        <v>150</v>
       </c>
       <c r="F112" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="G112" t="s">
-        <v>194</v>
+        <v>287</v>
       </c>
       <c r="H112" t="s">
-        <v>194</v>
+        <v>292</v>
       </c>
       <c r="I112" t="s">
-        <v>194</v>
+        <v>39</v>
       </c>
       <c r="J112" t="s">
-        <v>194</v>
+        <v>44</v>
       </c>
       <c r="K112" t="s">
-        <v>194</v>
+        <v>44</v>
       </c>
       <c r="L112" t="s">
-        <v>194</v>
+        <v>44</v>
       </c>
       <c r="M112" t="s">
-        <v>194</v>
+        <v>138</v>
       </c>
     </row>
     <row r="113">
@@ -5542,40 +5575,40 @@
         <v>123</v>
       </c>
       <c r="B113" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C113" t="s">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="D113" t="s">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="E113" t="s">
-        <v>226</v>
+        <v>175</v>
       </c>
       <c r="F113" t="s">
-        <v>226</v>
+        <v>175</v>
       </c>
       <c r="G113" t="s">
-        <v>226</v>
+        <v>175</v>
       </c>
       <c r="H113" t="s">
-        <v>226</v>
+        <v>175</v>
       </c>
       <c r="I113" t="s">
-        <v>226</v>
+        <v>175</v>
       </c>
       <c r="J113" t="s">
-        <v>226</v>
+        <v>175</v>
       </c>
       <c r="K113" t="s">
-        <v>226</v>
+        <v>175</v>
       </c>
       <c r="L113" t="s">
-        <v>226</v>
+        <v>175</v>
       </c>
       <c r="M113" t="s">
-        <v>226</v>
+        <v>175</v>
       </c>
     </row>
     <row r="114">
@@ -5583,40 +5616,40 @@
         <v>124</v>
       </c>
       <c r="B114" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C114" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D114" t="s">
-        <v>144</v>
+        <v>202</v>
       </c>
       <c r="E114" t="s">
-        <v>144</v>
+        <v>202</v>
       </c>
       <c r="F114" t="s">
-        <v>268</v>
+        <v>202</v>
       </c>
       <c r="G114" t="s">
-        <v>275</v>
+        <v>202</v>
       </c>
       <c r="H114" t="s">
-        <v>280</v>
+        <v>202</v>
       </c>
       <c r="I114" t="s">
-        <v>21</v>
+        <v>202</v>
       </c>
       <c r="J114" t="s">
-        <v>19</v>
+        <v>202</v>
       </c>
       <c r="K114" t="s">
-        <v>40</v>
+        <v>202</v>
       </c>
       <c r="L114" t="s">
-        <v>18</v>
+        <v>202</v>
       </c>
       <c r="M114" t="s">
-        <v>65</v>
+        <v>202</v>
       </c>
     </row>
     <row r="115">
@@ -5624,40 +5657,40 @@
         <v>125</v>
       </c>
       <c r="B115" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C115" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D115" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E115" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="F115" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="G115" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="H115" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="I115" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="J115" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="K115" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="L115" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="M115" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
     </row>
     <row r="116">
@@ -5665,40 +5698,40 @@
         <v>126</v>
       </c>
       <c r="B116" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C116" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D116" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E116" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="F116" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="G116" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="H116" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="I116" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J116" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="K116" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="L116" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="M116" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
     </row>
     <row r="117">
@@ -5706,40 +5739,40 @@
         <v>127</v>
       </c>
       <c r="B117" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C117" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="D117" t="s">
-        <v>168</v>
+        <v>203</v>
       </c>
       <c r="E117" t="s">
-        <v>168</v>
+        <v>203</v>
       </c>
       <c r="F117" t="s">
-        <v>168</v>
+        <v>203</v>
       </c>
       <c r="G117" t="s">
-        <v>168</v>
+        <v>203</v>
       </c>
       <c r="H117" t="s">
-        <v>168</v>
+        <v>203</v>
       </c>
       <c r="I117" t="s">
-        <v>168</v>
+        <v>203</v>
       </c>
       <c r="J117" t="s">
-        <v>168</v>
+        <v>203</v>
       </c>
       <c r="K117" t="s">
-        <v>168</v>
+        <v>203</v>
       </c>
       <c r="L117" t="s">
-        <v>168</v>
+        <v>203</v>
       </c>
       <c r="M117" t="s">
-        <v>168</v>
+        <v>203</v>
       </c>
     </row>
     <row r="118">
@@ -5747,40 +5780,40 @@
         <v>128</v>
       </c>
       <c r="B118" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C118" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D118" t="s">
-        <v>195</v>
+        <v>150</v>
       </c>
       <c r="E118" t="s">
-        <v>195</v>
+        <v>236</v>
       </c>
       <c r="F118" t="s">
-        <v>195</v>
+        <v>236</v>
       </c>
       <c r="G118" t="s">
-        <v>195</v>
+        <v>236</v>
       </c>
       <c r="H118" t="s">
-        <v>195</v>
+        <v>236</v>
       </c>
       <c r="I118" t="s">
-        <v>195</v>
+        <v>236</v>
       </c>
       <c r="J118" t="s">
-        <v>195</v>
+        <v>236</v>
       </c>
       <c r="K118" t="s">
-        <v>195</v>
+        <v>236</v>
       </c>
       <c r="L118" t="s">
-        <v>195</v>
+        <v>236</v>
       </c>
       <c r="M118" t="s">
-        <v>195</v>
+        <v>236</v>
       </c>
     </row>
     <row r="119">
@@ -5788,40 +5821,40 @@
         <v>129</v>
       </c>
       <c r="B119" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C119" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D119" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E119" t="s">
-        <v>228</v>
+        <v>150</v>
       </c>
       <c r="F119" t="s">
-        <v>228</v>
+        <v>279</v>
       </c>
       <c r="G119" t="s">
-        <v>228</v>
+        <v>287</v>
       </c>
       <c r="H119" t="s">
-        <v>228</v>
+        <v>292</v>
       </c>
       <c r="I119" t="s">
-        <v>228</v>
+        <v>21</v>
       </c>
       <c r="J119" t="s">
-        <v>228</v>
+        <v>19</v>
       </c>
       <c r="K119" t="s">
-        <v>228</v>
+        <v>40</v>
       </c>
       <c r="L119" t="s">
-        <v>228</v>
+        <v>18</v>
       </c>
       <c r="M119" t="s">
-        <v>228</v>
+        <v>65</v>
       </c>
     </row>
     <row r="120">
@@ -5829,40 +5862,40 @@
         <v>130</v>
       </c>
       <c r="B120" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C120" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D120" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E120" t="s">
-        <v>144</v>
+        <v>237</v>
       </c>
       <c r="F120" t="s">
-        <v>270</v>
+        <v>237</v>
       </c>
       <c r="G120" t="s">
-        <v>276</v>
+        <v>237</v>
       </c>
       <c r="H120" t="s">
-        <v>280</v>
+        <v>237</v>
       </c>
       <c r="I120" t="s">
-        <v>287</v>
+        <v>237</v>
       </c>
       <c r="J120" t="s">
-        <v>18</v>
+        <v>237</v>
       </c>
       <c r="K120" t="s">
-        <v>18</v>
+        <v>237</v>
       </c>
       <c r="L120" t="s">
-        <v>12</v>
+        <v>237</v>
       </c>
       <c r="M120" t="s">
-        <v>26</v>
+        <v>237</v>
       </c>
     </row>
     <row r="121">
@@ -5870,40 +5903,40 @@
         <v>131</v>
       </c>
       <c r="B121" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C121" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D121" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E121" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="F121" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="G121" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="H121" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
       <c r="I121" t="s">
-        <v>287</v>
+        <v>21</v>
       </c>
       <c r="J121" t="s">
+        <v>19</v>
+      </c>
+      <c r="K121" t="s">
+        <v>40</v>
+      </c>
+      <c r="L121" t="s">
         <v>18</v>
       </c>
-      <c r="K121" t="s">
-        <v>18</v>
-      </c>
-      <c r="L121" t="s">
-        <v>12</v>
-      </c>
       <c r="M121" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
     </row>
     <row r="122">
@@ -5911,40 +5944,40 @@
         <v>132</v>
       </c>
       <c r="B122" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C122" t="s">
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="D122" t="s">
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="E122" t="s">
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="F122" t="s">
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="G122" t="s">
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="H122" t="s">
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="I122" t="s">
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="J122" t="s">
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="K122" t="s">
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="L122" t="s">
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="M122" t="s">
-        <v>153</v>
+        <v>176</v>
       </c>
     </row>
     <row r="123">
@@ -5952,40 +5985,40 @@
         <v>133</v>
       </c>
       <c r="B123" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C123" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="D123" t="s">
-        <v>169</v>
+        <v>204</v>
       </c>
       <c r="E123" t="s">
-        <v>169</v>
+        <v>204</v>
       </c>
       <c r="F123" t="s">
-        <v>169</v>
+        <v>204</v>
       </c>
       <c r="G123" t="s">
-        <v>169</v>
+        <v>204</v>
       </c>
       <c r="H123" t="s">
-        <v>169</v>
+        <v>204</v>
       </c>
       <c r="I123" t="s">
-        <v>169</v>
+        <v>204</v>
       </c>
       <c r="J123" t="s">
-        <v>169</v>
+        <v>204</v>
       </c>
       <c r="K123" t="s">
-        <v>169</v>
+        <v>204</v>
       </c>
       <c r="L123" t="s">
-        <v>169</v>
+        <v>204</v>
       </c>
       <c r="M123" t="s">
-        <v>169</v>
+        <v>204</v>
       </c>
     </row>
     <row r="124">
@@ -5993,40 +6026,40 @@
         <v>134</v>
       </c>
       <c r="B124" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C124" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D124" t="s">
-        <v>196</v>
+        <v>150</v>
       </c>
       <c r="E124" t="s">
-        <v>196</v>
+        <v>238</v>
       </c>
       <c r="F124" t="s">
-        <v>196</v>
+        <v>238</v>
       </c>
       <c r="G124" t="s">
-        <v>196</v>
+        <v>238</v>
       </c>
       <c r="H124" t="s">
-        <v>196</v>
+        <v>238</v>
       </c>
       <c r="I124" t="s">
-        <v>196</v>
+        <v>238</v>
       </c>
       <c r="J124" t="s">
-        <v>196</v>
+        <v>238</v>
       </c>
       <c r="K124" t="s">
-        <v>196</v>
+        <v>238</v>
       </c>
       <c r="L124" t="s">
-        <v>196</v>
+        <v>238</v>
       </c>
       <c r="M124" t="s">
-        <v>196</v>
+        <v>238</v>
       </c>
     </row>
     <row r="125">
@@ -6034,40 +6067,40 @@
         <v>135</v>
       </c>
       <c r="B125" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C125" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D125" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E125" t="s">
-        <v>229</v>
+        <v>150</v>
       </c>
       <c r="F125" t="s">
-        <v>229</v>
+        <v>281</v>
       </c>
       <c r="G125" t="s">
-        <v>229</v>
-      </c>
-      <c r="H125" t="s">
-        <v>229</v>
-      </c>
-      <c r="I125" t="s">
-        <v>229</v>
-      </c>
-      <c r="J125" t="s">
-        <v>229</v>
-      </c>
-      <c r="K125" t="s">
-        <v>229</v>
-      </c>
-      <c r="L125" t="s">
-        <v>229</v>
-      </c>
-      <c r="M125" t="s">
-        <v>229</v>
+        <v>287</v>
+      </c>
+      <c r="H125" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I125" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J125" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K125" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L125" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M125" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="126">
@@ -6075,40 +6108,40 @@
         <v>136</v>
       </c>
       <c r="B126" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C126" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D126" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E126" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="F126" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="G126" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="H126" t="s">
-        <v>23</v>
+        <v>292</v>
       </c>
       <c r="I126" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="J126" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="K126" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="L126" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M126" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="127">
@@ -6116,40 +6149,40 @@
         <v>137</v>
       </c>
       <c r="B127" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C127" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D127" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E127" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F127" t="s">
-        <v>154</v>
+        <v>283</v>
       </c>
       <c r="G127" t="s">
-        <v>154</v>
+        <v>287</v>
       </c>
       <c r="H127" t="s">
-        <v>154</v>
+        <v>296</v>
       </c>
       <c r="I127" t="s">
-        <v>154</v>
+        <v>299</v>
       </c>
       <c r="J127" t="s">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="K127" t="s">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="L127" t="s">
-        <v>154</v>
+        <v>12</v>
       </c>
       <c r="M127" t="s">
-        <v>154</v>
+        <v>26</v>
       </c>
     </row>
     <row r="128">
@@ -6157,40 +6190,40 @@
         <v>138</v>
       </c>
       <c r="B128" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="C128" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="D128" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="E128" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="F128" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="G128" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="H128" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="I128" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="J128" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="K128" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="L128" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="M128" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="129">
@@ -6198,40 +6231,40 @@
         <v>139</v>
       </c>
       <c r="B129" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C129" t="s">
-        <v>144</v>
+        <v>177</v>
       </c>
       <c r="D129" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="E129" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="F129" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="G129" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="H129" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="I129" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="J129" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="K129" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="L129" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="M129" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
     </row>
     <row r="130">
@@ -6239,40 +6272,40 @@
         <v>140</v>
       </c>
       <c r="B130" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C130" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D130" t="s">
-        <v>144</v>
+        <v>205</v>
       </c>
       <c r="E130" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
       <c r="F130" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
       <c r="G130" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
       <c r="H130" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
       <c r="I130" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
       <c r="J130" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
       <c r="K130" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
       <c r="L130" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
       <c r="M130" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
     </row>
     <row r="131">
@@ -6280,40 +6313,40 @@
         <v>141</v>
       </c>
       <c r="B131" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C131" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D131" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E131" t="s">
-        <v>144</v>
+        <v>239</v>
       </c>
       <c r="F131" t="s">
-        <v>273</v>
+        <v>239</v>
       </c>
       <c r="G131" t="s">
-        <v>275</v>
+        <v>239</v>
       </c>
       <c r="H131" t="s">
-        <v>35</v>
+        <v>239</v>
       </c>
       <c r="I131" t="s">
-        <v>14</v>
+        <v>239</v>
       </c>
       <c r="J131" t="s">
-        <v>21</v>
+        <v>239</v>
       </c>
       <c r="K131" t="s">
-        <v>21</v>
+        <v>239</v>
       </c>
       <c r="L131" t="s">
-        <v>20</v>
+        <v>239</v>
       </c>
       <c r="M131" t="s">
-        <v>43</v>
+        <v>239</v>
       </c>
     </row>
     <row r="132">
@@ -6321,39 +6354,285 @@
         <v>142</v>
       </c>
       <c r="B132" t="s">
+        <v>150</v>
+      </c>
+      <c r="C132" t="s">
+        <v>150</v>
+      </c>
+      <c r="D132" t="s">
+        <v>150</v>
+      </c>
+      <c r="E132" t="s">
+        <v>150</v>
+      </c>
+      <c r="F132" t="s">
+        <v>284</v>
+      </c>
+      <c r="G132" t="s">
+        <v>287</v>
+      </c>
+      <c r="H132" t="s">
+        <v>23</v>
+      </c>
+      <c r="I132" t="s">
+        <v>299</v>
+      </c>
+      <c r="J132" t="s">
+        <v>13</v>
+      </c>
+      <c r="K132" t="s">
+        <v>13</v>
+      </c>
+      <c r="L132" t="s">
+        <v>13</v>
+      </c>
+      <c r="M132" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>143</v>
+      </c>
+      <c r="B133" t="s">
+        <v>161</v>
+      </c>
+      <c r="C133" t="s">
+        <v>161</v>
+      </c>
+      <c r="D133" t="s">
+        <v>161</v>
+      </c>
+      <c r="E133" t="s">
+        <v>161</v>
+      </c>
+      <c r="F133" t="s">
+        <v>161</v>
+      </c>
+      <c r="G133" t="s">
+        <v>161</v>
+      </c>
+      <c r="H133" t="s">
+        <v>161</v>
+      </c>
+      <c r="I133" t="s">
+        <v>161</v>
+      </c>
+      <c r="J133" t="s">
+        <v>161</v>
+      </c>
+      <c r="K133" t="s">
+        <v>161</v>
+      </c>
+      <c r="L133" t="s">
+        <v>161</v>
+      </c>
+      <c r="M133" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
         <v>144</v>
       </c>
-      <c r="C132" t="s">
-        <v>144</v>
-      </c>
-      <c r="D132" t="s">
-        <v>144</v>
-      </c>
-      <c r="E132" t="s">
-        <v>144</v>
-      </c>
-      <c r="F132" t="s">
-        <v>274</v>
-      </c>
-      <c r="G132" t="s">
-        <v>275</v>
-      </c>
-      <c r="H132" t="s">
+      <c r="B134" t="s">
+        <v>150</v>
+      </c>
+      <c r="C134" t="s">
+        <v>178</v>
+      </c>
+      <c r="D134" t="s">
+        <v>178</v>
+      </c>
+      <c r="E134" t="s">
+        <v>178</v>
+      </c>
+      <c r="F134" t="s">
+        <v>178</v>
+      </c>
+      <c r="G134" t="s">
+        <v>178</v>
+      </c>
+      <c r="H134" t="s">
+        <v>178</v>
+      </c>
+      <c r="I134" t="s">
+        <v>178</v>
+      </c>
+      <c r="J134" t="s">
+        <v>178</v>
+      </c>
+      <c r="K134" t="s">
+        <v>178</v>
+      </c>
+      <c r="L134" t="s">
+        <v>178</v>
+      </c>
+      <c r="M134" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>145</v>
+      </c>
+      <c r="B135" t="s">
+        <v>150</v>
+      </c>
+      <c r="C135" t="s">
+        <v>150</v>
+      </c>
+      <c r="D135" t="s">
+        <v>206</v>
+      </c>
+      <c r="E135" t="s">
+        <v>206</v>
+      </c>
+      <c r="F135" t="s">
+        <v>206</v>
+      </c>
+      <c r="G135" t="s">
+        <v>206</v>
+      </c>
+      <c r="H135" t="s">
+        <v>206</v>
+      </c>
+      <c r="I135" t="s">
+        <v>206</v>
+      </c>
+      <c r="J135" t="s">
+        <v>206</v>
+      </c>
+      <c r="K135" t="s">
+        <v>206</v>
+      </c>
+      <c r="L135" t="s">
+        <v>206</v>
+      </c>
+      <c r="M135" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>146</v>
+      </c>
+      <c r="B136" t="s">
+        <v>150</v>
+      </c>
+      <c r="C136" t="s">
+        <v>150</v>
+      </c>
+      <c r="D136" t="s">
+        <v>150</v>
+      </c>
+      <c r="E136" t="s">
+        <v>240</v>
+      </c>
+      <c r="F136" t="s">
+        <v>240</v>
+      </c>
+      <c r="G136" t="s">
+        <v>240</v>
+      </c>
+      <c r="H136" t="s">
+        <v>240</v>
+      </c>
+      <c r="I136" t="s">
+        <v>240</v>
+      </c>
+      <c r="J136" t="s">
+        <v>240</v>
+      </c>
+      <c r="K136" t="s">
+        <v>240</v>
+      </c>
+      <c r="L136" t="s">
+        <v>240</v>
+      </c>
+      <c r="M136" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>147</v>
+      </c>
+      <c r="B137" t="s">
+        <v>150</v>
+      </c>
+      <c r="C137" t="s">
+        <v>150</v>
+      </c>
+      <c r="D137" t="s">
+        <v>150</v>
+      </c>
+      <c r="E137" t="s">
+        <v>150</v>
+      </c>
+      <c r="F137" t="s">
+        <v>285</v>
+      </c>
+      <c r="G137" t="s">
+        <v>287</v>
+      </c>
+      <c r="H137" t="s">
+        <v>35</v>
+      </c>
+      <c r="I137" t="s">
+        <v>14</v>
+      </c>
+      <c r="J137" t="s">
+        <v>21</v>
+      </c>
+      <c r="K137" t="s">
+        <v>21</v>
+      </c>
+      <c r="L137" t="s">
+        <v>20</v>
+      </c>
+      <c r="M137" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>148</v>
+      </c>
+      <c r="B138" t="s">
+        <v>150</v>
+      </c>
+      <c r="C138" t="s">
+        <v>150</v>
+      </c>
+      <c r="D138" t="s">
+        <v>150</v>
+      </c>
+      <c r="E138" t="s">
+        <v>150</v>
+      </c>
+      <c r="F138" t="s">
+        <v>286</v>
+      </c>
+      <c r="G138" t="s">
+        <v>287</v>
+      </c>
+      <c r="H138" t="s">
         <v>87</v>
       </c>
-      <c r="I132" t="s">
+      <c r="I138" t="s">
         <v>14</v>
       </c>
-      <c r="J132" t="s">
+      <c r="J138" t="s">
         <v>21</v>
       </c>
-      <c r="K132" t="s">
+      <c r="K138" t="s">
         <v>21</v>
       </c>
-      <c r="L132" t="s">
+      <c r="L138" t="s">
         <v>20</v>
       </c>
-      <c r="M132" t="s">
+      <c r="M138" t="s">
         <v>43</v>
       </c>
     </row>

--- a/output10_species_priority_table/Table11_v02_NIS_priority_indented.xlsx
+++ b/output10_species_priority_table/Table11_v02_NIS_priority_indented.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1779" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1643" uniqueCount="299">
   <si>
     <t>Phyl</t>
   </si>
@@ -47,9 +47,6 @@
     <t>mSg</t>
   </si>
   <si>
-    <t>PN</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -912,24 +909,6 @@
   </si>
   <si>
     <t>0</t>
-  </si>
-  <si>
-    <t>205</t>
-  </si>
-  <si>
-    <t>157</t>
-  </si>
-  <si>
-    <t>212</t>
-  </si>
-  <si>
-    <t>229</t>
-  </si>
-  <si>
-    <t>334</t>
-  </si>
-  <si>
-    <t>220</t>
   </si>
 </sst>
 </file>
@@ -1015,2122 +994,1966 @@
       <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L2" t="s">
-        <v>149</v>
-      </c>
-      <c r="M2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L3" t="s">
-        <v>162</v>
-      </c>
-      <c r="M3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L4" t="s">
-        <v>179</v>
-      </c>
-      <c r="M4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L5" t="s">
-        <v>207</v>
-      </c>
-      <c r="M5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L6" t="s">
-        <v>13</v>
-      </c>
-      <c r="M6" t="s">
-        <v>144</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L7" t="s">
-        <v>180</v>
-      </c>
-      <c r="M7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L8" t="s">
-        <v>208</v>
-      </c>
-      <c r="M8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L9" t="s">
-        <v>13</v>
-      </c>
-      <c r="M9" t="s">
-        <v>300</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L10" t="s">
-        <v>13</v>
-      </c>
-      <c r="M10" t="s">
-        <v>300</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F11" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L11" t="s">
-        <v>13</v>
-      </c>
-      <c r="M11" t="s">
-        <v>300</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L12" t="s">
-        <v>151</v>
-      </c>
-      <c r="M12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L13" t="s">
-        <v>163</v>
-      </c>
-      <c r="M13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L14" t="s">
-        <v>181</v>
-      </c>
-      <c r="M14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L15" t="s">
-        <v>209</v>
-      </c>
-      <c r="M15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F16" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G16" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L16" t="s">
-        <v>14</v>
-      </c>
-      <c r="M16" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L17" t="s">
-        <v>164</v>
-      </c>
-      <c r="M17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L18" t="s">
-        <v>182</v>
-      </c>
-      <c r="M18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L19" t="s">
-        <v>210</v>
-      </c>
-      <c r="M19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F20" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G20" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H20" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L20" t="s">
-        <v>33</v>
-      </c>
-      <c r="M20" t="s">
-        <v>301</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E21" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F21" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G21" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H21" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I21" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J21" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K21" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L21" t="s">
-        <v>211</v>
-      </c>
-      <c r="M21" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" t="s">
+        <v>149</v>
+      </c>
+      <c r="C22" t="s">
+        <v>149</v>
+      </c>
+      <c r="D22" t="s">
+        <v>149</v>
+      </c>
+      <c r="E22" t="s">
+        <v>149</v>
+      </c>
+      <c r="F22" t="s">
+        <v>246</v>
+      </c>
+      <c r="G22" t="s">
+        <v>287</v>
+      </c>
+      <c r="H22" t="s">
         <v>32</v>
       </c>
-      <c r="B22" t="s">
-        <v>150</v>
-      </c>
-      <c r="C22" t="s">
-        <v>150</v>
-      </c>
-      <c r="D22" t="s">
-        <v>150</v>
-      </c>
-      <c r="E22" t="s">
-        <v>150</v>
-      </c>
-      <c r="F22" t="s">
-        <v>247</v>
-      </c>
-      <c r="G22" t="s">
-        <v>288</v>
-      </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
+        <v>45</v>
+      </c>
+      <c r="J22" t="s">
         <v>33</v>
       </c>
-      <c r="I22" t="s">
-        <v>46</v>
-      </c>
-      <c r="J22" t="s">
-        <v>34</v>
-      </c>
       <c r="K22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L22" t="s">
-        <v>33</v>
-      </c>
-      <c r="M22" t="s">
-        <v>301</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C23" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D23" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L23" t="s">
-        <v>212</v>
-      </c>
-      <c r="M23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B24" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C24" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D24" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E24" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F24" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G24" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L24" t="s">
-        <v>33</v>
-      </c>
-      <c r="M24" t="s">
-        <v>301</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L25" t="s">
-        <v>152</v>
-      </c>
-      <c r="M25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C26" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D26" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E26" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F26" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G26" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H26" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I26" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J26" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K26" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L26" t="s">
-        <v>165</v>
-      </c>
-      <c r="M26" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D27" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E27" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F27" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G27" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H27" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I27" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J27" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K27" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L27" t="s">
-        <v>183</v>
-      </c>
-      <c r="M27" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E28" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F28" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G28" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H28" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I28" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J28" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K28" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L28" t="s">
-        <v>213</v>
-      </c>
-      <c r="M28" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F29" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G29" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H29" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L29" t="s">
-        <v>24</v>
-      </c>
-      <c r="M29" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B30" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C30" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D30" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E30" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F30" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G30" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H30" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I30" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J30" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K30" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L30" t="s">
-        <v>153</v>
-      </c>
-      <c r="M30" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B31" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C31" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D31" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E31" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F31" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G31" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H31" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I31" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J31" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K31" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L31" t="s">
-        <v>166</v>
-      </c>
-      <c r="M31" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B32" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C32" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D32" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E32" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F32" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G32" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H32" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I32" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J32" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K32" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L32" t="s">
-        <v>184</v>
-      </c>
-      <c r="M32" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E33" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F33" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G33" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H33" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I33" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J33" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K33" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L33" t="s">
-        <v>214</v>
-      </c>
-      <c r="M33" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B34" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C34" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D34" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E34" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F34" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G34" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H34" t="e">
         <v>#N/A</v>
       </c>
       <c r="I34" t="s">
+        <v>11</v>
+      </c>
+      <c r="J34" t="s">
+        <v>13</v>
+      </c>
+      <c r="K34" t="s">
+        <v>13</v>
+      </c>
+      <c r="L34" t="s">
         <v>12</v>
-      </c>
-      <c r="J34" t="s">
-        <v>14</v>
-      </c>
-      <c r="K34" t="s">
-        <v>14</v>
-      </c>
-      <c r="L34" t="s">
-        <v>13</v>
-      </c>
-      <c r="M34" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B35" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C35" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D35" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E35" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F35" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G35" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H35" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I35" t="s">
+        <v>11</v>
+      </c>
+      <c r="J35" t="s">
+        <v>13</v>
+      </c>
+      <c r="K35" t="s">
+        <v>13</v>
+      </c>
+      <c r="L35" t="s">
         <v>12</v>
-      </c>
-      <c r="J35" t="s">
-        <v>14</v>
-      </c>
-      <c r="K35" t="s">
-        <v>14</v>
-      </c>
-      <c r="L35" t="s">
-        <v>13</v>
-      </c>
-      <c r="M35" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B36" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C36" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D36" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E36" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F36" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G36" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H36" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I36" t="s">
+        <v>11</v>
+      </c>
+      <c r="J36" t="s">
+        <v>13</v>
+      </c>
+      <c r="K36" t="s">
+        <v>13</v>
+      </c>
+      <c r="L36" t="s">
         <v>12</v>
-      </c>
-      <c r="J36" t="s">
-        <v>14</v>
-      </c>
-      <c r="K36" t="s">
-        <v>14</v>
-      </c>
-      <c r="L36" t="s">
-        <v>13</v>
-      </c>
-      <c r="M36" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B37" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C37" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D37" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E37" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F37" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G37" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H37" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I37" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J37" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K37" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L37" t="s">
-        <v>185</v>
-      </c>
-      <c r="M37" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B38" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C38" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D38" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L38" t="s">
-        <v>215</v>
-      </c>
-      <c r="M38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F39" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G39" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H39" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I39" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J39" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K39" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L39" t="s">
-        <v>12</v>
-      </c>
-      <c r="M39" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B40" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C40" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D40" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E40" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F40" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G40" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H40" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I40" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J40" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K40" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L40" t="s">
-        <v>167</v>
-      </c>
-      <c r="M40" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B41" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C41" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D41" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E41" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F41" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G41" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H41" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I41" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J41" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K41" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L41" t="s">
-        <v>186</v>
-      </c>
-      <c r="M41" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B42" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C42" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D42" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E42" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F42" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G42" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H42" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I42" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J42" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K42" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L42" t="s">
-        <v>216</v>
-      </c>
-      <c r="M42" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B43" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C43" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D43" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E43" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F43" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G43" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H43" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J43" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K43" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L43" t="s">
-        <v>24</v>
-      </c>
-      <c r="M43" t="s">
-        <v>302</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B44" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C44" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D44" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E44" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F44" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G44" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H44" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I44" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J44" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K44" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L44" t="s">
-        <v>154</v>
-      </c>
-      <c r="M44" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B45" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C45" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D45" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E45" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F45" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G45" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H45" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I45" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J45" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K45" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L45" t="s">
-        <v>168</v>
-      </c>
-      <c r="M45" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B46" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C46" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D46" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E46" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F46" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G46" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H46" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I46" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J46" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K46" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L46" t="s">
-        <v>187</v>
-      </c>
-      <c r="M46" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B47" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C47" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D47" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E47" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F47" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G47" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H47" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I47" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J47" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K47" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L47" t="s">
-        <v>217</v>
-      </c>
-      <c r="M47" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B48" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C48" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D48" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E48" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F48" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G48" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H48" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I48" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J48" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K48" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L48" t="s">
-        <v>15</v>
-      </c>
-      <c r="M48" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B49" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C49" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D49" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E49" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F49" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G49" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H49" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I49" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J49" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K49" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L49" t="s">
-        <v>155</v>
-      </c>
-      <c r="M49" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B50" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L50" t="s">
-        <v>169</v>
-      </c>
-      <c r="M50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B51" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C51" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D51" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E51" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F51" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G51" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H51" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I51" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J51" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K51" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L51" t="s">
-        <v>188</v>
-      </c>
-      <c r="M51" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B52" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C52" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D52" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E52" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F52" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G52" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H52" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I52" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J52" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K52" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L52" t="s">
-        <v>218</v>
-      </c>
-      <c r="M52" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B53" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C53" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D53" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E53" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F53" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G53" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H53" t="e">
         <v>#N/A</v>
@@ -3147,2942 +2970,2726 @@
       <c r="L53" t="e">
         <v>#N/A</v>
       </c>
-      <c r="M53" t="e">
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B54" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C54" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D54" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E54" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F54" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G54" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H54" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I54" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J54" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K54" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L54" t="s">
-        <v>156</v>
-      </c>
-      <c r="M54" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B55" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C55" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D55" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E55" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F55" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G55" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H55" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I55" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J55" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K55" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L55" t="s">
-        <v>170</v>
-      </c>
-      <c r="M55" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B56" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C56" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D56" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E56" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F56" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G56" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H56" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I56" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J56" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K56" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L56" t="s">
-        <v>189</v>
-      </c>
-      <c r="M56" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B57" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C57" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D57" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E57" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F57" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G57" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H57" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I57" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J57" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K57" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L57" t="s">
-        <v>219</v>
-      </c>
-      <c r="M57" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B58" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C58" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D58" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E58" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F58" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G58" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H58" t="s">
+        <v>12</v>
+      </c>
+      <c r="I58" t="s">
         <v>13</v>
       </c>
-      <c r="I58" t="s">
-        <v>14</v>
-      </c>
       <c r="J58" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K58" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L58" t="s">
-        <v>17</v>
-      </c>
-      <c r="M58" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B59" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C59" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D59" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E59" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F59" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G59" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H59" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I59" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J59" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K59" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L59" t="s">
-        <v>190</v>
-      </c>
-      <c r="M59" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B60" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C60" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D60" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E60" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F60" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G60" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H60" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I60" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J60" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K60" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L60" t="s">
-        <v>220</v>
-      </c>
-      <c r="M60" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B61" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C61" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D61" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E61" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F61" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G61" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H61" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I61" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J61" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K61" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L61" t="s">
-        <v>12</v>
-      </c>
-      <c r="M61" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B62" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C62" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D62" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E62" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F62" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G62" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H62" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I62" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J62" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K62" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L62" t="s">
-        <v>191</v>
-      </c>
-      <c r="M62" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B63" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C63" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D63" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E63" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F63" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G63" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H63" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I63" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J63" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K63" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L63" t="s">
-        <v>221</v>
-      </c>
-      <c r="M63" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B64" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C64" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D64" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E64" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F64" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G64" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H64" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I64" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J64" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K64" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L64" t="s">
-        <v>12</v>
-      </c>
-      <c r="M64" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B65" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C65" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D65" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E65" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F65" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G65" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H65" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I65" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J65" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K65" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L65" t="s">
-        <v>192</v>
-      </c>
-      <c r="M65" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B66" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C66" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D66" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E66" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F66" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G66" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H66" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I66" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J66" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K66" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L66" t="s">
-        <v>222</v>
-      </c>
-      <c r="M66" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B67" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C67" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D67" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E67" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F67" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G67" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H67" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I67" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J67" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K67" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L67" t="s">
-        <v>12</v>
-      </c>
-      <c r="M67" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B68" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C68" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D68" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E68" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F68" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G68" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H68" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I68" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J68" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K68" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L68" t="s">
-        <v>223</v>
-      </c>
-      <c r="M68" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B69" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C69" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D69" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E69" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F69" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G69" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H69" t="s">
+        <v>26</v>
+      </c>
+      <c r="I69" t="s">
+        <v>15</v>
+      </c>
+      <c r="J69" t="s">
         <v>27</v>
       </c>
-      <c r="I69" t="s">
-        <v>16</v>
-      </c>
-      <c r="J69" t="s">
-        <v>28</v>
-      </c>
       <c r="K69" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L69" t="s">
-        <v>12</v>
-      </c>
-      <c r="M69" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B70" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C70" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D70" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E70" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F70" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G70" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H70" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I70" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J70" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K70" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L70" t="s">
-        <v>171</v>
-      </c>
-      <c r="M70" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B71" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C71" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D71" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E71" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F71" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G71" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H71" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I71" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J71" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K71" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L71" t="s">
-        <v>193</v>
-      </c>
-      <c r="M71" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B72" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C72" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D72" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E72" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F72" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G72" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H72" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I72" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J72" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K72" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L72" t="s">
-        <v>224</v>
-      </c>
-      <c r="M72" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B73" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C73" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D73" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E73" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F73" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G73" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H73" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I73" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J73" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K73" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L73" t="s">
-        <v>12</v>
-      </c>
-      <c r="M73" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B74" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C74" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D74" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E74" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F74" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G74" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H74" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I74" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J74" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K74" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L74" t="s">
-        <v>225</v>
-      </c>
-      <c r="M74" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B75" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C75" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D75" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E75" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F75" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G75" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H75" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I75" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J75" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K75" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L75" t="s">
-        <v>12</v>
-      </c>
-      <c r="M75" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B76" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C76" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D76" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E76" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F76" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G76" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H76" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I76" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J76" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K76" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L76" t="s">
-        <v>194</v>
-      </c>
-      <c r="M76" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B77" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C77" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D77" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E77" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F77" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G77" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H77" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I77" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J77" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K77" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L77" t="s">
-        <v>226</v>
-      </c>
-      <c r="M77" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B78" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C78" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D78" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E78" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F78" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G78" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H78" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I78" t="s">
+        <v>20</v>
+      </c>
+      <c r="J78" t="s">
+        <v>11</v>
+      </c>
+      <c r="K78" t="s">
         <v>21</v>
       </c>
-      <c r="J78" t="s">
-        <v>12</v>
-      </c>
-      <c r="K78" t="s">
-        <v>22</v>
-      </c>
       <c r="L78" t="s">
-        <v>12</v>
-      </c>
-      <c r="M78" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B79" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C79" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D79" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E79" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F79" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G79" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H79" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I79" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J79" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K79" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L79" t="s">
-        <v>157</v>
-      </c>
-      <c r="M79" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B80" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C80" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D80" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E80" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F80" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G80" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H80" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I80" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J80" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K80" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L80" t="s">
-        <v>172</v>
-      </c>
-      <c r="M80" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B81" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C81" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D81" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E81" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F81" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G81" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H81" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I81" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J81" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K81" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L81" t="s">
-        <v>195</v>
-      </c>
-      <c r="M81" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B82" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C82" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D82" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E82" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F82" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G82" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H82" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I82" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J82" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K82" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L82" t="s">
-        <v>227</v>
-      </c>
-      <c r="M82" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B83" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C83" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D83" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E83" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F83" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G83" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H83" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I83" t="s">
+        <v>56</v>
+      </c>
+      <c r="J83" t="s">
+        <v>78</v>
+      </c>
+      <c r="K83" t="s">
+        <v>78</v>
+      </c>
+      <c r="L83" t="s">
         <v>57</v>
-      </c>
-      <c r="J83" t="s">
-        <v>79</v>
-      </c>
-      <c r="K83" t="s">
-        <v>79</v>
-      </c>
-      <c r="L83" t="s">
-        <v>58</v>
-      </c>
-      <c r="M83" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B84" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C84" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D84" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E84" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F84" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G84" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H84" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I84" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J84" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K84" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L84" t="s">
-        <v>196</v>
-      </c>
-      <c r="M84" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B85" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C85" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D85" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E85" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F85" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G85" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H85" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I85" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J85" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K85" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L85" t="s">
-        <v>228</v>
-      </c>
-      <c r="M85" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B86" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C86" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D86" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E86" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F86" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G86" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H86" t="e">
         <v>#N/A</v>
       </c>
       <c r="I86" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J86" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K86" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L86" t="s">
-        <v>13</v>
-      </c>
-      <c r="M86" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B87" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C87" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D87" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E87" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F87" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G87" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H87" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I87" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J87" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K87" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="L87" t="s">
-        <v>229</v>
-      </c>
-      <c r="M87" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B88" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C88" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D88" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E88" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F88" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G88" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H88" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I88" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J88" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K88" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L88" t="s">
-        <v>13</v>
-      </c>
-      <c r="M88" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B89" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C89" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D89" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E89" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F89" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G89" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H89" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I89" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J89" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K89" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L89" t="s">
-        <v>13</v>
-      </c>
-      <c r="M89" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B90" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C90" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D90" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E90" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F90" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G90" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H90" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I90" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K90" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L90" t="s">
-        <v>13</v>
-      </c>
-      <c r="M90" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B91" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C91" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D91" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E91" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F91" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G91" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H91" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I91" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J91" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K91" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L91" t="s">
-        <v>13</v>
-      </c>
-      <c r="M91" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B92" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C92" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D92" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E92" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F92" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G92" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H92" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I92" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J92" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K92" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L92" t="s">
-        <v>13</v>
-      </c>
-      <c r="M92" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B93" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C93" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D93" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E93" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F93" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G93" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H93" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I93" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J93" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K93" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L93" t="s">
-        <v>197</v>
-      </c>
-      <c r="M93" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B94" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C94" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D94" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E94" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F94" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G94" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H94" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I94" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J94" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K94" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L94" t="s">
-        <v>230</v>
-      </c>
-      <c r="M94" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B95" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C95" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D95" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E95" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F95" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G95" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H95" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I95" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J95" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K95" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L95" t="s">
-        <v>12</v>
-      </c>
-      <c r="M95" t="s">
-        <v>304</v>
+        <v>11</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B96" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C96" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D96" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E96" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F96" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G96" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H96" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I96" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J96" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K96" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L96" t="s">
-        <v>198</v>
-      </c>
-      <c r="M96" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B97" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C97" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D97" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E97" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F97" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G97" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H97" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I97" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J97" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K97" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L97" t="s">
-        <v>231</v>
-      </c>
-      <c r="M97" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B98" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C98" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D98" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E98" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F98" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G98" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H98" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I98" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J98" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K98" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L98" t="s">
-        <v>32</v>
-      </c>
-      <c r="M98" t="s">
-        <v>86</v>
+        <v>31</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B99" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C99" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D99" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E99" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F99" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G99" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H99" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I99" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J99" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K99" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L99" t="s">
-        <v>32</v>
-      </c>
-      <c r="M99" t="s">
-        <v>86</v>
+        <v>31</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B100" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C100" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D100" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E100" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F100" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G100" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H100" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I100" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J100" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K100" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L100" t="s">
-        <v>158</v>
-      </c>
-      <c r="M100" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B101" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C101" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D101" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E101" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F101" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G101" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H101" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I101" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J101" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K101" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L101" t="s">
-        <v>173</v>
-      </c>
-      <c r="M101" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B102" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C102" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D102" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E102" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F102" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G102" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H102" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I102" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J102" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K102" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L102" t="s">
-        <v>199</v>
-      </c>
-      <c r="M102" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B103" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C103" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D103" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E103" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F103" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G103" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H103" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I103" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J103" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K103" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L103" t="s">
-        <v>232</v>
-      </c>
-      <c r="M103" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B104" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C104" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D104" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E104" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F104" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G104" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H104" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I104" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J104" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K104" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L104" t="s">
-        <v>12</v>
-      </c>
-      <c r="M104" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B105" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C105" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D105" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E105" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F105" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G105" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H105" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I105" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J105" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K105" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L105" t="s">
-        <v>159</v>
-      </c>
-      <c r="M105" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B106" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C106" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D106" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E106" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F106" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G106" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H106" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I106" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J106" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K106" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L106" t="s">
-        <v>174</v>
-      </c>
-      <c r="M106" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B107" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C107" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D107" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E107" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F107" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G107" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H107" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I107" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J107" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K107" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L107" t="s">
-        <v>200</v>
-      </c>
-      <c r="M107" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B108" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C108" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D108" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E108" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F108" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G108" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H108" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I108" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J108" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K108" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L108" t="s">
-        <v>233</v>
-      </c>
-      <c r="M108" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B109" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C109" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D109" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E109" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F109" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G109" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H109" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I109" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J109" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K109" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L109" t="s">
-        <v>75</v>
-      </c>
-      <c r="M109" t="s">
-        <v>305</v>
+        <v>74</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B110" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C110" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D110" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E110" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F110" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G110" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H110" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I110" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J110" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K110" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L110" t="s">
-        <v>201</v>
-      </c>
-      <c r="M110" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B111" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C111" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D111" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E111" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F111" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G111" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H111" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I111" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J111" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K111" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L111" t="s">
-        <v>234</v>
-      </c>
-      <c r="M111" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B112" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C112" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D112" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E112" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F112" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G112" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H112" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I112" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J112" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K112" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L112" t="s">
-        <v>44</v>
-      </c>
-      <c r="M112" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B113" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C113" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D113" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E113" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F113" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G113" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H113" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I113" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J113" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K113" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L113" t="s">
-        <v>175</v>
-      </c>
-      <c r="M113" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B114" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C114" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D114" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E114" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F114" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G114" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H114" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I114" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J114" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K114" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L114" t="s">
-        <v>202</v>
-      </c>
-      <c r="M114" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B115" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C115" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D115" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E115" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F115" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G115" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H115" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I115" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J115" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K115" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L115" t="s">
-        <v>235</v>
-      </c>
-      <c r="M115" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B116" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C116" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D116" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E116" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F116" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G116" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H116" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I116" t="s">
+        <v>12</v>
+      </c>
+      <c r="J116" t="s">
         <v>13</v>
       </c>
-      <c r="J116" t="s">
-        <v>14</v>
-      </c>
       <c r="K116" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L116" t="s">
-        <v>12</v>
-      </c>
-      <c r="M116" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B117" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C117" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D117" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E117" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F117" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G117" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H117" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I117" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J117" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K117" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L117" t="s">
-        <v>203</v>
-      </c>
-      <c r="M117" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B118" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C118" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D118" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E118" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F118" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G118" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H118" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I118" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J118" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K118" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L118" t="s">
-        <v>236</v>
-      </c>
-      <c r="M118" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B119" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C119" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D119" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E119" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F119" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G119" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H119" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I119" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J119" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K119" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L119" t="s">
-        <v>18</v>
-      </c>
-      <c r="M119" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B120" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C120" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D120" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E120" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F120" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G120" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H120" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I120" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J120" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K120" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L120" t="s">
-        <v>237</v>
-      </c>
-      <c r="M120" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B121" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C121" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D121" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E121" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F121" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G121" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H121" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I121" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J121" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K121" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L121" t="s">
-        <v>18</v>
-      </c>
-      <c r="M121" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B122" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C122" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D122" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E122" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F122" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G122" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H122" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I122" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J122" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K122" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L122" t="s">
-        <v>176</v>
-      </c>
-      <c r="M122" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B123" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C123" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D123" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E123" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F123" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G123" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H123" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I123" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J123" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K123" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L123" t="s">
-        <v>204</v>
-      </c>
-      <c r="M123" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B124" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C124" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D124" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E124" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F124" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G124" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H124" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I124" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J124" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K124" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L124" t="s">
-        <v>238</v>
-      </c>
-      <c r="M124" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B125" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C125" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D125" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E125" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F125" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G125" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H125" t="e">
         <v>#N/A</v>
@@ -6099,541 +5706,499 @@
       <c r="L125" t="e">
         <v>#N/A</v>
       </c>
-      <c r="M125" t="e">
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B126" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C126" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D126" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E126" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F126" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G126" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H126" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I126" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J126" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K126" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L126" t="s">
-        <v>12</v>
-      </c>
-      <c r="M126" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B127" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C127" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D127" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E127" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F127" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G127" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H127" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I127" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J127" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K127" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L127" t="s">
-        <v>12</v>
-      </c>
-      <c r="M127" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B128" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C128" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D128" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E128" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F128" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G128" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H128" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I128" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J128" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K128" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L128" t="s">
-        <v>160</v>
-      </c>
-      <c r="M128" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B129" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C129" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D129" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E129" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F129" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G129" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H129" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I129" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J129" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K129" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L129" t="s">
-        <v>177</v>
-      </c>
-      <c r="M129" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B130" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C130" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D130" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E130" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F130" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G130" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H130" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I130" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J130" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K130" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L130" t="s">
-        <v>205</v>
-      </c>
-      <c r="M130" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B131" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C131" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D131" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E131" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F131" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G131" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H131" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I131" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J131" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K131" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L131" t="s">
-        <v>239</v>
-      </c>
-      <c r="M131" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B132" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C132" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D132" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E132" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F132" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G132" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H132" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I132" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J132" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K132" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L132" t="s">
-        <v>13</v>
-      </c>
-      <c r="M132" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B133" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C133" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D133" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E133" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F133" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G133" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H133" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I133" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J133" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K133" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L133" t="s">
-        <v>161</v>
-      </c>
-      <c r="M133" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B134" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C134" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D134" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E134" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F134" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G134" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H134" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I134" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J134" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K134" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L134" t="s">
-        <v>178</v>
-      </c>
-      <c r="M134" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B135" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C135" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D135" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E135" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F135" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G135" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H135" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I135" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J135" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K135" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L135" t="s">
-        <v>206</v>
-      </c>
-      <c r="M135" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B136" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C136" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D136" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E136" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F136" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G136" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H136" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I136" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J136" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K136" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L136" t="s">
-        <v>240</v>
-      </c>
-      <c r="M136" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B137" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C137" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D137" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E137" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F137" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G137" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H137" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I137" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J137" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K137" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L137" t="s">
-        <v>20</v>
-      </c>
-      <c r="M137" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B138" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C138" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D138" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E138" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F138" t="s">
+        <v>285</v>
+      </c>
+      <c r="G138" t="s">
         <v>286</v>
       </c>
-      <c r="G138" t="s">
-        <v>287</v>
-      </c>
       <c r="H138" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I138" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J138" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K138" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L138" t="s">
-        <v>20</v>
-      </c>
-      <c r="M138" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
